--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="737" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="737" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gauss_2D_quads_iso DFEM Linear" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
   <si>
     <t>Uniform</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>err - Lagrange</t>
-  </si>
-  <si>
-    <t>err - Serendipity</t>
   </si>
   <si>
     <t>1st</t>
@@ -206,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,6 +244,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -274,7 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,11 +855,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="350630400"/>
-        <c:axId val="350630960"/>
+        <c:axId val="353230192"/>
+        <c:axId val="353230752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="350630400"/>
+        <c:axId val="353230192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -913,12 +919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350630960"/>
+        <c:crossAx val="353230752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="350630960"/>
+        <c:axId val="353230752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -976,7 +982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350630400"/>
+        <c:crossAx val="353230192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1046,213 +1052,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>1st Order</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$E$3:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.96680609780621696</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28771852887709398</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.109685760918177</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7676097156653201E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.92466979585964E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7312938924469699E-3</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.5386003378579198E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$J$3:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36864</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>147456</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$L$3:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.42660971206547998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12344091236093201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2806897864589E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6226299151069401E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0372738871442901E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.54946330780431E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1325,12 +1133,16 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2nd Order</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1401,8 +1213,103 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Uniform Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.96680609780621696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28771852887709398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.109685760918177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7676097156653201E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.92466979585964E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7312938924469699E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>4.5386003378579198E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Uniform Quadratic</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1458,25 +1365,25 @@
             <c:numRef>
               <c:f>'Gauss_2D_quads_iso - Quadratic'!$N$3:$N$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.55172883626966496</c:v>
+                  <c:v>0.55096529206121003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.113987531037804</c:v>
+                  <c:v>0.113623887736235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2258659036835101E-2</c:v>
+                  <c:v>1.2226393428338299E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1704794602780499E-3</c:v>
+                  <c:v>1.5534309340943201E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5730539546839101E-3</c:v>
+                  <c:v>1.9591904482989101E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5602152109705401E-3</c:v>
+                  <c:v>2.25364E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,7 +1392,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>AMR Quadratic</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1512,84 +1422,96 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$O$3:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9316</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Gauss_2D_quads_iso - Quadratic'!$P$3:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>0.55096529206121003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>268</c:v>
+                  <c:v>0.16331495441563099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556</c:v>
+                  <c:v>3.1289324995501903E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1020</c:v>
+                  <c:v>8.5111824164608493E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1324</c:v>
+                  <c:v>5.8092842763180601E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2172</c:v>
+                  <c:v>8.0587555871336602E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3428</c:v>
+                  <c:v>1.3073030878355599E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3804</c:v>
+                  <c:v>2.15593843417007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7496</c:v>
+                  <c:v>6.1220770443589203E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9124</c:v>
+                  <c:v>2.6927587705687598E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$Q$3:$Q$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.82219965684002205</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.651725013463199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63645441627631705</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63974819497644198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.64006806960467999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63727117266597999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.655714540103017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64265937080765301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63537282400972095</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.64297906337968502</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.64441952113848899</c:v>
+                  <c:v>2.83684754791476E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.10463047318404E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.62564005714126E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,11 +1526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="350795744"/>
-        <c:axId val="350796304"/>
+        <c:axId val="438789248"/>
+        <c:axId val="438789808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="350795744"/>
+        <c:axId val="438789248"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1667,12 +1589,610 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350796304"/>
+        <c:crossAx val="438789808"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="350796304"/>
+        <c:axId val="438789808"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000004E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438789248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4633255085630798E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1034296750803901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7422973251359098E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8360800833021796E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7067869013473301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.2645913129575001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4817675982742E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.10920064465893E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7582070447413299E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8777383499310995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7174388682753201E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.2915181519391997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8081826404001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1925167890795001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9663920547648602E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3970942806215003E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8471442224791301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.6157088931970002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8081826404148702E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1925167891111499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9663920550908598E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3970942839033901E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.84714422579695E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.61570892665915E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="442089616"/>
+        <c:axId val="442090176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="442089616"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442090176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442090176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1730,7 +2250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350795744"/>
+        <c:crossAx val="442089616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1742,6 +2262,552 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4999015316313201E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7670900456358201E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4470058220417498E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3662422981680101E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>5.9222760256350099E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.4815466809758699E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.208333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3020833333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2552083333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1380208333333329E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0345052083333332E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0862630208333331E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7587908150366268E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6984885187957773E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.873110648494731E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3413883106183989E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1767353882730132E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1470919235341242E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475750816"/>
+        <c:axId val="475751376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475750816"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475751376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475751376"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475750816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1859,6 +2925,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2376,6 +3522,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2931,19 +5109,89 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>481852</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:colOff>481851</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32497</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3240,17 +5488,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3263,13 +5511,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -3541,10 +5789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,65 +5807,64 @@
     <col min="9" max="9" width="12.42578125" style="4" customWidth="1"/>
     <col min="10" max="12" width="15" style="4" customWidth="1"/>
     <col min="13" max="13" width="15" style="7" customWidth="1"/>
-    <col min="14" max="17" width="15" style="4" customWidth="1"/>
-    <col min="18" max="19" width="15" customWidth="1"/>
+    <col min="14" max="16" width="15" style="4" customWidth="1"/>
+    <col min="17" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="J1" s="13" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="13"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="17"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>6</v>
@@ -3626,25 +5873,22 @@
         <v>1</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>64</v>
       </c>
@@ -3689,20 +5933,17 @@
       <c r="M3" s="7">
         <v>128</v>
       </c>
-      <c r="N3" s="2">
-        <v>0.55172883626966496</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0.82219965684002205</v>
-      </c>
-      <c r="P3" s="9">
+      <c r="N3" s="13">
+        <v>0.55096529206121003</v>
+      </c>
+      <c r="O3" s="13">
         <v>128</v>
       </c>
-      <c r="Q3" s="9">
-        <v>0.82219965684002205</v>
+      <c r="P3" s="13">
+        <v>0.55096529206121003</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>256</v>
       </c>
@@ -3747,20 +5988,17 @@
       <c r="M4" s="7">
         <v>512</v>
       </c>
-      <c r="N4" s="2">
-        <v>0.113987531037804</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0.65426411951833197</v>
-      </c>
-      <c r="P4" s="9">
+      <c r="N4" s="13">
+        <v>0.113623887736235</v>
+      </c>
+      <c r="O4" s="13">
         <v>268</v>
       </c>
-      <c r="Q4" s="9">
-        <v>0.651725013463199</v>
+      <c r="P4" s="13">
+        <v>0.16331495441563099</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1024</v>
       </c>
@@ -3805,20 +6043,17 @@
       <c r="M5" s="7">
         <v>2048</v>
       </c>
-      <c r="N5" s="2">
-        <v>1.2258659036835101E-2</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0.64477888219371304</v>
-      </c>
-      <c r="P5" s="9">
+      <c r="N5" s="13">
+        <v>1.2226393428338299E-2</v>
+      </c>
+      <c r="O5" s="13">
         <v>556</v>
       </c>
-      <c r="Q5" s="9">
-        <v>0.63645441627631705</v>
+      <c r="P5" s="13">
+        <v>3.1289324995501903E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4096</v>
       </c>
@@ -3863,20 +6098,17 @@
       <c r="M6" s="7">
         <v>8192</v>
       </c>
-      <c r="N6" s="2">
-        <v>2.1704794602780499E-3</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0.64471864458888095</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1020</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0.63974819497644198</v>
+      <c r="N6" s="13">
+        <v>1.5534309340943201E-3</v>
+      </c>
+      <c r="O6" s="13">
+        <v>944</v>
+      </c>
+      <c r="P6" s="13">
+        <v>8.5111824164608493E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>16384</v>
       </c>
@@ -3921,20 +6153,17 @@
       <c r="M7" s="7">
         <v>32768</v>
       </c>
-      <c r="N7" s="2">
-        <v>1.5730539546839101E-3</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0.644725563852101</v>
-      </c>
-      <c r="P7" s="9">
-        <v>1324</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0.64006806960467999</v>
+      <c r="N7" s="13">
+        <v>1.9591904482989101E-4</v>
+      </c>
+      <c r="O7" s="13">
+        <v>1248</v>
+      </c>
+      <c r="P7" s="13">
+        <v>5.8092842763180601E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>65536</v>
       </c>
@@ -3979,20 +6208,17 @@
       <c r="M8" s="2">
         <v>131072</v>
       </c>
-      <c r="N8" s="2">
-        <v>1.5602152109705401E-3</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0.644727507005734</v>
-      </c>
-      <c r="P8" s="9">
-        <v>2172</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0.63727117266597999</v>
+      <c r="N8" s="9">
+        <v>2.25364E-5</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1880</v>
+      </c>
+      <c r="P8" s="13">
+        <v>8.0587555871336602E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>250000</v>
       </c>
@@ -4024,55 +6250,71 @@
         <v>6.4000000000000006E-6</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="P9" s="9">
-        <v>3428</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0.655714540103017</v>
+      <c r="O9" s="13">
+        <v>3948</v>
+      </c>
+      <c r="P9" s="13">
+        <v>1.3073030878355599E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P10" s="9">
-        <v>3804</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0.64265937080765301</v>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O10" s="13">
+        <v>5456</v>
+      </c>
+      <c r="P10" s="13">
+        <v>2.15593843417007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P11" s="9">
-        <v>7496</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0.63537282400972095</v>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O11" s="13">
+        <v>5896</v>
+      </c>
+      <c r="P11" s="13">
+        <v>6.1220770443589203E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P12" s="9">
-        <v>9124</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0.64297906337968502</v>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O12" s="13">
+        <v>8232</v>
+      </c>
+      <c r="P12" s="13">
+        <v>2.6927587705687598E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P13" s="9">
-        <v>18428</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0.64441952113848899</v>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O13" s="13">
+        <v>8996</v>
+      </c>
+      <c r="P13" s="13">
+        <v>2.83684754791476E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O14" s="13">
+        <v>9316</v>
+      </c>
+      <c r="P14" s="13">
+        <v>1.10463047318404E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O15" s="13">
+        <v>20976</v>
+      </c>
+      <c r="P15" s="13">
+        <v>7.62564005714126E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4094,48 +6336,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -4247,7 +6489,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:N1048576"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4256,48 +6498,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -4522,22 +6764,22 @@
       <c r="A9">
         <v>65536</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="16">
         <v>4.2645913129575001E-5</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="16">
         <v>4.2915181519391997E-5</v>
       </c>
       <c r="E9">
         <v>98304</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="16">
         <v>4.61570889354554E-5</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="16">
         <v>4.6157088931970002E-5</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="16">
         <v>4.61570892665915E-5</v>
       </c>
       <c r="I9">
@@ -4665,55 +6907,60 @@
     <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="15" customWidth="1"/>
+    <col min="1" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -4726,76 +6973,131 @@
       <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>192</v>
       </c>
       <c r="D4">
         <v>1.4999015316313201E-2</v>
       </c>
+      <c r="E4">
+        <f>1/C4</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="F4">
+        <f>C4^(-3/2)</f>
+        <v>3.7587908150366268E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>768</v>
       </c>
       <c r="D5">
         <v>3.7670900456358201E-3</v>
       </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E9" si="0">1/C5</f>
+        <v>1.3020833333333333E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F9" si="1">C5^(-3/2)</f>
+        <v>4.6984885187957773E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3072</v>
       </c>
       <c r="D6">
         <v>9.4470058220417498E-4</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.2552083333333332E-4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5.873110648494731E-6</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>12288</v>
       </c>
       <c r="D7">
         <v>2.3662422981680101E-4</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8.1380208333333329E-5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>7.3413883106183989E-7</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>49152</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="16">
         <v>5.9222760256350099E-5</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>9.1767353882730132E-8</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>196608</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="16">
         <v>1.4815466809758699E-5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.0862630208333331E-6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.1470919235341242E-8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="737" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="737" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gauss_2D_quads_iso DFEM Linear" sheetId="1" r:id="rId1"/>
     <sheet name="Gauss_2D_quads_iso - Quadratic" sheetId="2" r:id="rId2"/>
-    <sheet name="Gauss_2D_quads_iso CFEM lin" sheetId="3" r:id="rId3"/>
-    <sheet name="QuadSol_1angle - DFEM lin" sheetId="4" r:id="rId4"/>
-    <sheet name="QuadSol_1angle - DFEM quad" sheetId="5" r:id="rId5"/>
+    <sheet name="G2D_quads_Lagrange" sheetId="6" r:id="rId3"/>
+    <sheet name="Gauss_2D_quads_iso CFEM lin" sheetId="3" r:id="rId4"/>
+    <sheet name="QuadSol_1angle - DFEM lin" sheetId="4" r:id="rId5"/>
+    <sheet name="QuadSol_1angle - DFEM quad" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
   <si>
     <t>Uniform</t>
   </si>
@@ -88,6 +89,27 @@
   </si>
   <si>
     <t>AMR</t>
+  </si>
+  <si>
+    <t>2nd Order</t>
+  </si>
+  <si>
+    <t>3rd Order</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>lagrange</t>
+  </si>
+  <si>
+    <t>serendipity</t>
+  </si>
+  <si>
+    <t>LAGRANGE</t>
+  </si>
+  <si>
+    <t>SERENDIPITY</t>
   </si>
 </sst>
 </file>
@@ -203,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,6 +275,21 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -855,11 +892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353230192"/>
-        <c:axId val="353230752"/>
+        <c:axId val="140679248"/>
+        <c:axId val="140679808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353230192"/>
+        <c:axId val="140679248"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -919,12 +956,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353230752"/>
+        <c:crossAx val="140679808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353230752"/>
+        <c:axId val="140679808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -982,7 +1019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353230192"/>
+        <c:crossAx val="140679248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1526,11 +1563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438789248"/>
-        <c:axId val="438789808"/>
+        <c:axId val="195329536"/>
+        <c:axId val="195330096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438789248"/>
+        <c:axId val="195329536"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1589,12 +1626,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438789808"/>
+        <c:crossAx val="195330096"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438789808"/>
+        <c:axId val="195330096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1653,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438789248"/>
+        <c:crossAx val="195329536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1667,7 +1704,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1748,46 +1784,255 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1st Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>G2D_quads_Lagrange!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>G2D_quads_Lagrange!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.765625E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.44140625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.103515625E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5999999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2nd Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>G2D_quads_Lagrange!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>G2D_quads_Lagrange!$H$3:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1953125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.44140625E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0517578125E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.814697265625E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.76837158203125E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4000000000000006E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3rd Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>G2D_quads_Lagrange!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>G2D_quads_Lagrange!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8828125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0517578125E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9073486328125E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1920928955078125E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4505805969238281E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1200000000000002E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1814,10 +2059,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$A$4:$A$9</c:f>
+              <c:f>G2D_quads_Lagrange!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -1835,33 +2080,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$B$4:$B$9</c:f>
+              <c:f>G2D_quads_Lagrange!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.4633255085630798E-2</c:v>
+                  <c:v>0.96680609780621696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1034296750803901E-2</c:v>
+                  <c:v>0.28771852887709398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7422973251359098E-3</c:v>
+                  <c:v>0.109685760918177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8360800833021796E-4</c:v>
+                  <c:v>2.7676097156653201E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7067869013473301E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.2645913129575001E-5</c:v>
+                  <c:v>6.92466979585964E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7312938924469699E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>4.5386003378579198E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,12 +2120,12 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1885,11 +2136,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1897,54 +2148,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$A$4:$A$9</c:f>
+              <c:f>G2D_quads_Lagrange!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1024</c:v>
+                  <c:v>2304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4096</c:v>
+                  <c:v>9216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
+                  <c:v>36864</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65536</c:v>
+                  <c:v>147456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$C$4:$C$9</c:f>
+              <c:f>G2D_quads_Lagrange!$L$4:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.4817675982742E-2</c:v>
+                  <c:v>0.42660971206547998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.10920064465893E-2</c:v>
+                  <c:v>0.12344091236093201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7582070447413299E-3</c:v>
+                  <c:v>1.2806897864589E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8777383499310995E-4</c:v>
+                  <c:v>1.6226299151069401E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7174388682753201E-4</c:v>
+                  <c:v>2.0372738871442901E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.2915181519391997E-5</c:v>
+                  <c:v>2.54946330780431E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,12 +2203,12 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1968,11 +2219,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1980,137 +2231,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$E$4:$E$9</c:f>
+              <c:f>G2D_quads_Lagrange!$P$4:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>384</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1536</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6144</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24576</c:v>
+                  <c:v>65536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98304</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$G$4:$G$9</c:f>
+              <c:f>G2D_quads_Lagrange!$Q$4:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.8081826404001E-2</c:v>
+                  <c:v>0.24511670502347899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1925167890795001E-2</c:v>
+                  <c:v>1.2881599389974E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9663920547648602E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3970942806215003E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8471442224791301E-4</c:v>
+                  <c:v>1.3571827580066999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>8.74427297685418E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>5.4964154115170998E-6</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.6157088931970002E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$E$4:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>98304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$H$4:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.8081826404148702E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1925167891111499E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9663920550908598E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3970942839033901E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.84714422579695E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.61570892665915E-5</c:v>
+                  <c:v>9.2318100100643895E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,11 +2293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="442089616"/>
-        <c:axId val="442090176"/>
+        <c:axId val="195335696"/>
+        <c:axId val="195336256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="442089616"/>
+        <c:axId val="195335696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2187,12 +2355,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442090176"/>
+        <c:crossAx val="195336256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442090176"/>
+        <c:axId val="195336256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2250,7 +2418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442089616"/>
+        <c:crossAx val="195335696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2346,7 +2514,601 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4633255085630798E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1034296750803901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7422973251359098E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8360800833021796E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7067869013473301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.2645913129575001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4817675982742E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.10920064465893E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7582070447413299E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8777383499310995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7174388682753201E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.2915181519391997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8081826404001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1925167890795001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9663920547648602E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3970942806215003E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8471442224791301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.6157088931970002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8081826404148702E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1925167891111499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9663920550908598E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3970942839033901E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.84714422579695E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.61570892665915E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="195340736"/>
+        <c:axId val="195997520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="195340736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195997520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="195997520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195340736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2639,11 +3401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475750816"/>
-        <c:axId val="475751376"/>
+        <c:axId val="196001440"/>
+        <c:axId val="196002000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475750816"/>
+        <c:axId val="196001440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2701,12 +3463,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475751376"/>
+        <c:crossAx val="196002000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475751376"/>
+        <c:axId val="196002000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2764,7 +3526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475750816"/>
+        <c:crossAx val="196001440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2778,7 +3540,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3005,6 +3766,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4554,6 +5355,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5144,6 +6461,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>672352</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>146797</xdr:rowOff>
@@ -5174,7 +6526,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5488,17 +6840,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5791,8 +7143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,28 +7164,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17"/>
+      <c r="R1" s="21"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -6313,8 +7668,8 @@
   <mergeCells count="4">
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6323,6 +7678,489 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="14" width="13.140625" customWidth="1"/>
+    <col min="16" max="19" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="17"/>
+      <c r="K1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="P1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="P2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="22"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>64</v>
+      </c>
+      <c r="B3" s="17">
+        <f>LOG(A3)</f>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="C3" s="17">
+        <f>0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="17">
+        <f>LOG(C3)</f>
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.96680609780621696</v>
+      </c>
+      <c r="F3" s="17">
+        <f>LOG(E3)</f>
+        <v>-1.4660619088507777E-2</v>
+      </c>
+      <c r="G3" s="17">
+        <f>C3^2*100</f>
+        <v>6.25</v>
+      </c>
+      <c r="H3" s="17">
+        <f>C3^3*100</f>
+        <v>1.5625</v>
+      </c>
+      <c r="I3" s="17">
+        <f>C3^4*200</f>
+        <v>0.78125</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>256</v>
+      </c>
+      <c r="B4" s="17">
+        <f t="shared" ref="B4:B9" si="0">LOG(A4)</f>
+        <v>2.4082399653118496</v>
+      </c>
+      <c r="C4" s="17">
+        <f>C3/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" ref="D4:D9" si="1">LOG(C4)</f>
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.28771852887709398</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" ref="F4:F9" si="2">LOG(E4)</f>
+        <v>-0.54103216894053285</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" ref="G4:G9" si="3">C4^2*100</f>
+        <v>1.5625</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" ref="H4:H9" si="4">C4^3*100</f>
+        <v>0.1953125</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" ref="I4:I9" si="5">C4^4*200</f>
+        <v>4.8828125E-2</v>
+      </c>
+      <c r="K4" s="17">
+        <v>144</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0.42660971206547998</v>
+      </c>
+      <c r="M4" s="18">
+        <v>128</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.44991158430958</v>
+      </c>
+      <c r="P4" s="19">
+        <v>256</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0.24511670502347899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>1024</v>
+      </c>
+      <c r="B5" s="17">
+        <f t="shared" si="0"/>
+        <v>3.0102999566398121</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" ref="C5:C8" si="6">C4/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="1"/>
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.109685760918177</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.95984974759426889</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="3"/>
+        <v>0.390625</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="4"/>
+        <v>2.44140625E-2</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="5"/>
+        <v>3.0517578125E-3</v>
+      </c>
+      <c r="K5" s="17">
+        <v>576</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0.12344091236093201</v>
+      </c>
+      <c r="M5" s="18">
+        <v>512</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0.123611944460165</v>
+      </c>
+      <c r="P5" s="19">
+        <v>1024</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>1.2881599389974E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>4096</v>
+      </c>
+      <c r="B6" s="17">
+        <f t="shared" si="0"/>
+        <v>3.6123599479677742</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="1"/>
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2.7676097156653201E-2</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.5578951534795746</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="3"/>
+        <v>9.765625E-2</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="4"/>
+        <v>3.0517578125E-3</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="5"/>
+        <v>1.9073486328125E-4</v>
+      </c>
+      <c r="K6" s="17">
+        <v>2304</v>
+      </c>
+      <c r="L6" s="17">
+        <v>1.2806897864589E-2</v>
+      </c>
+      <c r="M6" s="18">
+        <v>2048</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1.29567262786669E-2</v>
+      </c>
+      <c r="P6" s="19">
+        <v>4096</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>1.3571827580066999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>16384</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" si="0"/>
+        <v>4.2144199392957367</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="E7" s="17">
+        <v>6.92466979585964E-3</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="2"/>
+        <v>-2.1596009311812283</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="3"/>
+        <v>2.44140625E-2</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="4"/>
+        <v>3.814697265625E-4</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1920928955078125E-5</v>
+      </c>
+      <c r="K7" s="17">
+        <v>9216</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1.6226299151069401E-3</v>
+      </c>
+      <c r="M7" s="18">
+        <v>8192</v>
+      </c>
+      <c r="N7" s="18">
+        <v>1.62764983223167E-3</v>
+      </c>
+      <c r="P7" s="19">
+        <v>16384</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>8.74427297685418E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>65536</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="0"/>
+        <v>4.8164799306236992</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="6"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="1"/>
+        <v>-2.1072099696478683</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1.7312938924469699E-3</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="2"/>
+        <v>-2.761629203046565</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="3"/>
+        <v>6.103515625E-3</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="4"/>
+        <v>4.76837158203125E-5</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="5"/>
+        <v>7.4505805969238281E-7</v>
+      </c>
+      <c r="K8" s="17">
+        <v>36864</v>
+      </c>
+      <c r="L8" s="17">
+        <v>2.0372738871442901E-4</v>
+      </c>
+      <c r="M8" s="18">
+        <v>32768</v>
+      </c>
+      <c r="N8" s="18">
+        <v>2.0388590553677301E-4</v>
+      </c>
+      <c r="P8" s="19">
+        <v>65536</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>5.4964154115170998E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>250000</v>
+      </c>
+      <c r="B9" s="17">
+        <f t="shared" si="0"/>
+        <v>5.3979400086720375</v>
+      </c>
+      <c r="C9" s="17">
+        <f>1/250</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="1"/>
+        <v>-2.3979400086720375</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.5386003378579198E-4</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="2"/>
+        <v>-3.3430780588753279</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="3"/>
+        <v>1.5999999999999999E-3</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="4"/>
+        <v>6.4000000000000006E-6</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="5"/>
+        <v>5.1200000000000002E-8</v>
+      </c>
+      <c r="K9" s="17">
+        <v>147456</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2.54946330780431E-5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>131072</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2.54996024889844E-5</v>
+      </c>
+      <c r="P9" s="19">
+        <v>160000</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>9.2318100100643895E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -6336,48 +8174,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -6484,7 +8322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -6498,48 +8336,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -6911,7 +8749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -6925,40 +8763,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="737" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="737" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gauss_2D_quads_iso DFEM Linear" sheetId="1" r:id="rId1"/>
@@ -892,11 +892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140679248"/>
-        <c:axId val="140679808"/>
+        <c:axId val="208982320"/>
+        <c:axId val="208983728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140679248"/>
+        <c:axId val="208982320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -956,12 +956,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140679808"/>
+        <c:crossAx val="208983728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140679808"/>
+        <c:axId val="208983728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1019,7 +1019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140679248"/>
+        <c:crossAx val="208982320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1563,11 +1563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195329536"/>
-        <c:axId val="195330096"/>
+        <c:axId val="208318776"/>
+        <c:axId val="208319160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195329536"/>
+        <c:axId val="208318776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1626,12 +1626,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195330096"/>
+        <c:crossAx val="208319160"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195330096"/>
+        <c:axId val="208319160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1690,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195329536"/>
+        <c:crossAx val="208318776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1704,6 +1704,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2293,11 +2294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195335696"/>
-        <c:axId val="195336256"/>
+        <c:axId val="209312104"/>
+        <c:axId val="209312488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195335696"/>
+        <c:axId val="209312104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2355,12 +2356,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195336256"/>
+        <c:crossAx val="209312488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195336256"/>
+        <c:axId val="209312488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2418,7 +2419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195335696"/>
+        <c:crossAx val="209312104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2889,11 +2890,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195340736"/>
-        <c:axId val="195997520"/>
+        <c:axId val="208714504"/>
+        <c:axId val="209665032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195340736"/>
+        <c:axId val="208714504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2951,12 +2952,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195997520"/>
+        <c:crossAx val="209665032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195997520"/>
+        <c:axId val="209665032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3014,7 +3015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195340736"/>
+        <c:crossAx val="208714504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3401,11 +3402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196001440"/>
-        <c:axId val="196002000"/>
+        <c:axId val="208919008"/>
+        <c:axId val="208924544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196001440"/>
+        <c:axId val="208919008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3463,12 +3464,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196002000"/>
+        <c:crossAx val="208924544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196002000"/>
+        <c:axId val="208924544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3526,7 +3527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196001440"/>
+        <c:crossAx val="208919008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7143,8 +7144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7297,6 +7298,12 @@
       <c r="P3" s="13">
         <v>0.55096529206121003</v>
       </c>
+      <c r="Q3">
+        <v>128</v>
+      </c>
+      <c r="R3">
+        <v>0.55096529206121003</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -7352,6 +7359,12 @@
       <c r="P4" s="13">
         <v>0.16331495441563099</v>
       </c>
+      <c r="Q4">
+        <v>332</v>
+      </c>
+      <c r="R4">
+        <v>0.113569318947477</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -7407,6 +7420,12 @@
       <c r="P5" s="13">
         <v>3.1289324995501903E-2</v>
       </c>
+      <c r="Q5">
+        <v>836</v>
+      </c>
+      <c r="R5">
+        <v>1.2225104396792801E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7462,6 +7481,12 @@
       <c r="P6" s="13">
         <v>8.5111824164608493E-3</v>
       </c>
+      <c r="Q6">
+        <v>2088</v>
+      </c>
+      <c r="R6">
+        <v>1.5775708986585199E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -7516,6 +7541,12 @@
       </c>
       <c r="P7" s="13">
         <v>5.8092842763180601E-3</v>
+      </c>
+      <c r="Q7">
+        <v>5192</v>
+      </c>
+      <c r="R7">
+        <v>4.3882643757812002E-4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -7681,8 +7712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -892,11 +892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208982320"/>
-        <c:axId val="208983728"/>
+        <c:axId val="204368352"/>
+        <c:axId val="204370784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208982320"/>
+        <c:axId val="204368352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -956,12 +956,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208983728"/>
+        <c:crossAx val="204370784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208983728"/>
+        <c:axId val="204370784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1019,7 +1019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208982320"/>
+        <c:crossAx val="204368352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1443,7 +1443,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1459,96 +1459,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$O$3:$O$26</c:f>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$Q$3:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>268</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>944</c:v>
+                  <c:v>2088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1880</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3948</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5456</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5896</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8232</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9316</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20976</c:v>
+                  <c:v>5192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$P$3:$P$26</c:f>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$R$3:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.55096529206121003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16331495441563099</c:v>
+                  <c:v>0.113569318947477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1289324995501903E-2</c:v>
+                  <c:v>1.2225104396792801E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5111824164608493E-3</c:v>
+                  <c:v>1.5775708986585199E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8092842763180601E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0587555871336602E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3073030878355599E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.15593843417007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1220770443589203E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6927587705687598E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.83684754791476E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.10463047318404E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.62564005714126E-3</c:v>
+                  <c:v>4.3882643757812002E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1563,11 +1515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208318776"/>
-        <c:axId val="208319160"/>
+        <c:axId val="203760520"/>
+        <c:axId val="203760904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208318776"/>
+        <c:axId val="203760520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1626,12 +1578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208319160"/>
+        <c:crossAx val="203760904"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208319160"/>
+        <c:axId val="203760904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1690,7 +1642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208318776"/>
+        <c:crossAx val="203760520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2294,11 +2246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209312104"/>
-        <c:axId val="209312488"/>
+        <c:axId val="203539488"/>
+        <c:axId val="204148648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209312104"/>
+        <c:axId val="203539488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2356,12 +2308,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209312488"/>
+        <c:crossAx val="204148648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209312488"/>
+        <c:axId val="204148648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2419,7 +2371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209312104"/>
+        <c:crossAx val="203539488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2433,7 +2385,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2890,11 +2841,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208714504"/>
-        <c:axId val="209665032"/>
+        <c:axId val="204202120"/>
+        <c:axId val="204202504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208714504"/>
+        <c:axId val="204202120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2952,12 +2903,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209665032"/>
+        <c:crossAx val="204202504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209665032"/>
+        <c:axId val="204202504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3015,7 +2966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208714504"/>
+        <c:crossAx val="204202120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3402,11 +3353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208919008"/>
-        <c:axId val="208924544"/>
+        <c:axId val="204290920"/>
+        <c:axId val="204291304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208919008"/>
+        <c:axId val="204290920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3464,12 +3415,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208924544"/>
+        <c:crossAx val="204291304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208924544"/>
+        <c:axId val="204291304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3527,7 +3478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208919008"/>
+        <c:crossAx val="204290920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7145,7 +7096,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R7"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
   <si>
     <t>Uniform</t>
   </si>
@@ -79,9 +79,6 @@
     <t>dofs - MAXENT</t>
   </si>
   <si>
-    <t>Irr=1, rtol=0.5</t>
-  </si>
-  <si>
     <t>Cartesian</t>
   </si>
   <si>
@@ -110,6 +107,15 @@
   </si>
   <si>
     <t>SERENDIPITY</t>
+  </si>
+  <si>
+    <t>Irr=3, rtol=0.3, type=0</t>
+  </si>
+  <si>
+    <t>Irr=1, rtol=0.5, type=1</t>
+  </si>
+  <si>
+    <t>Irr=1, rtol=0.3, type=1</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +290,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,11 +901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204368352"/>
-        <c:axId val="204370784"/>
+        <c:axId val="199999360"/>
+        <c:axId val="199997120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204368352"/>
+        <c:axId val="199999360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -956,12 +965,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204370784"/>
+        <c:crossAx val="199997120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204370784"/>
+        <c:axId val="199997120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1019,7 +1028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204368352"/>
+        <c:crossAx val="199999360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1431,7 +1440,15 @@
           <c:idx val="5"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>AMR Quadratic</c:v>
+            <c:strRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$Q$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Irr=1, rtol=0.5, type=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1507,6 +1524,130 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$S$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Irr=1, rtol=0.3, type=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$S$3:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55420</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$T$3:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.55096529206121003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16331495441563201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.10919434648423E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0575091694061202E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.71808912805479E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7806666028501096E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2375733763059101E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>9.5389338686431403E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>3.2152372669260001E-5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>1.7583982920345201E-5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>4.7851905992066301E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1515,11 +1656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203760520"/>
-        <c:axId val="203760904"/>
+        <c:axId val="34425312"/>
+        <c:axId val="34424752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203760520"/>
+        <c:axId val="34425312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1563,7 +1704,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1578,16 +1719,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203760904"/>
+        <c:crossAx val="34424752"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203760904"/>
+        <c:axId val="34424752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1.0000000000000004E-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1627,7 +1767,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1642,7 +1782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203760520"/>
+        <c:crossAx val="34425312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1670,7 +1810,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1710,7 +1850,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2246,11 +2386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203539488"/>
-        <c:axId val="204148648"/>
+        <c:axId val="328441408"/>
+        <c:axId val="328441968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203539488"/>
+        <c:axId val="328441408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2308,12 +2448,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204148648"/>
+        <c:crossAx val="328441968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204148648"/>
+        <c:axId val="328441968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2371,7 +2511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203539488"/>
+        <c:crossAx val="328441408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2841,11 +2981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204202120"/>
-        <c:axId val="204202504"/>
+        <c:axId val="328446448"/>
+        <c:axId val="328447008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204202120"/>
+        <c:axId val="328446448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2903,12 +3043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204202504"/>
+        <c:crossAx val="328447008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204202504"/>
+        <c:axId val="328447008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2966,7 +3106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204202120"/>
+        <c:crossAx val="328446448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3353,11 +3493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204290920"/>
-        <c:axId val="204291304"/>
+        <c:axId val="328937616"/>
+        <c:axId val="328938176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204290920"/>
+        <c:axId val="328937616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3415,12 +3555,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204291304"/>
+        <c:crossAx val="328938176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204291304"/>
+        <c:axId val="328938176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3478,7 +3618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204290920"/>
+        <c:crossAx val="328937616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6378,15 +6518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>481851</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>549085</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:colOff>728381</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6792,17 +6932,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7093,10 +7233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7112,37 +7252,41 @@
     <col min="10" max="12" width="15" style="4" customWidth="1"/>
     <col min="13" max="13" width="15" style="7" customWidth="1"/>
     <col min="14" max="16" width="15" style="4" customWidth="1"/>
-    <col min="17" max="18" width="15" customWidth="1"/>
+    <col min="17" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="22"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7194,8 +7338,14 @@
       <c r="R2" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="S2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>64</v>
       </c>
@@ -7255,8 +7405,14 @@
       <c r="R3">
         <v>0.55096529206121003</v>
       </c>
+      <c r="S3">
+        <v>128</v>
+      </c>
+      <c r="T3">
+        <v>0.55096529206121003</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>256</v>
       </c>
@@ -7316,8 +7472,14 @@
       <c r="R4">
         <v>0.113569318947477</v>
       </c>
+      <c r="S4">
+        <v>268</v>
+      </c>
+      <c r="T4">
+        <v>0.16331495441563201</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1024</v>
       </c>
@@ -7377,8 +7539,14 @@
       <c r="R5">
         <v>1.2225104396792801E-2</v>
       </c>
+      <c r="S5">
+        <v>576</v>
+      </c>
+      <c r="T5">
+        <v>3.10919434648423E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4096</v>
       </c>
@@ -7438,8 +7606,14 @@
       <c r="R6">
         <v>1.5775708986585199E-3</v>
       </c>
+      <c r="S6">
+        <v>1096</v>
+      </c>
+      <c r="T6">
+        <v>7.0575091694061202E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>16384</v>
       </c>
@@ -7499,8 +7673,14 @@
       <c r="R7">
         <v>4.3882643757812002E-4</v>
       </c>
+      <c r="S7">
+        <v>2244</v>
+      </c>
+      <c r="T7">
+        <v>1.71808912805479E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>65536</v>
       </c>
@@ -7554,8 +7734,14 @@
       <c r="P8" s="13">
         <v>8.0587555871336602E-3</v>
       </c>
+      <c r="S8">
+        <v>4240</v>
+      </c>
+      <c r="T8">
+        <v>8.7806666028501096E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>250000</v>
       </c>
@@ -7593,40 +7779,70 @@
       <c r="P9" s="13">
         <v>1.3073030878355599E-2</v>
       </c>
+      <c r="S9">
+        <v>8252</v>
+      </c>
+      <c r="T9">
+        <v>2.2375733763059101E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O10" s="13">
         <v>5456</v>
       </c>
       <c r="P10" s="13">
         <v>2.15593843417007E-2</v>
       </c>
+      <c r="S10">
+        <v>15360</v>
+      </c>
+      <c r="T10" s="16">
+        <v>9.5389338686431403E-5</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O11" s="13">
         <v>5896</v>
       </c>
       <c r="P11" s="13">
         <v>6.1220770443589203E-3</v>
       </c>
+      <c r="S11">
+        <v>29736</v>
+      </c>
+      <c r="T11" s="16">
+        <v>3.2152372669260001E-5</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O12" s="13">
         <v>8232</v>
       </c>
       <c r="P12" s="13">
         <v>2.6927587705687598E-3</v>
       </c>
+      <c r="S12">
+        <v>55420</v>
+      </c>
+      <c r="T12" s="16">
+        <v>1.7583982920345201E-5</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O13" s="13">
         <v>8996</v>
       </c>
       <c r="P13" s="13">
         <v>2.83684754791476E-3</v>
       </c>
+      <c r="S13">
+        <v>106428</v>
+      </c>
+      <c r="T13" s="16">
+        <v>4.7851905992066301E-6</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O14" s="13">
         <v>9316</v>
       </c>
@@ -7634,7 +7850,7 @@
         <v>1.10463047318404E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O15" s="13">
         <v>20976</v>
       </c>
@@ -7642,16 +7858,17 @@
         <v>7.62564005714126E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7674,29 +7891,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="17"/>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="P1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="P1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -7724,24 +7941,24 @@
         <v>10</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="22"/>
+      <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -7782,25 +7999,25 @@
         <v>1</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -8156,48 +8373,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -8318,48 +8535,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -8745,40 +8962,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
-      <c r="G1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="G1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -901,11 +901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199999360"/>
-        <c:axId val="199997120"/>
+        <c:axId val="233500424"/>
+        <c:axId val="233501600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199999360"/>
+        <c:axId val="233500424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -965,12 +965,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199997120"/>
+        <c:crossAx val="233501600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199997120"/>
+        <c:axId val="233501600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1028,7 +1028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199999360"/>
+        <c:crossAx val="233500424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1493,7 +1493,19 @@
                   <c:v>2088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5192</c:v>
+                  <c:v>5264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33970</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83566</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1517,7 +1529,19 @@
                   <c:v>1.5775708986585199E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3882643757812002E-4</c:v>
+                  <c:v>3.9143596309961301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1535960015255E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>2.8819047517352001E-5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>6.9004676165009799E-6</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>2.1959838350590502E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,11 +1680,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="34425312"/>
-        <c:axId val="34424752"/>
+        <c:axId val="233497680"/>
+        <c:axId val="233505128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34425312"/>
+        <c:axId val="233497680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1682,6 +1706,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># DoFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1719,12 +1799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34424752"/>
+        <c:crossAx val="233505128"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34424752"/>
+        <c:axId val="233505128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1745,6 +1825,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>||u-uh||</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1782,7 +1918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34425312"/>
+        <c:crossAx val="233497680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2386,11 +2522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328441408"/>
-        <c:axId val="328441968"/>
+        <c:axId val="203976296"/>
+        <c:axId val="203973944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328441408"/>
+        <c:axId val="203976296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2448,12 +2584,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328441968"/>
+        <c:crossAx val="203973944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328441968"/>
+        <c:axId val="203973944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2511,7 +2647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328441408"/>
+        <c:crossAx val="203976296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2981,11 +3117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328446448"/>
-        <c:axId val="328447008"/>
+        <c:axId val="203975120"/>
+        <c:axId val="203972376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328446448"/>
+        <c:axId val="203975120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3043,12 +3179,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328447008"/>
+        <c:crossAx val="203972376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328447008"/>
+        <c:axId val="203972376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3106,7 +3242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328446448"/>
+        <c:crossAx val="203975120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3493,11 +3629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328937616"/>
-        <c:axId val="328938176"/>
+        <c:axId val="203970808"/>
+        <c:axId val="317563896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328937616"/>
+        <c:axId val="203970808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3555,12 +3691,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328938176"/>
+        <c:crossAx val="317563896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328938176"/>
+        <c:axId val="317563896"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3618,7 +3754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328937616"/>
+        <c:crossAx val="203970808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7236,7 +7372,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7668,10 +7804,10 @@
         <v>5.8092842763180601E-3</v>
       </c>
       <c r="Q7">
-        <v>5192</v>
+        <v>5264</v>
       </c>
       <c r="R7">
-        <v>4.3882643757812002E-4</v>
+        <v>3.9143596309961301E-4</v>
       </c>
       <c r="S7">
         <v>2244</v>
@@ -7734,6 +7870,12 @@
       <c r="P8" s="13">
         <v>8.0587555871336602E-3</v>
       </c>
+      <c r="Q8">
+        <v>13444</v>
+      </c>
+      <c r="R8">
+        <v>1.1535960015255E-4</v>
+      </c>
       <c r="S8">
         <v>4240</v>
       </c>
@@ -7779,6 +7921,12 @@
       <c r="P9" s="13">
         <v>1.3073030878355599E-2</v>
       </c>
+      <c r="Q9">
+        <v>33970</v>
+      </c>
+      <c r="R9" s="16">
+        <v>2.8819047517352001E-5</v>
+      </c>
       <c r="S9">
         <v>8252</v>
       </c>
@@ -7793,6 +7941,12 @@
       <c r="P10" s="13">
         <v>2.15593843417007E-2</v>
       </c>
+      <c r="Q10">
+        <v>83566</v>
+      </c>
+      <c r="R10" s="16">
+        <v>6.9004676165009799E-6</v>
+      </c>
       <c r="S10">
         <v>15360</v>
       </c>
@@ -7806,6 +7960,12 @@
       </c>
       <c r="P11" s="13">
         <v>6.1220770443589203E-3</v>
+      </c>
+      <c r="Q11">
+        <v>207442</v>
+      </c>
+      <c r="R11" s="16">
+        <v>2.1959838350590502E-6</v>
       </c>
       <c r="S11">
         <v>29736</v>

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -901,11 +901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="233500424"/>
-        <c:axId val="233501600"/>
+        <c:axId val="200222512"/>
+        <c:axId val="200223296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233500424"/>
+        <c:axId val="200222512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -965,12 +965,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233501600"/>
+        <c:crossAx val="200223296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233501600"/>
+        <c:axId val="200223296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1028,7 +1028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233500424"/>
+        <c:crossAx val="200222512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1680,11 +1680,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="233497680"/>
-        <c:axId val="233505128"/>
+        <c:axId val="200224080"/>
+        <c:axId val="200224472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233497680"/>
+        <c:axId val="200224080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1799,12 +1799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233505128"/>
+        <c:crossAx val="200224472"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233505128"/>
+        <c:axId val="200224472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1918,7 +1918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233497680"/>
+        <c:crossAx val="200224080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2522,11 +2522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203976296"/>
-        <c:axId val="203973944"/>
+        <c:axId val="200225256"/>
+        <c:axId val="200225648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203976296"/>
+        <c:axId val="200225256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2584,12 +2584,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203973944"/>
+        <c:crossAx val="200225648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203973944"/>
+        <c:axId val="200225648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2647,7 +2647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203976296"/>
+        <c:crossAx val="200225256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3117,11 +3117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203975120"/>
-        <c:axId val="203972376"/>
+        <c:axId val="200226432"/>
+        <c:axId val="200226824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203975120"/>
+        <c:axId val="200226432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3179,12 +3179,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203972376"/>
+        <c:crossAx val="200226824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203972376"/>
+        <c:axId val="200226824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3242,7 +3242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203975120"/>
+        <c:crossAx val="200226432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3629,11 +3629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203970808"/>
-        <c:axId val="317563896"/>
+        <c:axId val="200227608"/>
+        <c:axId val="200228000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203970808"/>
+        <c:axId val="200227608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3691,12 +3691,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317563896"/>
+        <c:crossAx val="200228000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317563896"/>
+        <c:axId val="200228000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3754,7 +3754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203970808"/>
+        <c:crossAx val="200227608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6654,15 +6654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>549085</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
+      <xdr:colOff>156878</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>728381</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>750793</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7372,7 +7372,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
   <si>
     <t>Uniform</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Irr=1, rtol=0.3, type=1</t>
+  </si>
+  <si>
+    <t>Smooth Poly Mesh</t>
+  </si>
+  <si>
+    <t>Z Poly Mesh</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,6 +299,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,11 +913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200222512"/>
-        <c:axId val="200223296"/>
+        <c:axId val="193837856"/>
+        <c:axId val="193838416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200222512"/>
+        <c:axId val="193837856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -965,12 +977,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200223296"/>
+        <c:crossAx val="193838416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200223296"/>
+        <c:axId val="193838416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1028,7 +1040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200222512"/>
+        <c:crossAx val="193837856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1672,6 +1684,178 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Smooth Poly Mesh</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$U$3:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$V$3:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.92140952458899605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71595727119231301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25767670341613502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2748488910642901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9208160372974097E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Z Poly Mesh</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$W$3:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso - Quadratic'!$X$3:$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2130098543476899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42347437706878799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.185127868800572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6661562001790899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.13281782721639E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1680,11 +1864,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200224080"/>
-        <c:axId val="200224472"/>
+        <c:axId val="193844016"/>
+        <c:axId val="193844576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200224080"/>
+        <c:axId val="193844016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1799,12 +1983,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200224472"/>
+        <c:crossAx val="193844576"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200224472"/>
+        <c:axId val="193844576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1846,7 +2030,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>||u-uh||</a:t>
+                  <a:t>||u - uh||</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1918,7 +2102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200224080"/>
+        <c:crossAx val="193844016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2522,11 +2706,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200225256"/>
-        <c:axId val="200225648"/>
+        <c:axId val="193850176"/>
+        <c:axId val="193850736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200225256"/>
+        <c:axId val="193850176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2584,12 +2768,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200225648"/>
+        <c:crossAx val="193850736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200225648"/>
+        <c:axId val="193850736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2647,7 +2831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200225256"/>
+        <c:crossAx val="193850176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3117,11 +3301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200226432"/>
-        <c:axId val="200226824"/>
+        <c:axId val="194669120"/>
+        <c:axId val="194669680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200226432"/>
+        <c:axId val="194669120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3179,12 +3363,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200226824"/>
+        <c:crossAx val="194669680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200226824"/>
+        <c:axId val="194669680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3242,7 +3426,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200226432"/>
+        <c:crossAx val="194669120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3629,11 +3813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200227608"/>
-        <c:axId val="200228000"/>
+        <c:axId val="194673600"/>
+        <c:axId val="194674160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200227608"/>
+        <c:axId val="194673600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3691,12 +3875,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200228000"/>
+        <c:crossAx val="194674160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200228000"/>
+        <c:axId val="194674160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3754,7 +3938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200227608"/>
+        <c:crossAx val="194673600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6653,16 +6837,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>156878</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168085</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>750793</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7068,17 +7252,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7369,10 +7553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7389,40 +7573,50 @@
     <col min="13" max="13" width="15" style="7" customWidth="1"/>
     <col min="14" max="16" width="15" style="4" customWidth="1"/>
     <col min="17" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="22" width="11.5703125" style="23" customWidth="1"/>
+    <col min="23" max="24" width="11.5703125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="22"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="25"/>
+      <c r="W1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="24"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7480,8 +7674,20 @@
       <c r="T2" s="21" t="s">
         <v>4</v>
       </c>
+      <c r="U2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>64</v>
       </c>
@@ -7547,8 +7753,20 @@
       <c r="T3">
         <v>0.55096529206121003</v>
       </c>
+      <c r="U3" s="23">
+        <v>72</v>
+      </c>
+      <c r="V3" s="20">
+        <v>0.92140952458899605</v>
+      </c>
+      <c r="W3" s="22">
+        <v>160</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.2130098543476899</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>256</v>
       </c>
@@ -7614,8 +7832,20 @@
       <c r="T4">
         <v>0.16331495441563201</v>
       </c>
+      <c r="U4" s="23">
+        <v>256</v>
+      </c>
+      <c r="V4" s="20">
+        <v>0.71595727119231301</v>
+      </c>
+      <c r="W4" s="22">
+        <v>344</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.42347437706878799</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1024</v>
       </c>
@@ -7681,8 +7911,20 @@
       <c r="T5">
         <v>3.10919434648423E-2</v>
       </c>
+      <c r="U5" s="23">
+        <v>880</v>
+      </c>
+      <c r="V5" s="20">
+        <v>0.25767670341613502</v>
+      </c>
+      <c r="W5" s="22">
+        <v>1072</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.185127868800572</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4096</v>
       </c>
@@ -7748,8 +7990,20 @@
       <c r="T6">
         <v>7.0575091694061202E-3</v>
       </c>
+      <c r="U6" s="23">
+        <v>3280</v>
+      </c>
+      <c r="V6" s="20">
+        <v>3.2748488910642901E-2</v>
+      </c>
+      <c r="W6" s="22">
+        <v>4424</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1.6661562001790899E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>16384</v>
       </c>
@@ -7815,8 +8069,20 @@
       <c r="T7">
         <v>1.71808912805479E-3</v>
       </c>
+      <c r="U7" s="23">
+        <v>12664</v>
+      </c>
+      <c r="V7" s="20">
+        <v>3.9208160372974097E-3</v>
+      </c>
+      <c r="W7" s="22">
+        <v>17288</v>
+      </c>
+      <c r="X7" s="2">
+        <v>3.13281782721639E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>65536</v>
       </c>
@@ -7883,7 +8149,7 @@
         <v>8.7806666028501096E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>250000</v>
       </c>
@@ -7934,7 +8200,7 @@
         <v>2.2375733763059101E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O10" s="13">
         <v>5456</v>
       </c>
@@ -7954,7 +8220,7 @@
         <v>9.5389338686431403E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O11" s="13">
         <v>5896</v>
       </c>
@@ -7974,7 +8240,7 @@
         <v>3.2152372669260001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O12" s="13">
         <v>8232</v>
       </c>
@@ -7988,7 +8254,7 @@
         <v>1.7583982920345201E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O13" s="13">
         <v>8996</v>
       </c>
@@ -8002,7 +8268,7 @@
         <v>4.7851905992066301E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O14" s="13">
         <v>9316</v>
       </c>
@@ -8010,7 +8276,7 @@
         <v>1.10463047318404E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O15" s="13">
         <v>20976</v>
       </c>
@@ -8018,12 +8284,14 @@
         <v>7.62564005714126E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -8051,29 +8319,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="17"/>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -8103,22 +8371,22 @@
       <c r="I2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="P2" s="23" t="s">
+      <c r="N2" s="25"/>
+      <c r="P2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23" t="s">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="23"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -8533,48 +8801,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -8695,48 +8963,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -9122,40 +9390,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
   <si>
     <t>Uniform</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Z Poly Mesh</t>
+  </si>
+  <si>
+    <t>Shestakov Poly Mesh</t>
+  </si>
+  <si>
+    <t>Random Poly Mesh</t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +311,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,11 +922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193837856"/>
-        <c:axId val="193838416"/>
+        <c:axId val="214601584"/>
+        <c:axId val="214601968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193837856"/>
+        <c:axId val="214601584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -977,12 +986,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193838416"/>
+        <c:crossAx val="214601968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193838416"/>
+        <c:axId val="214601968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1040,7 +1049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193837856"/>
+        <c:crossAx val="214601584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1827,6 +1836,9 @@
                 <c:pt idx="4">
                   <c:v>17288</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>67848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1850,6 +1862,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.13281782721639E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8374301674197701E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,11 +1879,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193844016"/>
-        <c:axId val="193844576"/>
+        <c:axId val="214907944"/>
+        <c:axId val="214908328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193844016"/>
+        <c:axId val="214907944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1983,12 +1998,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193844576"/>
+        <c:crossAx val="214908328"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193844576"/>
+        <c:axId val="214908328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2102,7 +2117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193844016"/>
+        <c:crossAx val="214907944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2706,11 +2721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193850176"/>
-        <c:axId val="193850736"/>
+        <c:axId val="215174760"/>
+        <c:axId val="214446744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193850176"/>
+        <c:axId val="215174760"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2768,12 +2783,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193850736"/>
+        <c:crossAx val="214446744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193850736"/>
+        <c:axId val="214446744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2831,7 +2846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193850176"/>
+        <c:crossAx val="215174760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3301,11 +3316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194669120"/>
-        <c:axId val="194669680"/>
+        <c:axId val="214562944"/>
+        <c:axId val="214563328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194669120"/>
+        <c:axId val="214562944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3363,12 +3378,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194669680"/>
+        <c:crossAx val="214563328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194669680"/>
+        <c:axId val="214563328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3426,7 +3441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194669120"/>
+        <c:crossAx val="214562944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3813,11 +3828,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194673600"/>
-        <c:axId val="194674160"/>
+        <c:axId val="215058640"/>
+        <c:axId val="215059024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194673600"/>
+        <c:axId val="215058640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3875,12 +3890,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194674160"/>
+        <c:crossAx val="215059024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194674160"/>
+        <c:axId val="215059024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3938,7 +3953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194673600"/>
+        <c:crossAx val="215058640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7252,17 +7267,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7553,10 +7568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7575,48 +7590,58 @@
     <col min="17" max="20" width="15.140625" customWidth="1"/>
     <col min="21" max="22" width="11.5703125" style="23" customWidth="1"/>
     <col min="23" max="24" width="11.5703125" style="22" customWidth="1"/>
+    <col min="25" max="26" width="12" style="24" customWidth="1"/>
+    <col min="27" max="28" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="J1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="24" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="24"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="26"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7686,8 +7711,20 @@
       <c r="X2" s="22" t="s">
         <v>2</v>
       </c>
+      <c r="Y2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>64</v>
       </c>
@@ -7765,8 +7802,20 @@
       <c r="X3" s="2">
         <v>1.2130098543476899</v>
       </c>
+      <c r="Y3" s="24">
+        <v>88</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.2915210913889399</v>
+      </c>
+      <c r="AA3">
+        <v>88</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>0.85723950004641503</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>256</v>
       </c>
@@ -7844,8 +7893,20 @@
       <c r="X4" s="2">
         <v>0.42347437706878799</v>
       </c>
+      <c r="Y4" s="24">
+        <v>256</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.55243605271420604</v>
+      </c>
+      <c r="AA4">
+        <v>260</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>0.88920916736073696</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1024</v>
       </c>
@@ -7923,8 +7984,20 @@
       <c r="X5" s="2">
         <v>0.185127868800572</v>
       </c>
+      <c r="Y5" s="24">
+        <v>896</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.49451940312305598</v>
+      </c>
+      <c r="AA5">
+        <v>886</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0.50558762009866498</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4096</v>
       </c>
@@ -8002,8 +8075,20 @@
       <c r="X6" s="2">
         <v>1.6661562001790899E-2</v>
       </c>
+      <c r="Y6" s="24">
+        <v>3272</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.13328106068616699</v>
+      </c>
+      <c r="AA6">
+        <v>3302</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>3.3120199091722903E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>16384</v>
       </c>
@@ -8081,8 +8166,20 @@
       <c r="X7" s="2">
         <v>3.13281782721639E-3</v>
       </c>
+      <c r="Y7" s="24">
+        <v>12690</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0.42566757973014202</v>
+      </c>
+      <c r="AA7">
+        <v>12748</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>1.12933395808484E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>65536</v>
       </c>
@@ -8148,8 +8245,14 @@
       <c r="T8">
         <v>8.7806666028501096E-4</v>
       </c>
+      <c r="W8" s="22">
+        <v>67848</v>
+      </c>
+      <c r="X8" s="2">
+        <v>3.8374301674197701E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>250000</v>
       </c>
@@ -8200,7 +8303,7 @@
         <v>2.2375733763059101E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O10" s="13">
         <v>5456</v>
       </c>
@@ -8220,7 +8323,7 @@
         <v>9.5389338686431403E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O11" s="13">
         <v>5896</v>
       </c>
@@ -8240,7 +8343,7 @@
         <v>3.2152372669260001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O12" s="13">
         <v>8232</v>
       </c>
@@ -8254,7 +8357,7 @@
         <v>1.7583982920345201E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O13" s="13">
         <v>8996</v>
       </c>
@@ -8268,7 +8371,7 @@
         <v>4.7851905992066301E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O14" s="13">
         <v>9316</v>
       </c>
@@ -8276,7 +8379,7 @@
         <v>1.10463047318404E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O15" s="13">
         <v>20976</v>
       </c>
@@ -8284,19 +8387,21 @@
         <v>7.62564005714126E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8319,29 +8424,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="17"/>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="P1" s="25" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="P1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -8371,22 +8476,22 @@
       <c r="I2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="P2" s="25" t="s">
+      <c r="N2" s="26"/>
+      <c r="P2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="25"/>
+      <c r="S2" s="26"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -8801,48 +8906,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="26" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -8963,48 +9068,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="26" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -9390,40 +9495,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="28"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="737" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gauss_2D_quads_iso DFEM Linear" sheetId="1" r:id="rId1"/>
-    <sheet name="Gauss_2D_quads_iso - Quadratic" sheetId="2" r:id="rId2"/>
-    <sheet name="G2D_quads_Lagrange" sheetId="6" r:id="rId3"/>
-    <sheet name="Gauss_2D_quads_iso CFEM lin" sheetId="3" r:id="rId4"/>
-    <sheet name="QuadSol_1angle - DFEM lin" sheetId="4" r:id="rId5"/>
-    <sheet name="QuadSol_1angle - DFEM quad" sheetId="5" r:id="rId6"/>
+    <sheet name="Gauss_2D_iso - Quadratic" sheetId="2" r:id="rId2"/>
+    <sheet name="Quad_2D_iso" sheetId="7" r:id="rId3"/>
+    <sheet name="G2D_quads_Lagrange" sheetId="6" r:id="rId4"/>
+    <sheet name="Gauss_2D_quads_iso CFEM lin" sheetId="3" r:id="rId5"/>
+    <sheet name="QuadSol_1angle - DFEM lin" sheetId="4" r:id="rId6"/>
+    <sheet name="QuadSol_1angle - DFEM quad" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="45">
   <si>
     <t>Uniform</t>
   </si>
@@ -129,6 +130,42 @@
   <si>
     <t>Random Poly Mesh</t>
   </si>
+  <si>
+    <t>PWLD</t>
+  </si>
+  <si>
+    <t>MAXENT</t>
+  </si>
+  <si>
+    <t>Polygonal</t>
+  </si>
+  <si>
+    <t>Smooth</t>
+  </si>
+  <si>
+    <t>Z-Mesh</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Lagrange</t>
+  </si>
+  <si>
+    <t>Quadratic</t>
+  </si>
+  <si>
+    <t>Dofs</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Shestakov</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -239,11 +276,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,6 +436,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -347,6 +467,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,11 +1084,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214601584"/>
-        <c:axId val="214601968"/>
+        <c:axId val="151397280"/>
+        <c:axId val="151397840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214601584"/>
+        <c:axId val="151397280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -986,12 +1148,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214601968"/>
+        <c:crossAx val="151397840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214601968"/>
+        <c:axId val="151397840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1049,7 +1211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214601584"/>
+        <c:crossAx val="151397280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1138,7 +1300,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$A$3:$A$9</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1168,7 +1330,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$G$3:$G$9</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$G$3:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1219,7 +1381,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$A$3:$A$9</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1249,7 +1411,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$H$3:$H$9</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$H$3:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1311,7 +1473,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$A$3:$A$9</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1341,7 +1503,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$E$3:$E$9</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1403,7 +1565,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$M$3:$M$8</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$M$3:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1430,7 +1592,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$N$3:$N$8</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$N$3:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1462,7 +1624,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$Q$1:$R$1</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$Q$1:$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1497,7 +1659,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$Q$3:$Q$15</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$Q$3:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1533,7 +1695,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$R$3:$R$15</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$R$3:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1574,7 +1736,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$S$1:$T$1</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$S$1:$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1609,7 +1771,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$S$3:$S$15</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$S$3:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1651,7 +1813,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$T$3:$T$15</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$T$3:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1731,7 +1893,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$U$3:$U$13</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$U$3:$U$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1755,7 +1917,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$V$3:$V$13</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$V$3:$V$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1817,7 +1979,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$W$3:$W$13</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$W$3:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1844,7 +2006,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_quads_iso - Quadratic'!$X$3:$X$13</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$X$3:$X$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1879,11 +2041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214907944"/>
-        <c:axId val="214908328"/>
+        <c:axId val="198394272"/>
+        <c:axId val="198394832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214907944"/>
+        <c:axId val="198394272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1998,12 +2160,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214908328"/>
+        <c:crossAx val="198394832"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214908328"/>
+        <c:axId val="198394832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2117,7 +2279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214907944"/>
+        <c:crossAx val="198394272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2212,6 +2374,685 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quad_2D_iso!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>First</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quad_2D_iso!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quad_2D_iso!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.90625E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.765625E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.44140625E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.103515625E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5999999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quad_2D_iso!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Second</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quad_2D_iso!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quad_2D_iso!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>7.8125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.765625E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.220703125E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.52587890625E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9073486328125E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.384185791015625E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000001E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Uniform - Linear MAXENT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quad_2D_iso!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quad_2D_iso!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.82072280697912903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.206660698989033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1812164029267901E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2968167697866699E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2436799318507899E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1110695211347597E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Uniform - Quadratic MAXENT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quad_2D_iso!$O$5:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quad_2D_iso!$P$5:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>5.6910399790446098E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2707237794323301E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2094511558979701E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.16770295444356E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.51326488849241E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>2.1250912616835202E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quad_2D_iso!$Q$5:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quad_2D_iso!$R$5:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.20549063061801801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0742880682756202E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.44469986169836E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9808011726754099E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2034561665896399E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="264576304"/>
+        <c:axId val="264575744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="264576304"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264575744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="264575744"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264576304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -2721,11 +3562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215174760"/>
-        <c:axId val="214446744"/>
+        <c:axId val="198400432"/>
+        <c:axId val="198400992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215174760"/>
+        <c:axId val="198400432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2783,12 +3624,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214446744"/>
+        <c:crossAx val="198400992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214446744"/>
+        <c:axId val="198400992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2846,602 +3687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215174760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$B$4:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.4633255085630798E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1034296750803901E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7422973251359098E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8360800833021796E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7067869013473301E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.2645913129575001E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$C$4:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.4817675982742E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.10920064465893E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7582070447413299E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8777383499310995E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7174388682753201E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.2915181519391997E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$E$4:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>98304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$G$4:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.8081826404001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1925167890795001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9663920547648602E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3970942806215003E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8471442224791301E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.6157088931970002E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$E$4:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>98304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM lin'!$H$4:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.8081826404148702E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1925167891111499E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9663920550908598E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3970942839033901E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.84714422579695E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.61570892665915E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="214562944"/>
-        <c:axId val="214563328"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="214562944"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="214563328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="214563328"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="214562944"/>
+        <c:crossAx val="198400432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3600,54 +3846,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM quad'!$C$4:$C$9</c:f>
+              <c:f>'QuadSol_1angle - DFEM lin'!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>192</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>768</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3072</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12288</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49152</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>196608</c:v>
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM quad'!$D$4:$D$9</c:f>
+              <c:f>'QuadSol_1angle - DFEM lin'!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4999015316313201E-2</c:v>
+                  <c:v>4.4633255085630798E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7670900456358201E-3</c:v>
+                  <c:v>1.1034296750803901E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4470058220417498E-4</c:v>
+                  <c:v>2.7422973251359098E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3662422981680101E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>5.9222760256350099E-5</c:v>
+                  <c:v>6.8360800833021796E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7067869013473301E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>1.4815466809758699E-5</c:v>
+                  <c:v>4.2645913129575001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,54 +3929,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM quad'!$C$4:$C$9</c:f>
+              <c:f>'QuadSol_1angle - DFEM lin'!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>192</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>768</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3072</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12288</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49152</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>196608</c:v>
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM quad'!$E$4:$E$9</c:f>
+              <c:f>'QuadSol_1angle - DFEM lin'!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.208333333333333E-3</c:v>
+                  <c:v>4.4817675982742E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3020833333333333E-3</c:v>
+                  <c:v>1.10920064465893E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2552083333333332E-4</c:v>
+                  <c:v>2.7582070447413299E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1380208333333329E-5</c:v>
+                  <c:v>6.8777383499310995E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0345052083333332E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0862630208333331E-6</c:v>
+                  <c:v>1.7174388682753201E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.2915181519391997E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3766,54 +4012,137 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM quad'!$C$4:$C$9</c:f>
+              <c:f>'QuadSol_1angle - DFEM lin'!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>192</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>768</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3072</c:v>
+                  <c:v>1536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12288</c:v>
+                  <c:v>6144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49152</c:v>
+                  <c:v>24576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>196608</c:v>
+                  <c:v>98304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QuadSol_1angle - DFEM quad'!$F$4:$F$9</c:f>
+              <c:f>'QuadSol_1angle - DFEM lin'!$G$4:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.7587908150366268E-4</c:v>
+                  <c:v>4.8081826404001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6984885187957773E-5</c:v>
+                  <c:v>1.1925167890795001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.873110648494731E-6</c:v>
+                  <c:v>2.9663920547648602E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3413883106183989E-7</c:v>
+                  <c:v>7.3970942806215003E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1767353882730132E-8</c:v>
+                  <c:v>1.8471442224791301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.6157088931970002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1470919235341242E-8</c:v>
+                  <c:v>98304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM lin'!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8081826404148702E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1925167891111499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9663920550908598E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3970942839033901E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.84714422579695E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.61570892665915E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3828,11 +4157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215058640"/>
-        <c:axId val="215059024"/>
+        <c:axId val="198405472"/>
+        <c:axId val="198406032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215058640"/>
+        <c:axId val="198405472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3890,12 +4219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215059024"/>
+        <c:crossAx val="198406032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215059024"/>
+        <c:axId val="198406032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3953,7 +4282,519 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215058640"/>
+        <c:crossAx val="198405472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4999015316313201E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7670900456358201E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4470058220417498E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3662422981680101E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>5.9222760256350099E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.4815466809758699E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.208333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3020833333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2552083333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1380208333333329E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0345052083333332E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0862630208333331E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QuadSol_1angle - DFEM quad'!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7587908150366268E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6984885187957773E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.873110648494731E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3413883106183989E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1767353882730132E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1470919235341242E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199195968"/>
+        <c:axId val="199196528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199195968"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199196528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199196528"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199195968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4233,6 +5074,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6298,6 +7179,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6887,6 +8284,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312963</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -6918,7 +8350,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6953,7 +8385,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7267,17 +8699,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7570,8 +9002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7595,51 +9027,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="26" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="25" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25" t="s">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="26" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="26"/>
+      <c r="AB1" s="27"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -8411,6 +9843,812 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="11.7109375" style="25" customWidth="1"/>
+    <col min="5" max="23" width="13.7109375" style="25" customWidth="1"/>
+    <col min="24" max="31" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="39"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>64</v>
+      </c>
+      <c r="B2" s="25">
+        <f>0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="25">
+        <f>B2^2*10</f>
+        <v>0.625</v>
+      </c>
+      <c r="D2" s="25">
+        <f>B2^3*5</f>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="42"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>256</v>
+      </c>
+      <c r="B3" s="25">
+        <f>B2/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="C3" s="25">
+        <f t="shared" ref="C3:C8" si="0">B3^2*10</f>
+        <v>0.15625</v>
+      </c>
+      <c r="D3" s="25">
+        <f t="shared" ref="D3:D8" si="1">B3^3*5</f>
+        <v>9.765625E-3</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="42"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>1024</v>
+      </c>
+      <c r="B4" s="25">
+        <f t="shared" ref="B4:B7" si="2">B3/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" si="0"/>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" si="1"/>
+        <v>1.220703125E-3</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4096</v>
+      </c>
+      <c r="B5" s="25">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>9.765625E-3</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="1"/>
+        <v>1.52587890625E-4</v>
+      </c>
+      <c r="E5" s="43">
+        <v>64</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.82072280697912903</v>
+      </c>
+      <c r="G5" s="44">
+        <v>64</v>
+      </c>
+      <c r="H5" s="44">
+        <v>0.75988362489888905</v>
+      </c>
+      <c r="I5" s="44">
+        <v>36</v>
+      </c>
+      <c r="J5" s="44">
+        <v>2.2850999999999999</v>
+      </c>
+      <c r="K5" s="44">
+        <v>80</v>
+      </c>
+      <c r="L5" s="46">
+        <v>13.6046176508166</v>
+      </c>
+      <c r="M5" s="43">
+        <v>144</v>
+      </c>
+      <c r="N5" s="47">
+        <v>6.4219373632584602E-15</v>
+      </c>
+      <c r="O5" s="47">
+        <v>128</v>
+      </c>
+      <c r="P5" s="47">
+        <v>5.6910399790446098E-2</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>72</v>
+      </c>
+      <c r="R5" s="47">
+        <v>0.20549063061801801</v>
+      </c>
+      <c r="S5" s="44">
+        <v>160</v>
+      </c>
+      <c r="T5" s="47">
+        <v>0.15065920556939599</v>
+      </c>
+      <c r="U5" s="44">
+        <v>88</v>
+      </c>
+      <c r="V5" s="46">
+        <v>0.34221106093520298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>16384</v>
+      </c>
+      <c r="B6" s="25">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>2.44140625E-3</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="1"/>
+        <v>1.9073486328125E-5</v>
+      </c>
+      <c r="E6" s="43">
+        <v>256</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0.206660698989033</v>
+      </c>
+      <c r="G6" s="44">
+        <v>256</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0.189240486269389</v>
+      </c>
+      <c r="I6" s="44">
+        <v>128</v>
+      </c>
+      <c r="J6" s="47">
+        <v>1.0642869103081201</v>
+      </c>
+      <c r="K6" s="44">
+        <v>172</v>
+      </c>
+      <c r="L6" s="46">
+        <v>2.09442010603447</v>
+      </c>
+      <c r="M6" s="43">
+        <v>576</v>
+      </c>
+      <c r="N6" s="47">
+        <v>6.0084970312274402E-15</v>
+      </c>
+      <c r="O6" s="44">
+        <v>512</v>
+      </c>
+      <c r="P6" s="44">
+        <v>7.2707237794323301E-3</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>256</v>
+      </c>
+      <c r="R6" s="47">
+        <v>8.0742880682756202E-2</v>
+      </c>
+      <c r="S6" s="44">
+        <v>344</v>
+      </c>
+      <c r="T6" s="47">
+        <v>0.61230076410364398</v>
+      </c>
+      <c r="U6" s="44">
+        <v>256</v>
+      </c>
+      <c r="V6" s="46">
+        <v>0.113744768248721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>65536</v>
+      </c>
+      <c r="B7" s="25">
+        <f t="shared" si="2"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>6.103515625E-4</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="1"/>
+        <v>2.384185791015625E-6</v>
+      </c>
+      <c r="E7" s="43">
+        <v>1024</v>
+      </c>
+      <c r="F7" s="44">
+        <v>5.1812164029267901E-2</v>
+      </c>
+      <c r="G7" s="44">
+        <v>1024</v>
+      </c>
+      <c r="H7" s="44">
+        <v>4.7254594497097901E-2</v>
+      </c>
+      <c r="I7" s="44">
+        <v>440</v>
+      </c>
+      <c r="J7" s="47">
+        <v>1.4890730943887001</v>
+      </c>
+      <c r="K7" s="44">
+        <v>2212</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0.47865451592365599</v>
+      </c>
+      <c r="M7" s="43">
+        <v>2304</v>
+      </c>
+      <c r="N7" s="47">
+        <v>1.2863932227470699E-14</v>
+      </c>
+      <c r="O7" s="44">
+        <v>2048</v>
+      </c>
+      <c r="P7" s="44">
+        <v>9.2094511558979701E-4</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>880</v>
+      </c>
+      <c r="R7" s="47">
+        <v>1.44469986169836E-2</v>
+      </c>
+      <c r="S7" s="44">
+        <v>1072</v>
+      </c>
+      <c r="T7" s="47">
+        <v>1.3397457791017E-2</v>
+      </c>
+      <c r="U7" s="44">
+        <v>896</v>
+      </c>
+      <c r="V7" s="46">
+        <v>3.6155144182058001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>250000</v>
+      </c>
+      <c r="B8" s="25">
+        <f>1/250</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999999E-4</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000001E-7</v>
+      </c>
+      <c r="E8" s="43">
+        <v>4096</v>
+      </c>
+      <c r="F8" s="44">
+        <v>1.2968167697866699E-2</v>
+      </c>
+      <c r="G8" s="44">
+        <v>4096</v>
+      </c>
+      <c r="H8" s="44">
+        <v>1.18098910153499E-2</v>
+      </c>
+      <c r="I8" s="44">
+        <v>1640</v>
+      </c>
+      <c r="J8" s="47">
+        <v>1.15780070020932</v>
+      </c>
+      <c r="K8" s="44">
+        <v>8644</v>
+      </c>
+      <c r="L8" s="46">
+        <v>9.5366481541707904E-2</v>
+      </c>
+      <c r="M8" s="43">
+        <v>9216</v>
+      </c>
+      <c r="N8" s="47">
+        <v>1.85454352663668E-14</v>
+      </c>
+      <c r="O8" s="44">
+        <v>8192</v>
+      </c>
+      <c r="P8" s="44">
+        <v>1.16770295444356E-4</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>3280</v>
+      </c>
+      <c r="R8" s="47">
+        <v>1.9808011726754099E-3</v>
+      </c>
+      <c r="S8" s="44">
+        <v>4424</v>
+      </c>
+      <c r="T8" s="47">
+        <v>2.2061235561505002E-3</v>
+      </c>
+      <c r="U8" s="44">
+        <v>3272</v>
+      </c>
+      <c r="V8" s="46">
+        <v>1.09116262033231E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E9" s="43">
+        <v>16384</v>
+      </c>
+      <c r="F9" s="44">
+        <v>3.2436799318507899E-3</v>
+      </c>
+      <c r="G9" s="44">
+        <v>16384</v>
+      </c>
+      <c r="H9" s="44">
+        <v>2.9522298143167601E-3</v>
+      </c>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43">
+        <v>36864</v>
+      </c>
+      <c r="N9" s="47">
+        <v>3.7159313054459903E-14</v>
+      </c>
+      <c r="O9" s="44">
+        <v>32768</v>
+      </c>
+      <c r="P9" s="47">
+        <v>1.51326488849241E-5</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>12664</v>
+      </c>
+      <c r="R9" s="47">
+        <v>4.2034561665896399E-4</v>
+      </c>
+      <c r="S9" s="44">
+        <v>17288</v>
+      </c>
+      <c r="T9" s="47">
+        <v>5.9478686499189496E-3</v>
+      </c>
+      <c r="U9" s="44">
+        <v>12960</v>
+      </c>
+      <c r="V9" s="46">
+        <v>1.22127618865365E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E10" s="43">
+        <v>65536</v>
+      </c>
+      <c r="F10" s="44">
+        <v>8.1110695211347597E-4</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="43">
+        <v>147456</v>
+      </c>
+      <c r="N10" s="47">
+        <v>4.3167141395578798E-14</v>
+      </c>
+      <c r="O10" s="44">
+        <v>131072</v>
+      </c>
+      <c r="P10" s="47">
+        <v>2.1250912616835202E-6</v>
+      </c>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="45"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="45"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="45"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="45"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="45"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="45"/>
+    </row>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="45"/>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="45"/>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="45"/>
+    </row>
+    <row r="20" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8424,29 +10662,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="17"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="P1" s="26" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="P1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -8476,22 +10714,22 @@
       <c r="I2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="P2" s="26" t="s">
+      <c r="N2" s="27"/>
+      <c r="P2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="26"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -8892,7 +11130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -8906,48 +11144,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="27" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -9054,7 +11292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -9068,48 +11306,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="27" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -9481,7 +11719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -9495,40 +11733,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="29"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="Gauss_2D_quads_iso DFEM Linear" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="48">
   <si>
     <t>Uniform</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>err</t>
-  </si>
-  <si>
-    <t>Irr=3, rtol=0.3</t>
   </si>
   <si>
     <t>err - MAXENT</t>
@@ -165,6 +162,18 @@
   </si>
   <si>
     <t>Shestakov</t>
+  </si>
+  <si>
+    <t>Irr=2, rtol=0.3, type=1</t>
+  </si>
+  <si>
+    <t>MAXENT, k=2</t>
+  </si>
+  <si>
+    <t>dofs - MV</t>
+  </si>
+  <si>
+    <t>err - MV</t>
   </si>
 </sst>
 </file>
@@ -360,15 +369,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -426,16 +432,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -467,48 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,6 +1079,630 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$H$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Irr=1, rtol=0.3, type=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.98865878855441103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29067945619653901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18599596050804301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9857548229896394E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1453950000933302E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3382797385302497E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6489761931552799E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0616907596661999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.80786700749749E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3723492966185602E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8939623230976399E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$J$3:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4476</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16824</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$K$3:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.70882124516974299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27599492000799097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10656390279181099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1067026635254499E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7043759660237599E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0274554172919295E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4267867288306497E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4005988663860999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3988925598264401E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4654959303624305E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0371484508708999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$L$3:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16760</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31838</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$M$3:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.96680609780621696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28755542257681099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.124801429591682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8363931514674598E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.00678694503152E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0517242467784601E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7202931953339699E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1561695320769102E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.76895612170217E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8489089113430891E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1359981424952902E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$R$3:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12785</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86923</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>165044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$S$3:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.96680609780621696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28755542257681099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12472408688605401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3621973337322802E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2220761371400897E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.54548474502913E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6771510212299502E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5880623301940097E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5713660236067501E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4032250274193399E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.76039550118329E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9447976034710601E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.07240977472708E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3560</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47343</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D_quads_iso DFEM Linear'!$O$3:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.98865878855441103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29067945619653901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.185830194069107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.200744596381324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5486774887958106E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3867572008476999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4361816660118302E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6107045486181099E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9003510874858102E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7426674891424799E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5514497200121002E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0943785651930499E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2408339587455796E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1084,11 +1711,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151397280"/>
-        <c:axId val="151397840"/>
+        <c:axId val="200182304"/>
+        <c:axId val="200182688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151397280"/>
+        <c:axId val="200182304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1148,12 +1775,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151397840"/>
+        <c:crossAx val="200182688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151397840"/>
+        <c:axId val="200182688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1211,7 +1838,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151397280"/>
+        <c:crossAx val="200182304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,7 +2251,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gauss_2D_iso - Quadratic'!$Q$1:$R$1</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$Q$2:$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1659,7 +2286,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_iso - Quadratic'!$Q$3:$Q$15</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$Q$4:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1695,7 +2322,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_iso - Quadratic'!$R$3:$R$15</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$R$4:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1736,7 +2363,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gauss_2D_iso - Quadratic'!$S$1:$T$1</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$S$2:$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1771,7 +2398,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_iso - Quadratic'!$S$3:$S$15</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$S$4:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1813,7 +2440,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_iso - Quadratic'!$T$3:$T$15</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$T$4:$T$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1859,7 +2486,15 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Smooth Poly Mesh</c:v>
+            <c:strRef>
+              <c:f>'Gauss_2D_iso - Quadratic'!$U$2:$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Irr=2, rtol=0.3, type=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1893,140 +2528,84 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D_iso - Quadratic'!$U$3:$U$13</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$U$4:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>880</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3280</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12664</c:v>
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D_iso - Quadratic'!$V$3:$V$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.92140952458899605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71595727119231301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25767670341613502</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2748488910642901E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9208160372974097E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Z Poly Mesh</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gauss_2D_iso - Quadratic'!$W$3:$W$13</c:f>
+              <c:f>'Gauss_2D_iso - Quadratic'!$V$4:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>0.55096529206121003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>344</c:v>
+                  <c:v>0.16331495441563201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1072</c:v>
+                  <c:v>0.66818490383879903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4424</c:v>
+                  <c:v>0.32863372187151701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17288</c:v>
+                  <c:v>5.6203156649434802E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67848</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gauss_2D_iso - Quadratic'!$X$3:$X$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.2130098543476899</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.42347437706878799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.185127868800572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6661562001790899E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.13281782721639E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8374301674197701E-3</c:v>
+                  <c:v>7.4807286434648498E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0451580732979702E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>8.9497393610459095E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>1.9569442581107401E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>1.2759064103749101E-4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>3.2969978022346502E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,11 +2620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198394272"/>
-        <c:axId val="198394832"/>
+        <c:axId val="200142448"/>
+        <c:axId val="199936064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198394272"/>
+        <c:axId val="200142448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2160,12 +2739,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198394832"/>
+        <c:crossAx val="199936064"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198394832"/>
+        <c:axId val="199936064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2279,7 +2858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198394272"/>
+        <c:crossAx val="200142448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2375,7 +2954,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2833,11 +3411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264576304"/>
-        <c:axId val="264575744"/>
+        <c:axId val="199825688"/>
+        <c:axId val="200016080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264576304"/>
+        <c:axId val="199825688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2895,12 +3473,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264575744"/>
+        <c:crossAx val="200016080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264575744"/>
+        <c:axId val="200016080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2958,7 +3536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264576304"/>
+        <c:crossAx val="199825688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2972,7 +3550,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3562,11 +4139,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198400432"/>
-        <c:axId val="198400992"/>
+        <c:axId val="200047216"/>
+        <c:axId val="200087272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198400432"/>
+        <c:axId val="200047216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3624,12 +4201,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198400992"/>
+        <c:crossAx val="200087272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198400992"/>
+        <c:axId val="200087272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3687,7 +4264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198400432"/>
+        <c:crossAx val="200047216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4157,11 +4734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198405472"/>
-        <c:axId val="198406032"/>
+        <c:axId val="200946120"/>
+        <c:axId val="200946504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198405472"/>
+        <c:axId val="200946120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4219,12 +4796,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198406032"/>
+        <c:crossAx val="200946504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198406032"/>
+        <c:axId val="200946504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4282,7 +4859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198405472"/>
+        <c:crossAx val="200946120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4669,11 +5246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199195968"/>
-        <c:axId val="199196528"/>
+        <c:axId val="201009504"/>
+        <c:axId val="201009896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199195968"/>
+        <c:axId val="201009504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4731,12 +5308,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199196528"/>
+        <c:crossAx val="201009896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199196528"/>
+        <c:axId val="201009896"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4794,7 +5371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199195968"/>
+        <c:crossAx val="201009504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8214,16 +8791,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>437590</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8683,58 +9260,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="15.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="19" width="13.42578125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>4</v>
       </c>
+      <c r="N2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>64</v>
       </c>
@@ -8756,8 +9386,44 @@
       <c r="G3">
         <v>0.98865878855455702</v>
       </c>
+      <c r="H3" s="30">
+        <v>64</v>
+      </c>
+      <c r="I3" s="30">
+        <v>0.98865878855441103</v>
+      </c>
+      <c r="J3" s="30">
+        <v>64</v>
+      </c>
+      <c r="K3" s="30">
+        <v>0.70882124516974299</v>
+      </c>
+      <c r="L3" s="30">
+        <v>64</v>
+      </c>
+      <c r="M3" s="30">
+        <v>0.96680609780621696</v>
+      </c>
+      <c r="N3" s="30">
+        <v>64</v>
+      </c>
+      <c r="O3" s="30">
+        <v>0.98865878855441103</v>
+      </c>
+      <c r="P3" s="30">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="30">
+        <v>0.70882124516974299</v>
+      </c>
+      <c r="R3" s="30">
+        <v>64</v>
+      </c>
+      <c r="S3" s="30">
+        <v>0.96680609780621696</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>256</v>
       </c>
@@ -8779,8 +9445,44 @@
       <c r="G4">
         <v>0.29072280051176203</v>
       </c>
+      <c r="H4" s="30">
+        <v>130</v>
+      </c>
+      <c r="I4" s="30">
+        <v>0.29067945619653901</v>
+      </c>
+      <c r="J4" s="30">
+        <v>130</v>
+      </c>
+      <c r="K4" s="30">
+        <v>0.27599492000799097</v>
+      </c>
+      <c r="L4" s="30">
+        <v>130</v>
+      </c>
+      <c r="M4" s="30">
+        <v>0.28755542257681099</v>
+      </c>
+      <c r="N4" s="30">
+        <v>130</v>
+      </c>
+      <c r="O4" s="30">
+        <v>0.29067945619653901</v>
+      </c>
+      <c r="P4" s="30">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>0.27599492000799097</v>
+      </c>
+      <c r="R4" s="30">
+        <v>130</v>
+      </c>
+      <c r="S4" s="30">
+        <v>0.28755542257681099</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1024</v>
       </c>
@@ -8802,8 +9504,44 @@
       <c r="G5">
         <v>0.18396018172652201</v>
       </c>
+      <c r="H5" s="30">
+        <v>286</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0.18599596050804301</v>
+      </c>
+      <c r="J5" s="30">
+        <v>286</v>
+      </c>
+      <c r="K5" s="30">
+        <v>0.10656390279181099</v>
+      </c>
+      <c r="L5" s="30">
+        <v>286</v>
+      </c>
+      <c r="M5" s="30">
+        <v>0.124801429591682</v>
+      </c>
+      <c r="N5" s="30">
+        <v>250</v>
+      </c>
+      <c r="O5" s="30">
+        <v>0.185830194069107</v>
+      </c>
+      <c r="P5" s="30">
+        <v>250</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>0.10646404858288799</v>
+      </c>
+      <c r="R5" s="30">
+        <v>250</v>
+      </c>
+      <c r="S5" s="30">
+        <v>0.12472408688605401</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4096</v>
       </c>
@@ -8825,8 +9563,44 @@
       <c r="G6">
         <v>0.11825595944351899</v>
       </c>
+      <c r="H6" s="30">
+        <v>594</v>
+      </c>
+      <c r="I6" s="30">
+        <v>7.9857548229896394E-2</v>
+      </c>
+      <c r="J6" s="30">
+        <v>594</v>
+      </c>
+      <c r="K6" s="30">
+        <v>3.1067026635254499E-2</v>
+      </c>
+      <c r="L6" s="30">
+        <v>594</v>
+      </c>
+      <c r="M6" s="30">
+        <v>3.8363931514674598E-2</v>
+      </c>
+      <c r="N6" s="30">
+        <v>472</v>
+      </c>
+      <c r="O6" s="30">
+        <v>0.200744596381324</v>
+      </c>
+      <c r="P6" s="30">
+        <v>472</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>5.7634601845809298E-2</v>
+      </c>
+      <c r="R6" s="30">
+        <v>472</v>
+      </c>
+      <c r="S6" s="30">
+        <v>7.3621973337322802E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16384</v>
       </c>
@@ -8848,8 +9622,44 @@
       <c r="G7">
         <v>4.4301559766994798E-2</v>
       </c>
+      <c r="H7" s="30">
+        <v>1196</v>
+      </c>
+      <c r="I7" s="30">
+        <v>6.1453950000933302E-2</v>
+      </c>
+      <c r="J7" s="30">
+        <v>1138</v>
+      </c>
+      <c r="K7" s="30">
+        <v>1.7043759660237599E-2</v>
+      </c>
+      <c r="L7" s="30">
+        <v>1162</v>
+      </c>
+      <c r="M7" s="30">
+        <v>2.00678694503152E-2</v>
+      </c>
+      <c r="N7" s="30">
+        <v>962</v>
+      </c>
+      <c r="O7" s="30">
+        <v>9.5486774887958106E-2</v>
+      </c>
+      <c r="P7" s="30">
+        <v>962</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>2.49621311521168E-2</v>
+      </c>
+      <c r="R7" s="30">
+        <v>966</v>
+      </c>
+      <c r="S7" s="30">
+        <v>3.2220761371400897E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>65536</v>
       </c>
@@ -8868,8 +9678,44 @@
       <c r="G8">
         <v>2.1076985895931301E-2</v>
       </c>
+      <c r="H8" s="30">
+        <v>2354</v>
+      </c>
+      <c r="I8" s="30">
+        <v>3.3382797385302497E-2</v>
+      </c>
+      <c r="J8" s="30">
+        <v>2352</v>
+      </c>
+      <c r="K8" s="30">
+        <v>8.0274554172919295E-3</v>
+      </c>
+      <c r="L8" s="30">
+        <v>2292</v>
+      </c>
+      <c r="M8" s="30">
+        <v>1.0517242467784601E-2</v>
+      </c>
+      <c r="N8" s="30">
+        <v>1822</v>
+      </c>
+      <c r="O8" s="30">
+        <v>5.3867572008476999E-2</v>
+      </c>
+      <c r="P8" s="30">
+        <v>1837</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>1.15996176262504E-2</v>
+      </c>
+      <c r="R8" s="30">
+        <v>1828</v>
+      </c>
+      <c r="S8" s="30">
+        <v>1.54548474502913E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>90000</v>
       </c>
@@ -8889,8 +9735,44 @@
       <c r="G9">
         <v>1.10090733305762E-2</v>
       </c>
+      <c r="H9" s="30">
+        <v>4632</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1.6489761931552799E-2</v>
+      </c>
+      <c r="J9" s="30">
+        <v>4476</v>
+      </c>
+      <c r="K9" s="30">
+        <v>4.4267867288306497E-3</v>
+      </c>
+      <c r="L9" s="30">
+        <v>4462</v>
+      </c>
+      <c r="M9" s="30">
+        <v>5.7202931953339699E-3</v>
+      </c>
+      <c r="N9" s="30">
+        <v>3560</v>
+      </c>
+      <c r="O9" s="30">
+        <v>2.4361816660118302E-2</v>
+      </c>
+      <c r="P9" s="30">
+        <v>3553</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>6.1044263006906499E-3</v>
+      </c>
+      <c r="R9" s="30">
+        <v>3516</v>
+      </c>
+      <c r="S9" s="30">
+        <v>7.6771510212299502E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>160000</v>
       </c>
@@ -8910,8 +9792,44 @@
       <c r="G10">
         <v>1.01970403359326E-2</v>
       </c>
+      <c r="H10" s="30">
+        <v>8902</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1.0616907596661999E-2</v>
+      </c>
+      <c r="J10" s="30">
+        <v>8750</v>
+      </c>
+      <c r="K10" s="30">
+        <v>2.4005988663860999E-3</v>
+      </c>
+      <c r="L10" s="30">
+        <v>8634</v>
+      </c>
+      <c r="M10" s="30">
+        <v>3.1561695320769102E-3</v>
+      </c>
+      <c r="N10" s="30">
+        <v>6835</v>
+      </c>
+      <c r="O10" s="30">
+        <v>1.6107045486181099E-2</v>
+      </c>
+      <c r="P10" s="30">
+        <v>6717</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>3.0516011230391701E-3</v>
+      </c>
+      <c r="R10" s="30">
+        <v>6632</v>
+      </c>
+      <c r="S10" s="30">
+        <v>4.5880623301940097E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>250000</v>
       </c>
@@ -8931,40 +9849,184 @@
       <c r="G11">
         <v>5.54124246656578E-3</v>
       </c>
+      <c r="H11" s="30">
+        <v>17118</v>
+      </c>
+      <c r="I11" s="30">
+        <v>5.80786700749749E-3</v>
+      </c>
+      <c r="J11" s="30">
+        <v>16824</v>
+      </c>
+      <c r="K11" s="30">
+        <v>1.3988925598264401E-3</v>
+      </c>
+      <c r="L11" s="30">
+        <v>16760</v>
+      </c>
+      <c r="M11" s="30">
+        <v>1.76895612170217E-3</v>
+      </c>
+      <c r="N11" s="30">
+        <v>13127</v>
+      </c>
+      <c r="O11" s="30">
+        <v>7.9003510874858102E-3</v>
+      </c>
+      <c r="P11" s="30">
+        <v>12923</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>1.98689358046614E-3</v>
+      </c>
+      <c r="R11" s="30">
+        <v>12785</v>
+      </c>
+      <c r="S11" s="30">
+        <v>2.5713660236067501E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <v>16172</v>
       </c>
       <c r="E12" s="1">
         <v>2.4618615914172798E-3</v>
       </c>
+      <c r="H12" s="30">
+        <v>32697</v>
+      </c>
+      <c r="I12" s="30">
+        <v>3.3723492966185602E-3</v>
+      </c>
+      <c r="J12" s="30">
+        <v>31988</v>
+      </c>
+      <c r="K12" s="30">
+        <v>7.4654959303624305E-4</v>
+      </c>
+      <c r="L12" s="30">
+        <v>31838</v>
+      </c>
+      <c r="M12" s="30">
+        <v>9.8489089113430891E-4</v>
+      </c>
+      <c r="N12" s="30">
+        <v>25008</v>
+      </c>
+      <c r="O12" s="30">
+        <v>4.7426674891424799E-3</v>
+      </c>
+      <c r="P12" s="30">
+        <v>24452</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>1.1195730896248601E-3</v>
+      </c>
+      <c r="R12" s="30">
+        <v>24113</v>
+      </c>
+      <c r="S12" s="30">
+        <v>1.4032250274193399E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>27528</v>
       </c>
       <c r="E13" s="1">
         <v>1.3180136193463501E-3</v>
       </c>
+      <c r="H13" s="30">
+        <v>62940</v>
+      </c>
+      <c r="I13" s="30">
+        <v>1.8939623230976399E-3</v>
+      </c>
+      <c r="J13" s="30">
+        <v>61473</v>
+      </c>
+      <c r="K13" s="30">
+        <v>4.0371484508708999E-4</v>
+      </c>
+      <c r="L13" s="30">
+        <v>61367</v>
+      </c>
+      <c r="M13" s="30">
+        <v>5.1359981424952902E-4</v>
+      </c>
+      <c r="N13" s="30">
+        <v>47343</v>
+      </c>
+      <c r="O13" s="30">
+        <v>2.5514497200121002E-3</v>
+      </c>
+      <c r="P13" s="30">
+        <v>46205</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>5.3929595575191605E-4</v>
+      </c>
+      <c r="R13" s="30">
+        <v>45800</v>
+      </c>
+      <c r="S13" s="30">
+        <v>7.76039550118329E-4</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>38168</v>
       </c>
       <c r="E14" s="1">
         <v>8.3975005425662697E-4</v>
       </c>
+      <c r="N14" s="30">
+        <v>90099</v>
+      </c>
+      <c r="O14" s="30">
+        <v>1.0943785651930499E-3</v>
+      </c>
+      <c r="P14" s="30">
+        <v>88102</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>3.03215913268006E-4</v>
+      </c>
+      <c r="R14" s="30">
+        <v>86923</v>
+      </c>
+      <c r="S14" s="30">
+        <v>3.9447976034710601E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>39756</v>
       </c>
       <c r="E15" s="1">
         <v>7.77668216583664E-4</v>
       </c>
+      <c r="N15" s="30">
+        <v>171875</v>
+      </c>
+      <c r="O15" s="30">
+        <v>6.2408339587455796E-4</v>
+      </c>
+      <c r="P15" s="30">
+        <v>167614</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>1.6928546473597499E-4</v>
+      </c>
+      <c r="R15" s="30">
+        <v>165044</v>
+      </c>
+      <c r="S15" s="30">
+        <v>2.07240977472708E-4</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>60522</v>
       </c>
@@ -8989,9 +10051,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="N1:S1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9000,10 +10064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9018,145 +10082,125 @@
     <col min="9" max="9" width="12.42578125" style="4" customWidth="1"/>
     <col min="10" max="12" width="15" style="4" customWidth="1"/>
     <col min="13" max="13" width="15" style="7" customWidth="1"/>
-    <col min="14" max="16" width="15" style="4" customWidth="1"/>
-    <col min="17" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="22" width="11.5703125" style="23" customWidth="1"/>
-    <col min="23" max="24" width="11.5703125" style="22" customWidth="1"/>
-    <col min="25" max="26" width="12" style="24" customWidth="1"/>
-    <col min="27" max="28" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" style="4" customWidth="1"/>
+    <col min="15" max="16" width="15" style="21" customWidth="1"/>
+    <col min="17" max="22" width="15.140625" style="21" customWidth="1"/>
+    <col min="23" max="26" width="11.5703125" style="21" customWidth="1"/>
+    <col min="27" max="28" width="12" style="21" customWidth="1"/>
+    <col min="29" max="30" width="11.140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="J1" s="26" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="J1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="27"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="24" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="32"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>64</v>
       </c>
@@ -9201,53 +10245,59 @@
       <c r="M3" s="7">
         <v>128</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>0.55096529206121003</v>
       </c>
-      <c r="O3" s="13">
-        <v>128</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0.55096529206121003</v>
-      </c>
-      <c r="Q3">
-        <v>128</v>
-      </c>
-      <c r="R3">
-        <v>0.55096529206121003</v>
-      </c>
-      <c r="S3">
-        <v>128</v>
-      </c>
-      <c r="T3">
-        <v>0.55096529206121003</v>
-      </c>
-      <c r="U3" s="23">
-        <v>72</v>
-      </c>
-      <c r="V3" s="20">
-        <v>0.92140952458899605</v>
-      </c>
-      <c r="W3" s="22">
-        <v>160</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1.2130098543476899</v>
-      </c>
-      <c r="Y3" s="24">
-        <v>88</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>1.2915210913889399</v>
-      </c>
-      <c r="AA3">
-        <v>88</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>0.85723950004641503</v>
+      <c r="O3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>256</v>
       </c>
@@ -9292,53 +10342,59 @@
       <c r="M4" s="7">
         <v>512</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>0.113623887736235</v>
       </c>
-      <c r="O4" s="13">
-        <v>268</v>
-      </c>
-      <c r="P4" s="13">
-        <v>0.16331495441563099</v>
-      </c>
-      <c r="Q4">
-        <v>332</v>
-      </c>
-      <c r="R4">
-        <v>0.113569318947477</v>
-      </c>
-      <c r="S4">
-        <v>268</v>
-      </c>
-      <c r="T4">
-        <v>0.16331495441563201</v>
-      </c>
-      <c r="U4" s="23">
-        <v>256</v>
-      </c>
-      <c r="V4" s="20">
-        <v>0.71595727119231301</v>
-      </c>
-      <c r="W4" s="22">
-        <v>344</v>
+      <c r="O4" s="21">
+        <v>128</v>
+      </c>
+      <c r="P4" s="21">
+        <v>0.55096529206121003</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>128</v>
+      </c>
+      <c r="R4" s="21">
+        <v>0.55096529206121003</v>
+      </c>
+      <c r="S4" s="21">
+        <v>128</v>
+      </c>
+      <c r="T4" s="21">
+        <v>0.55096529206121003</v>
+      </c>
+      <c r="U4" s="31">
+        <v>128</v>
+      </c>
+      <c r="V4" s="21">
+        <v>0.55096529206121003</v>
+      </c>
+      <c r="W4" s="21">
+        <v>72</v>
       </c>
       <c r="X4" s="2">
-        <v>0.42347437706878799</v>
-      </c>
-      <c r="Y4" s="24">
-        <v>256</v>
+        <v>0.92140952458899605</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>160</v>
       </c>
       <c r="Z4" s="2">
-        <v>0.55243605271420604</v>
-      </c>
-      <c r="AA4">
-        <v>260</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>0.88920916736073696</v>
+        <v>1.2130098543476899</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>88</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1.2915210913889399</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>88</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.85723950004641503</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1024</v>
       </c>
@@ -9383,53 +10439,59 @@
       <c r="M5" s="7">
         <v>2048</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>1.2226393428338299E-2</v>
       </c>
-      <c r="O5" s="13">
-        <v>556</v>
-      </c>
-      <c r="P5" s="13">
-        <v>3.1289324995501903E-2</v>
-      </c>
-      <c r="Q5">
-        <v>836</v>
-      </c>
-      <c r="R5">
-        <v>1.2225104396792801E-2</v>
-      </c>
-      <c r="S5">
-        <v>576</v>
-      </c>
-      <c r="T5">
-        <v>3.10919434648423E-2</v>
-      </c>
-      <c r="U5" s="23">
-        <v>880</v>
-      </c>
-      <c r="V5" s="20">
-        <v>0.25767670341613502</v>
-      </c>
-      <c r="W5" s="22">
-        <v>1072</v>
+      <c r="O5" s="21">
+        <v>268</v>
+      </c>
+      <c r="P5" s="21">
+        <v>0.16331495441563099</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>332</v>
+      </c>
+      <c r="R5" s="21">
+        <v>0.113569318947477</v>
+      </c>
+      <c r="S5" s="21">
+        <v>268</v>
+      </c>
+      <c r="T5" s="21">
+        <v>0.16331495441563201</v>
+      </c>
+      <c r="U5" s="31">
+        <v>268</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0.16331495441563201</v>
+      </c>
+      <c r="W5" s="21">
+        <v>256</v>
       </c>
       <c r="X5" s="2">
-        <v>0.185127868800572</v>
-      </c>
-      <c r="Y5" s="24">
-        <v>896</v>
+        <v>0.71595727119231301</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>344</v>
       </c>
       <c r="Z5" s="2">
-        <v>0.49451940312305598</v>
-      </c>
-      <c r="AA5">
-        <v>886</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>0.50558762009866498</v>
+        <v>0.42347437706878799</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>256</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.55243605271420604</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>260</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.88920916736073696</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4096</v>
       </c>
@@ -9474,53 +10536,59 @@
       <c r="M6" s="7">
         <v>8192</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="12">
         <v>1.5534309340943201E-3</v>
       </c>
-      <c r="O6" s="13">
-        <v>944</v>
-      </c>
-      <c r="P6" s="13">
-        <v>8.5111824164608493E-3</v>
-      </c>
-      <c r="Q6">
-        <v>2088</v>
-      </c>
-      <c r="R6">
-        <v>1.5775708986585199E-3</v>
-      </c>
-      <c r="S6">
-        <v>1096</v>
-      </c>
-      <c r="T6">
-        <v>7.0575091694061202E-3</v>
-      </c>
-      <c r="U6" s="23">
-        <v>3280</v>
-      </c>
-      <c r="V6" s="20">
-        <v>3.2748488910642901E-2</v>
-      </c>
-      <c r="W6" s="22">
-        <v>4424</v>
+      <c r="O6" s="21">
+        <v>556</v>
+      </c>
+      <c r="P6" s="21">
+        <v>3.1289324995501903E-2</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>836</v>
+      </c>
+      <c r="R6" s="21">
+        <v>1.2225104396792801E-2</v>
+      </c>
+      <c r="S6" s="21">
+        <v>576</v>
+      </c>
+      <c r="T6" s="21">
+        <v>3.10919434648423E-2</v>
+      </c>
+      <c r="U6" s="31">
+        <v>512</v>
+      </c>
+      <c r="V6" s="21">
+        <v>0.66818490383879903</v>
+      </c>
+      <c r="W6" s="21">
+        <v>880</v>
       </c>
       <c r="X6" s="2">
-        <v>1.6661562001790899E-2</v>
-      </c>
-      <c r="Y6" s="24">
-        <v>3272</v>
+        <v>0.25767670341613502</v>
+      </c>
+      <c r="Y6" s="21">
+        <v>1072</v>
       </c>
       <c r="Z6" s="2">
-        <v>0.13328106068616699</v>
-      </c>
-      <c r="AA6">
-        <v>3302</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>3.3120199091722903E-2</v>
+        <v>0.185127868800572</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>896</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.49451940312305598</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>886</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.50558762009866498</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>16384</v>
       </c>
@@ -9565,53 +10633,59 @@
       <c r="M7" s="7">
         <v>32768</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>1.9591904482989101E-4</v>
       </c>
-      <c r="O7" s="13">
-        <v>1248</v>
-      </c>
-      <c r="P7" s="13">
-        <v>5.8092842763180601E-3</v>
-      </c>
-      <c r="Q7">
-        <v>5264</v>
-      </c>
-      <c r="R7">
-        <v>3.9143596309961301E-4</v>
-      </c>
-      <c r="S7">
-        <v>2244</v>
-      </c>
-      <c r="T7">
-        <v>1.71808912805479E-3</v>
-      </c>
-      <c r="U7" s="23">
-        <v>12664</v>
-      </c>
-      <c r="V7" s="20">
-        <v>3.9208160372974097E-3</v>
-      </c>
-      <c r="W7" s="22">
-        <v>17288</v>
+      <c r="O7" s="21">
+        <v>944</v>
+      </c>
+      <c r="P7" s="21">
+        <v>8.5111824164608493E-3</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>2088</v>
+      </c>
+      <c r="R7" s="21">
+        <v>1.5775708986585199E-3</v>
+      </c>
+      <c r="S7" s="21">
+        <v>1096</v>
+      </c>
+      <c r="T7" s="21">
+        <v>7.0575091694061202E-3</v>
+      </c>
+      <c r="U7" s="31">
+        <v>956</v>
+      </c>
+      <c r="V7" s="21">
+        <v>0.32863372187151701</v>
+      </c>
+      <c r="W7" s="21">
+        <v>3280</v>
       </c>
       <c r="X7" s="2">
-        <v>3.13281782721639E-3</v>
-      </c>
-      <c r="Y7" s="24">
-        <v>12690</v>
+        <v>3.2748488910642901E-2</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>4424</v>
       </c>
       <c r="Z7" s="2">
-        <v>0.42566757973014202</v>
-      </c>
-      <c r="AA7">
-        <v>12748</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>1.12933395808484E-2</v>
+        <v>1.6661562001790899E-2</v>
+      </c>
+      <c r="AA7" s="21">
+        <v>3272</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0.13328106068616699</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>3302</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>3.3120199091722903E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>65536</v>
       </c>
@@ -9656,35 +10730,59 @@
       <c r="M8" s="2">
         <v>131072</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>2.25364E-5</v>
       </c>
-      <c r="O8" s="13">
-        <v>1880</v>
-      </c>
-      <c r="P8" s="13">
-        <v>8.0587555871336602E-3</v>
-      </c>
-      <c r="Q8">
-        <v>13444</v>
-      </c>
-      <c r="R8">
-        <v>1.1535960015255E-4</v>
-      </c>
-      <c r="S8">
-        <v>4240</v>
-      </c>
-      <c r="T8">
-        <v>8.7806666028501096E-4</v>
-      </c>
-      <c r="W8" s="22">
-        <v>67848</v>
+      <c r="O8" s="21">
+        <v>1248</v>
+      </c>
+      <c r="P8" s="21">
+        <v>5.8092842763180601E-3</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>5264</v>
+      </c>
+      <c r="R8" s="21">
+        <v>3.9143596309961301E-4</v>
+      </c>
+      <c r="S8" s="21">
+        <v>2244</v>
+      </c>
+      <c r="T8" s="21">
+        <v>1.71808912805479E-3</v>
+      </c>
+      <c r="U8" s="31">
+        <v>1826</v>
+      </c>
+      <c r="V8" s="21">
+        <v>5.6203156649434802E-2</v>
+      </c>
+      <c r="W8" s="21">
+        <v>12664</v>
       </c>
       <c r="X8" s="2">
-        <v>3.8374301674197701E-3</v>
+        <v>3.9208160372974097E-3</v>
+      </c>
+      <c r="Y8" s="21">
+        <v>17288</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>3.13281782721639E-3</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>12690</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0.42566757973014202</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>12748</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1.12933395808484E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>250000</v>
       </c>
@@ -9716,124 +10814,186 @@
         <v>6.4000000000000006E-6</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="O9" s="13">
+      <c r="O9" s="21">
+        <v>1880</v>
+      </c>
+      <c r="P9" s="21">
+        <v>8.0587555871336602E-3</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>13444</v>
+      </c>
+      <c r="R9" s="21">
+        <v>1.1535960015255E-4</v>
+      </c>
+      <c r="S9" s="21">
+        <v>4240</v>
+      </c>
+      <c r="T9" s="21">
+        <v>8.7806666028501096E-4</v>
+      </c>
+      <c r="U9" s="31">
+        <v>3478</v>
+      </c>
+      <c r="V9" s="21">
+        <v>7.4807286434648498E-3</v>
+      </c>
+      <c r="Y9" s="21">
+        <v>67848</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>3.8374301674197701E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O10" s="21">
         <v>3948</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P10" s="21">
         <v>1.3073030878355599E-2</v>
       </c>
-      <c r="Q9">
+      <c r="Q10" s="21">
         <v>33970</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R10" s="2">
         <v>2.8819047517352001E-5</v>
       </c>
-      <c r="S9">
+      <c r="S10" s="21">
         <v>8252</v>
       </c>
-      <c r="T9">
+      <c r="T10" s="21">
         <v>2.2375733763059101E-4</v>
       </c>
+      <c r="U10" s="31">
+        <v>6626</v>
+      </c>
+      <c r="V10" s="21">
+        <v>3.0451580732979702E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O10" s="13">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O11" s="21">
         <v>5456</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P11" s="21">
         <v>2.15593843417007E-2</v>
       </c>
-      <c r="Q10">
+      <c r="Q11" s="21">
         <v>83566</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R11" s="2">
         <v>6.9004676165009799E-6</v>
       </c>
-      <c r="S10">
+      <c r="S11" s="21">
         <v>15360</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T11" s="2">
         <v>9.5389338686431403E-5</v>
       </c>
+      <c r="U11" s="31">
+        <v>12622</v>
+      </c>
+      <c r="V11" s="2">
+        <v>8.9497393610459095E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O11" s="13">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O12" s="21">
         <v>5896</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P12" s="21">
         <v>6.1220770443589203E-3</v>
       </c>
-      <c r="Q11">
+      <c r="Q12" s="21">
         <v>207442</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R12" s="2">
         <v>2.1959838350590502E-6</v>
       </c>
-      <c r="S11">
+      <c r="S12" s="21">
         <v>29736</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T12" s="2">
         <v>3.2152372669260001E-5</v>
       </c>
+      <c r="U12" s="31">
+        <v>23432</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1.9569442581107401E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O12" s="13">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O13" s="21">
         <v>8232</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P13" s="21">
         <v>2.6927587705687598E-3</v>
       </c>
-      <c r="S12">
+      <c r="S13" s="21">
         <v>55420</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T13" s="2">
         <v>1.7583982920345201E-5</v>
       </c>
+      <c r="U13" s="31">
+        <v>44218</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1.2759064103749101E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O13" s="13">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O14" s="21">
         <v>8996</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P14" s="21">
         <v>2.83684754791476E-3</v>
       </c>
-      <c r="S13">
+      <c r="S14" s="21">
         <v>106428</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T14" s="2">
         <v>4.7851905992066301E-6</v>
       </c>
+      <c r="U14" s="31">
+        <v>82650</v>
+      </c>
+      <c r="V14" s="2">
+        <v>3.2969978022346502E-5</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O14" s="13">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O15" s="21">
         <v>9316</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P15" s="21">
         <v>1.10463047318404E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O15" s="13">
-        <v>20976</v>
-      </c>
-      <c r="P15" s="13">
-        <v>7.62564005714126E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
+      <c r="O16" s="21">
+        <v>20976</v>
+      </c>
+      <c r="P16" s="21">
+        <v>7.62564005714126E-3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="J1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="O1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9845,783 +11005,783 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.7109375" style="25" customWidth="1"/>
-    <col min="5" max="23" width="13.7109375" style="25" customWidth="1"/>
-    <col min="24" max="31" width="9.140625" style="25"/>
+    <col min="1" max="4" width="11.7109375" style="20" customWidth="1"/>
+    <col min="5" max="23" width="13.7109375" style="20" customWidth="1"/>
+    <col min="24" max="31" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="39"/>
+      <c r="E1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="20">
         <v>64</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="20">
         <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="20">
         <f>B2^2*10</f>
         <v>0.625</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="20">
         <f>B2^3*5</f>
         <v>7.8125E-2</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="40" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="42"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="20">
         <v>256</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="20">
         <f>B2/2</f>
         <v>0.125</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="20">
         <f t="shared" ref="C3:C8" si="0">B3^2*10</f>
         <v>0.15625</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="20">
         <f t="shared" ref="D3:D8" si="1">B3^3*5</f>
         <v>9.765625E-3</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41" t="s">
+      <c r="L3" s="38"/>
+      <c r="M3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="42"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="38"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="20">
         <v>1024</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="20">
         <f t="shared" ref="B4:B7" si="2">B3/2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="20">
         <f t="shared" si="0"/>
         <v>3.90625E-2</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="20">
         <f t="shared" si="1"/>
         <v>1.220703125E-3</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="44" t="s">
+      <c r="T4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="44" t="s">
+      <c r="U4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="45" t="s">
+      <c r="V4" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="20">
         <v>4096</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="20">
         <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>9.765625E-3</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="20">
         <f t="shared" si="1"/>
         <v>1.52587890625E-4</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="22">
         <v>64</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="23">
         <v>0.82072280697912903</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="23">
         <v>64</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="23">
         <v>0.75988362489888905</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="23">
         <v>36</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="23">
         <v>2.2850999999999999</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="23">
         <v>80</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="25">
         <v>13.6046176508166</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="22">
         <v>144</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="26">
         <v>6.4219373632584602E-15</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="26">
         <v>128</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="26">
         <v>5.6910399790446098E-2</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="23">
         <v>72</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="26">
         <v>0.20549063061801801</v>
       </c>
-      <c r="S5" s="44">
+      <c r="S5" s="23">
         <v>160</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T5" s="26">
         <v>0.15065920556939599</v>
       </c>
-      <c r="U5" s="44">
+      <c r="U5" s="23">
         <v>88</v>
       </c>
-      <c r="V5" s="46">
+      <c r="V5" s="25">
         <v>0.34221106093520298</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="20">
         <v>16384</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="20">
         <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>2.44140625E-3</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="20">
         <f t="shared" si="1"/>
         <v>1.9073486328125E-5</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="22">
         <v>256</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="23">
         <v>0.206660698989033</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="23">
         <v>256</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="23">
         <v>0.189240486269389</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="23">
         <v>128</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="26">
         <v>1.0642869103081201</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="23">
         <v>172</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="25">
         <v>2.09442010603447</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="22">
         <v>576</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="26">
         <v>6.0084970312274402E-15</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="23">
         <v>512</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="23">
         <v>7.2707237794323301E-3</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="23">
         <v>256</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="26">
         <v>8.0742880682756202E-2</v>
       </c>
-      <c r="S6" s="44">
+      <c r="S6" s="23">
         <v>344</v>
       </c>
-      <c r="T6" s="47">
+      <c r="T6" s="26">
         <v>0.61230076410364398</v>
       </c>
-      <c r="U6" s="44">
+      <c r="U6" s="23">
         <v>256</v>
       </c>
-      <c r="V6" s="46">
+      <c r="V6" s="25">
         <v>0.113744768248721</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="20">
         <v>65536</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="20">
         <f t="shared" si="2"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>6.103515625E-4</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="20">
         <f t="shared" si="1"/>
         <v>2.384185791015625E-6</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="22">
         <v>1024</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="23">
         <v>5.1812164029267901E-2</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="23">
         <v>1024</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="23">
         <v>4.7254594497097901E-2</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="23">
         <v>440</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="26">
         <v>1.4890730943887001</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="23">
         <v>2212</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="25">
         <v>0.47865451592365599</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="22">
         <v>2304</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="26">
         <v>1.2863932227470699E-14</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="23">
         <v>2048</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="23">
         <v>9.2094511558979701E-4</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="23">
         <v>880</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="26">
         <v>1.44469986169836E-2</v>
       </c>
-      <c r="S7" s="44">
+      <c r="S7" s="23">
         <v>1072</v>
       </c>
-      <c r="T7" s="47">
+      <c r="T7" s="26">
         <v>1.3397457791017E-2</v>
       </c>
-      <c r="U7" s="44">
+      <c r="U7" s="23">
         <v>896</v>
       </c>
-      <c r="V7" s="46">
+      <c r="V7" s="25">
         <v>3.6155144182058001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="20">
         <v>250000</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="20">
         <f>1/250</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>1.5999999999999999E-4</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="20">
         <f t="shared" si="1"/>
         <v>3.2000000000000001E-7</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="22">
         <v>4096</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="23">
         <v>1.2968167697866699E-2</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="23">
         <v>4096</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="23">
         <v>1.18098910153499E-2</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="23">
         <v>1640</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="26">
         <v>1.15780070020932</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="23">
         <v>8644</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="25">
         <v>9.5366481541707904E-2</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="22">
         <v>9216</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="26">
         <v>1.85454352663668E-14</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="23">
         <v>8192</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="23">
         <v>1.16770295444356E-4</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="23">
         <v>3280</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="26">
         <v>1.9808011726754099E-3</v>
       </c>
-      <c r="S8" s="44">
+      <c r="S8" s="23">
         <v>4424</v>
       </c>
-      <c r="T8" s="47">
+      <c r="T8" s="26">
         <v>2.2061235561505002E-3</v>
       </c>
-      <c r="U8" s="44">
+      <c r="U8" s="23">
         <v>3272</v>
       </c>
-      <c r="V8" s="46">
+      <c r="V8" s="25">
         <v>1.09116262033231E-2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E9" s="43">
+      <c r="E9" s="22">
         <v>16384</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="23">
         <v>3.2436799318507899E-3</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="23">
         <v>16384</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="23">
         <v>2.9522298143167601E-3</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="43">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="22">
         <v>36864</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="26">
         <v>3.7159313054459903E-14</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="23">
         <v>32768</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="26">
         <v>1.51326488849241E-5</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="23">
         <v>12664</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="26">
         <v>4.2034561665896399E-4</v>
       </c>
-      <c r="S9" s="44">
+      <c r="S9" s="23">
         <v>17288</v>
       </c>
-      <c r="T9" s="47">
+      <c r="T9" s="26">
         <v>5.9478686499189496E-3</v>
       </c>
-      <c r="U9" s="44">
+      <c r="U9" s="23">
         <v>12960</v>
       </c>
-      <c r="V9" s="46">
+      <c r="V9" s="25">
         <v>1.22127618865365E-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E10" s="43">
+      <c r="E10" s="22">
         <v>65536</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="23">
         <v>8.1110695211347597E-4</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="43">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="22">
         <v>147456</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="26">
         <v>4.3167141395578798E-14</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="23">
         <v>131072</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="26">
         <v>2.1250912616835202E-6</v>
       </c>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="45"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="45"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="45"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="24"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="45"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="24"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="45"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="24"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="45"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="45"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="24"/>
     </row>
     <row r="17" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="45"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="24"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="45"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="24"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="45"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24"/>
     </row>
     <row r="20" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="50"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -10662,441 +11822,441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="17"/>
-      <c r="K1" s="27" t="s">
+      <c r="A1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="P1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="P1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="27" t="s">
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="27"/>
-      <c r="P2" s="27" t="s">
+      <c r="N2" s="39"/>
+      <c r="P2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="27"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>64</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <f>LOG(A3)</f>
         <v>1.8061799739838871</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <f>LOG(C3)</f>
         <v>-0.6020599913279624</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>0.96680609780621696</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <f>LOG(E3)</f>
         <v>-1.4660619088507777E-2</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <f>C3^2*100</f>
         <v>6.25</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <f>C3^3*100</f>
         <v>1.5625</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <f>C3^4*200</f>
         <v>0.78125</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="P3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="S3" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>256</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <f t="shared" ref="B4:B9" si="0">LOG(A4)</f>
         <v>2.4082399653118496</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>C3/2</f>
         <v>0.125</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f t="shared" ref="D4:D9" si="1">LOG(C4)</f>
         <v>-0.90308998699194354</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>0.28771852887709398</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f t="shared" ref="F4:F9" si="2">LOG(E4)</f>
         <v>-0.54103216894053285</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f t="shared" ref="G4:G9" si="3">C4^2*100</f>
         <v>1.5625</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <f t="shared" ref="H4:H9" si="4">C4^3*100</f>
         <v>0.1953125</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <f t="shared" ref="I4:I9" si="5">C4^4*200</f>
         <v>4.8828125E-2</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <v>144</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <v>0.42660971206547998</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <v>128</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <v>0.44991158430958</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="18">
         <v>256</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="18">
         <v>0.24511670502347899</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>1024</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <f t="shared" si="0"/>
         <v>3.0102999566398121</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <f t="shared" ref="C5:C8" si="6">C4/2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f t="shared" si="1"/>
         <v>-1.2041199826559248</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>0.109685760918177</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <f t="shared" si="2"/>
         <v>-0.95984974759426889</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <f t="shared" si="3"/>
         <v>0.390625</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <f t="shared" si="4"/>
         <v>2.44140625E-2</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <f t="shared" si="5"/>
         <v>3.0517578125E-3</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>576</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="16">
         <v>0.12344091236093201</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <v>512</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <v>0.123611944460165</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="18">
         <v>1024</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <v>1.2881599389974E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>4096</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3.6123599479677742</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <f t="shared" si="6"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <f t="shared" si="1"/>
         <v>-1.505149978319906</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>2.7676097156653201E-2</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <f t="shared" si="2"/>
         <v>-1.5578951534795746</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f t="shared" si="3"/>
         <v>9.765625E-2</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <f t="shared" si="4"/>
         <v>3.0517578125E-3</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <f t="shared" si="5"/>
         <v>1.9073486328125E-4</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>2304</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>1.2806897864589E-2</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <v>2048</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <v>1.29567262786669E-2</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="18">
         <v>4096</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <v>1.3571827580066999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>16384</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4.2144199392957367</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <f t="shared" si="6"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <f t="shared" si="1"/>
         <v>-1.8061799739838871</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>6.92466979585964E-3</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <f t="shared" si="2"/>
         <v>-2.1596009311812283</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <f t="shared" si="3"/>
         <v>2.44140625E-2</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <f t="shared" si="4"/>
         <v>3.814697265625E-4</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <f t="shared" si="5"/>
         <v>1.1920928955078125E-5</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>9216</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>1.6226299151069401E-3</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <v>8192</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <v>1.62764983223167E-3</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="18">
         <v>16384</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="19">
         <v>8.74427297685418E-5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>65536</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>4.8164799306236992</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <f t="shared" si="6"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <f t="shared" si="1"/>
         <v>-2.1072099696478683</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>1.7312938924469699E-3</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f t="shared" si="2"/>
         <v>-2.761629203046565</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f t="shared" si="3"/>
         <v>6.103515625E-3</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <f t="shared" si="4"/>
         <v>4.76837158203125E-5</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <f t="shared" si="5"/>
         <v>7.4505805969238281E-7</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>36864</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <v>2.0372738871442901E-4</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <v>32768</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <v>2.0388590553677301E-4</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <v>65536</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <v>5.4964154115170998E-6</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>250000</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>5.3979400086720375</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f>1/250</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <f t="shared" si="1"/>
         <v>-2.3979400086720375</v>
       </c>
       <c r="E9" s="2">
         <v>4.5386003378579198E-4</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <f t="shared" si="2"/>
         <v>-3.3430780588753279</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f t="shared" si="3"/>
         <v>1.5999999999999999E-3</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <f t="shared" si="4"/>
         <v>6.4000000000000006E-6</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <f t="shared" si="5"/>
         <v>5.1200000000000002E-8</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>147456</v>
       </c>
       <c r="L9" s="2">
@@ -11108,10 +12268,10 @@
       <c r="N9" s="2">
         <v>2.54996024889844E-5</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="18">
         <v>160000</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <v>9.2318100100643895E-7</v>
       </c>
     </row>
@@ -11144,91 +12304,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="28" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>4</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -11306,91 +12466,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="28" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>4</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -11572,22 +12732,22 @@
       <c r="A9">
         <v>65536</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>4.2645913129575001E-5</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>4.2915181519391997E-5</v>
       </c>
       <c r="E9">
         <v>98304</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>4.61570889354554E-5</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>4.6157088931970002E-5</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>4.61570892665915E-5</v>
       </c>
       <c r="I9">
@@ -11733,71 +12893,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="28" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>4</v>
+      <c r="J3" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -11868,7 +13028,7 @@
       <c r="C8">
         <v>49152</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>5.9222760256350099E-5</v>
       </c>
       <c r="E8">
@@ -11884,7 +13044,7 @@
       <c r="C9">
         <v>196608</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>1.4815466809758699E-5</v>
       </c>
       <c r="E9">

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="86">
   <si>
     <t>Uniform</t>
   </si>
@@ -290,6 +290,9 @@
   <si>
     <t>ME2_uniform</t>
   </si>
+  <si>
+    <t>PWQ</t>
+  </si>
 </sst>
 </file>
 
@@ -543,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,10 +702,37 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -712,27 +742,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -750,12 +759,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -766,6 +769,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3536,11 +3545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203893704"/>
-        <c:axId val="203902280"/>
+        <c:axId val="346697920"/>
+        <c:axId val="346698480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203893704"/>
+        <c:axId val="346697920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3654,12 +3663,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203902280"/>
+        <c:crossAx val="346698480"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203902280"/>
+        <c:axId val="346698480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3774,7 +3783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203893704"/>
+        <c:crossAx val="346697920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4244,11 +4253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203969616"/>
-        <c:axId val="203970008"/>
+        <c:axId val="349289456"/>
+        <c:axId val="349290016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203969616"/>
+        <c:axId val="349289456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4306,12 +4315,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203970008"/>
+        <c:crossAx val="349290016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203970008"/>
+        <c:axId val="349290016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4369,7 +4378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203969616"/>
+        <c:crossAx val="349289456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4756,11 +4765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203970792"/>
-        <c:axId val="203971184"/>
+        <c:axId val="349293936"/>
+        <c:axId val="349294496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203970792"/>
+        <c:axId val="349293936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4818,12 +4827,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203971184"/>
+        <c:crossAx val="349294496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203971184"/>
+        <c:axId val="349294496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4881,7 +4890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203970792"/>
+        <c:crossAx val="349293936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5786,7 +5795,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$Q$5:$Q$11</c:f>
+              <c:f>Sinusoid2D!$S$5:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5816,7 +5825,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$R$5:$R$11</c:f>
+              <c:f>Sinusoid2D!$T$5:$T$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5854,11 +5863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203099568"/>
-        <c:axId val="203191304"/>
+        <c:axId val="347428240"/>
+        <c:axId val="347428800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203099568"/>
+        <c:axId val="347428240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5973,12 +5982,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203191304"/>
+        <c:crossAx val="347428800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203191304"/>
+        <c:axId val="347428800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6094,7 +6103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203099568"/>
+        <c:crossAx val="347428240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6400,7 +6409,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$S$5:$S$12</c:f>
+              <c:f>Sinusoid2D!$U$5:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6433,7 +6442,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$T$5:$T$12</c:f>
+              <c:f>Sinusoid2D!$V$5:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6498,7 +6507,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$Y$5:$Y$12</c:f>
+              <c:f>Sinusoid2D!$AA$5:$AA$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6531,7 +6540,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$Z$5:$Z$12</c:f>
+              <c:f>Sinusoid2D!$AB$5:$AB$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6596,7 +6605,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$U$5:$U$12</c:f>
+              <c:f>Sinusoid2D!$W$5:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6629,7 +6638,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$V$5:$V$12</c:f>
+              <c:f>Sinusoid2D!$X$5:$X$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6694,7 +6703,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$W$5:$W$12</c:f>
+              <c:f>Sinusoid2D!$Y$5:$Y$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6727,7 +6736,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$X$5:$X$12</c:f>
+              <c:f>Sinusoid2D!$Z$5:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6798,7 +6807,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AA$5:$AA$12</c:f>
+              <c:f>Sinusoid2D!$AC$5:$AC$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6831,7 +6840,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AB$5:$AB$12</c:f>
+              <c:f>Sinusoid2D!$AD$5:$AD$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6902,7 +6911,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AC$5:$AC$11</c:f>
+              <c:f>Sinusoid2D!$AE$5:$AE$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6932,7 +6941,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AD$5:$AD$11</c:f>
+              <c:f>Sinusoid2D!$AF$5:$AF$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7000,7 +7009,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AE$5:$AE$11</c:f>
+              <c:f>Sinusoid2D!$AG$5:$AG$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7030,7 +7039,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AF$5:$AF$11</c:f>
+              <c:f>Sinusoid2D!$AH$5:$AH$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7068,11 +7077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203849240"/>
-        <c:axId val="202684008"/>
+        <c:axId val="343368032"/>
+        <c:axId val="343368592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203849240"/>
+        <c:axId val="343368032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7187,12 +7196,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202684008"/>
+        <c:crossAx val="343368592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202684008"/>
+        <c:axId val="343368592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7308,7 +7317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203849240"/>
+        <c:crossAx val="343368032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7614,7 +7623,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AY$5:$AY$12</c:f>
+              <c:f>Sinusoid2D!$BA$5:$BA$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7647,7 +7656,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AZ$5:$AZ$12</c:f>
+              <c:f>Sinusoid2D!$BB$5:$BB$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7712,7 +7721,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AW$5:$AW$12</c:f>
+              <c:f>Sinusoid2D!$AY$5:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7745,7 +7754,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AX$5:$AX$12</c:f>
+              <c:f>Sinusoid2D!$AZ$5:$AZ$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7810,7 +7819,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BA$5:$BA$12</c:f>
+              <c:f>Sinusoid2D!$BC$5:$BC$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7843,7 +7852,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BB$5:$BB$12</c:f>
+              <c:f>Sinusoid2D!$BD$5:$BD$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7908,7 +7917,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BC$5:$BC$12</c:f>
+              <c:f>Sinusoid2D!$BE$5:$BE$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7941,7 +7950,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BD$5:$BD$12</c:f>
+              <c:f>Sinusoid2D!$BF$5:$BF$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8012,7 +8021,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BI$5:$BI$12</c:f>
+              <c:f>Sinusoid2D!$BK$5:$BK$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8045,7 +8054,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BJ$5:$BJ$12</c:f>
+              <c:f>Sinusoid2D!$BL$5:$BL$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8086,11 +8095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203710520"/>
-        <c:axId val="203827176"/>
+        <c:axId val="347442752"/>
+        <c:axId val="347443312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203710520"/>
+        <c:axId val="347442752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8206,12 +8215,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203827176"/>
+        <c:crossAx val="347443312"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203827176"/>
+        <c:axId val="347443312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8327,7 +8336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203710520"/>
+        <c:crossAx val="347442752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11237,11 +11246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204416520"/>
-        <c:axId val="203964128"/>
+        <c:axId val="343672784"/>
+        <c:axId val="343673344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204416520"/>
+        <c:axId val="343672784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11300,12 +11309,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203964128"/>
+        <c:crossAx val="343673344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203964128"/>
+        <c:axId val="343673344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11365,7 +11374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204416520"/>
+        <c:crossAx val="343672784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11379,7 +11388,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12627,11 +12635,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203964912"/>
-        <c:axId val="203965304"/>
+        <c:axId val="49994384"/>
+        <c:axId val="49994944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203964912"/>
+        <c:axId val="49994384"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12691,12 +12699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203965304"/>
+        <c:crossAx val="49994944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203965304"/>
+        <c:axId val="49994944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12754,7 +12762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203964912"/>
+        <c:crossAx val="49994384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13406,11 +13414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203966088"/>
-        <c:axId val="203966480"/>
+        <c:axId val="342253776"/>
+        <c:axId val="342254336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203966088"/>
+        <c:axId val="342253776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13524,12 +13532,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203966480"/>
+        <c:crossAx val="342254336"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203966480"/>
+        <c:axId val="342254336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13642,7 +13650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203966088"/>
+        <c:crossAx val="342253776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14194,11 +14202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203967264"/>
-        <c:axId val="203967656"/>
+        <c:axId val="342547280"/>
+        <c:axId val="342547840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203967264"/>
+        <c:axId val="342547280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14256,12 +14264,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203967656"/>
+        <c:crossAx val="342547840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203967656"/>
+        <c:axId val="342547840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14319,7 +14327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203967264"/>
+        <c:crossAx val="342547280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14924,11 +14932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203968440"/>
-        <c:axId val="203968832"/>
+        <c:axId val="342553440"/>
+        <c:axId val="342554000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203968440"/>
+        <c:axId val="342553440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14986,12 +14994,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203968832"/>
+        <c:crossAx val="342554000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203968832"/>
+        <c:axId val="342554000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15049,7 +15057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203968440"/>
+        <c:crossAx val="342553440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21314,13 +21322,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>108858</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>40822</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
@@ -21344,13 +21352,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>204107</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
@@ -21910,48 +21918,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="76" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -22337,40 +22345,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="78"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="78"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -22516,23 +22524,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ44"/>
+  <dimension ref="A1:BL44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BJ5" sqref="BJ5:BJ12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="10.5703125" style="32" customWidth="1"/>
-    <col min="15" max="31" width="10.7109375" style="32" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" customWidth="1"/>
-    <col min="33" max="40" width="10.5703125" style="32" customWidth="1"/>
-    <col min="41" max="46" width="10.5703125" style="33" customWidth="1"/>
-    <col min="47" max="63" width="10.7109375" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" style="32" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" style="53" customWidth="1"/>
+    <col min="19" max="33" width="10.7109375" style="32" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" customWidth="1"/>
+    <col min="35" max="42" width="10.5703125" style="32" customWidth="1"/>
+    <col min="43" max="48" width="10.5703125" style="33" customWidth="1"/>
+    <col min="49" max="65" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
@@ -22545,43 +22555,43 @@
       <c r="D1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="56" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" t="s">
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="34"/>
       <c r="AL1" s="34"/>
@@ -22593,8 +22603,10 @@
       <c r="AR1" s="34"/>
       <c r="AS1" s="34"/>
       <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -22610,78 +22622,80 @@
         <f>A2^(-2)*100</f>
         <v>100</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53" t="s">
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="62" t="s">
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="56" t="s">
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="55" t="s">
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
-      <c r="BJ2" s="55"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="64"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -22697,86 +22711,88 @@
         <f t="shared" ref="D3:D9" si="2">A3^(-2)*100</f>
         <v>1</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53" t="s">
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="60" t="s">
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59" t="s">
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53" t="s">
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53" t="s">
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
-      <c r="BB3" s="53"/>
-      <c r="BC3" s="53"/>
-      <c r="BD3" s="53"/>
-      <c r="BE3" s="55" t="s">
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="BF3" s="55"/>
-      <c r="BG3" s="55" t="s">
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55" t="s">
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="55"/>
+      <c r="BL3" s="64"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -22792,124 +22808,128 @@
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54" t="s">
+      <c r="J4" s="56"/>
+      <c r="K4" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54" t="s">
+      <c r="N4" s="56"/>
+      <c r="O4" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54" t="s">
+      <c r="P4" s="56"/>
+      <c r="Q4" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="61"/>
+      <c r="S4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54" t="s">
+      <c r="T4" s="56"/>
+      <c r="U4" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54" t="s">
+      <c r="V4" s="56"/>
+      <c r="W4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54" t="s">
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54" t="s">
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54" t="s">
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54" t="s">
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54" t="s">
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="58" t="s">
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58" t="s">
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58" t="s">
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58" t="s">
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58" t="s">
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58" t="s">
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58" t="s">
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58" t="s">
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58" t="s">
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58" t="s">
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58" t="s">
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58" t="s">
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58" t="s">
+      <c r="BF4" s="63"/>
+      <c r="BG4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="BF4" s="58"/>
-      <c r="BG4" s="58" t="s">
+      <c r="BH4" s="63"/>
+      <c r="BI4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="BH4" s="58"/>
-      <c r="BI4" s="58" t="s">
+      <c r="BJ4" s="63"/>
+      <c r="BK4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="BJ4" s="58"/>
+      <c r="BL4" s="63"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -22961,29 +22981,25 @@
       <c r="P5" s="2">
         <v>5.4537031990705698E-2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="2">
         <v>288</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>4.4111617122638197E-2</v>
       </c>
-      <c r="S5" s="37">
+      <c r="U5" s="37">
         <v>216</v>
       </c>
-      <c r="T5" s="37">
+      <c r="V5" s="37">
         <v>0.50907386570992796</v>
       </c>
-      <c r="U5" s="2">
+      <c r="W5" s="2">
         <v>216</v>
       </c>
-      <c r="V5" s="2">
+      <c r="X5" s="2">
         <v>0.50674542409639001</v>
-      </c>
-      <c r="W5" s="37">
-        <v>216</v>
-      </c>
-      <c r="X5" s="37">
-        <v>0.38864098649611201</v>
       </c>
       <c r="Y5" s="37">
         <v>216</v>
@@ -22995,90 +23011,96 @@
         <v>216</v>
       </c>
       <c r="AB5" s="37">
+        <v>0.38864098649611201</v>
+      </c>
+      <c r="AC5" s="37">
+        <v>216</v>
+      </c>
+      <c r="AD5" s="37">
         <v>0.50756655184433597</v>
       </c>
-      <c r="AC5" s="37">
+      <c r="AE5" s="37">
         <v>432</v>
       </c>
-      <c r="AD5" s="37">
+      <c r="AF5" s="37">
         <v>8.0866635298437906E-2</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="AG5" s="35">
         <v>432</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AH5" s="15">
         <v>0.10705444057166399</v>
-      </c>
-      <c r="AG5" s="35">
-        <v>36</v>
-      </c>
-      <c r="AH5" s="35">
-        <v>2.5130799617533399</v>
       </c>
       <c r="AI5" s="35">
         <v>36</v>
       </c>
       <c r="AJ5" s="35">
-        <v>2.6155469164281899</v>
+        <v>2.5130799617533399</v>
       </c>
       <c r="AK5" s="35">
         <v>36</v>
       </c>
       <c r="AL5" s="35">
+        <v>2.6155469164281899</v>
+      </c>
+      <c r="AM5" s="35">
+        <v>36</v>
+      </c>
+      <c r="AN5" s="35">
         <v>2.6130415756681602</v>
       </c>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="35">
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="35">
         <v>44</v>
       </c>
-      <c r="AP5" s="35">
+      <c r="AR5" s="35">
         <v>2.2919674902033398</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>16</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>2.47236152163569</v>
       </c>
       <c r="AY5" s="15">
         <v>16</v>
       </c>
       <c r="AZ5" s="15">
-        <v>2.4334607882826398</v>
+        <v>2.47236152163569</v>
       </c>
       <c r="BA5" s="15">
         <v>16</v>
       </c>
       <c r="BB5" s="15">
-        <v>2.3640280360191399</v>
+        <v>2.4334607882826398</v>
       </c>
       <c r="BC5" s="15">
         <v>16</v>
       </c>
       <c r="BD5" s="15">
+        <v>2.3640280360191399</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>16</v>
+      </c>
+      <c r="BF5" s="15">
         <v>2.6079433584101102</v>
       </c>
-      <c r="BE5" s="15">
+      <c r="BG5" s="15">
         <v>72</v>
       </c>
-      <c r="BF5" s="15">
+      <c r="BH5" s="15">
         <v>1.16243996047968</v>
       </c>
-      <c r="BG5" s="15">
+      <c r="BI5" s="15">
         <v>88</v>
       </c>
-      <c r="BH5" s="15">
+      <c r="BJ5" s="15">
         <v>1.37622706378587</v>
       </c>
-      <c r="BI5" s="15">
+      <c r="BK5" s="15">
         <v>32</v>
       </c>
-      <c r="BJ5" s="15">
+      <c r="BL5" s="15">
         <v>1.34358284545726</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10000</v>
       </c>
@@ -23130,124 +23152,126 @@
       <c r="P6" s="2">
         <v>6.7577961822683601E-3</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="2">
         <v>1152</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>5.8853325448006803E-3</v>
       </c>
-      <c r="S6" s="37">
+      <c r="U6" s="37">
         <v>864</v>
       </c>
-      <c r="T6" s="37">
+      <c r="V6" s="37">
         <v>0.129304226581446</v>
       </c>
-      <c r="U6" s="2">
+      <c r="W6" s="2">
         <v>864</v>
       </c>
-      <c r="V6" s="2">
+      <c r="X6" s="2">
         <v>0.12913707795961399</v>
-      </c>
-      <c r="W6" s="37">
-        <v>864</v>
-      </c>
-      <c r="X6" s="37">
-        <v>9.4128971635450406E-2</v>
       </c>
       <c r="Y6" s="37">
         <v>864</v>
       </c>
       <c r="Z6" s="37">
-        <v>9.4128971635450601E-2</v>
+        <v>9.4128971635450406E-2</v>
       </c>
       <c r="AA6" s="37">
         <v>864</v>
       </c>
       <c r="AB6" s="37">
+        <v>9.4128971635450601E-2</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>864</v>
+      </c>
+      <c r="AD6" s="37">
         <v>0.12919723629930399</v>
       </c>
-      <c r="AC6" s="37">
+      <c r="AE6" s="37">
         <v>1728</v>
       </c>
-      <c r="AD6" s="37">
+      <c r="AF6" s="37">
         <v>1.00649741279299E-2</v>
       </c>
-      <c r="AE6" s="35">
+      <c r="AG6" s="35">
         <v>1728</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AH6" s="15">
         <v>1.37919448248668E-2</v>
-      </c>
-      <c r="AG6" s="35">
-        <v>128</v>
-      </c>
-      <c r="AH6" s="35">
-        <v>1.0815608124354501</v>
       </c>
       <c r="AI6" s="35">
         <v>128</v>
       </c>
       <c r="AJ6" s="35">
-        <v>0.99111419409955603</v>
+        <v>1.0815608124354501</v>
       </c>
       <c r="AK6" s="35">
         <v>128</v>
       </c>
       <c r="AL6" s="35">
+        <v>0.99111419409955603</v>
+      </c>
+      <c r="AM6" s="35">
+        <v>128</v>
+      </c>
+      <c r="AN6" s="35">
         <v>0.86291817069472998</v>
       </c>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="35">
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="35">
         <v>130</v>
       </c>
-      <c r="AP6" s="35">
+      <c r="AR6" s="35">
         <v>0.82862716712469597</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>82</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>1.0114258133963001</v>
       </c>
       <c r="AY6" s="15">
         <v>82</v>
       </c>
       <c r="AZ6" s="15">
-        <v>0.89138751397590399</v>
+        <v>1.0114258133963001</v>
       </c>
       <c r="BA6" s="15">
         <v>82</v>
       </c>
       <c r="BB6" s="15">
-        <v>0.87148048969125502</v>
+        <v>0.89138751397590399</v>
       </c>
       <c r="BC6" s="15">
         <v>82</v>
       </c>
       <c r="BD6" s="15">
+        <v>0.87148048969125502</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>82</v>
+      </c>
+      <c r="BF6" s="15">
         <v>0.96136149949162497</v>
       </c>
-      <c r="BE6" s="15">
+      <c r="BG6" s="15">
         <v>256</v>
       </c>
-      <c r="BF6" s="15">
+      <c r="BH6" s="15">
         <v>0.30520387705386998</v>
       </c>
-      <c r="BG6" s="15">
+      <c r="BI6" s="15">
         <v>260</v>
       </c>
-      <c r="BH6" s="15">
+      <c r="BJ6" s="15">
         <v>0.39040872035430002</v>
       </c>
-      <c r="BI6" s="15">
+      <c r="BK6" s="15">
         <v>164</v>
       </c>
-      <c r="BJ6" s="15">
+      <c r="BL6" s="15">
         <v>0.238719576610222</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>100000</v>
       </c>
@@ -23299,124 +23323,126 @@
       <c r="P7" s="2">
         <v>8.4657484226971101E-4</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="2">
         <v>4608</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>7.6874606576168001E-4</v>
       </c>
-      <c r="S7" s="37">
+      <c r="U7" s="37">
         <v>3456</v>
       </c>
-      <c r="T7" s="37">
+      <c r="V7" s="37">
         <v>3.1934943084009897E-2</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>3456</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>3.1923767042673197E-2</v>
-      </c>
-      <c r="W7" s="37">
-        <v>3456</v>
-      </c>
-      <c r="X7" s="37">
-        <v>2.2372240147585799E-2</v>
       </c>
       <c r="Y7" s="37">
         <v>3456</v>
       </c>
       <c r="Z7" s="37">
-        <v>2.23722401475859E-2</v>
+        <v>2.2372240147585799E-2</v>
       </c>
       <c r="AA7" s="37">
         <v>3456</v>
       </c>
       <c r="AB7" s="37">
+        <v>2.23722401475859E-2</v>
+      </c>
+      <c r="AC7" s="37">
+        <v>3456</v>
+      </c>
+      <c r="AD7" s="37">
         <v>3.1927810009634398E-2</v>
       </c>
-      <c r="AC7" s="37">
+      <c r="AE7" s="37">
         <v>6912</v>
       </c>
-      <c r="AD7" s="37">
+      <c r="AF7" s="37">
         <v>1.2502871373601199E-3</v>
       </c>
-      <c r="AE7" s="35">
+      <c r="AG7" s="35">
         <v>6912</v>
       </c>
-      <c r="AF7" s="15">
+      <c r="AH7" s="15">
         <v>1.73363968188062E-3</v>
-      </c>
-      <c r="AG7" s="35">
-        <v>440</v>
-      </c>
-      <c r="AH7" s="35">
-        <v>0.37296682960154498</v>
       </c>
       <c r="AI7" s="35">
         <v>440</v>
       </c>
       <c r="AJ7" s="35">
-        <v>0.30643041536566901</v>
+        <v>0.37296682960154498</v>
       </c>
       <c r="AK7" s="35">
         <v>440</v>
       </c>
       <c r="AL7" s="35">
+        <v>0.30643041536566901</v>
+      </c>
+      <c r="AM7" s="35">
+        <v>440</v>
+      </c>
+      <c r="AN7" s="35">
         <v>0.286582104461027</v>
       </c>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="35">
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="35">
         <v>443</v>
       </c>
-      <c r="AP7" s="35">
+      <c r="AR7" s="35">
         <v>0.37182925128088901</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>355</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0.23818588673883601</v>
       </c>
       <c r="AY7" s="15">
         <v>355</v>
       </c>
       <c r="AZ7" s="15">
-        <v>0.202711330134522</v>
+        <v>0.23818588673883601</v>
       </c>
       <c r="BA7" s="15">
         <v>355</v>
       </c>
       <c r="BB7" s="15">
-        <v>0.202390656344445</v>
+        <v>0.202711330134522</v>
       </c>
       <c r="BC7" s="15">
         <v>355</v>
       </c>
       <c r="BD7" s="15">
+        <v>0.202390656344445</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>355</v>
+      </c>
+      <c r="BF7" s="15">
         <v>0.31311499570941798</v>
       </c>
-      <c r="BE7" s="15">
+      <c r="BG7" s="15">
         <v>880</v>
       </c>
-      <c r="BF7" s="15">
+      <c r="BH7" s="15">
         <v>7.8533107387641798E-2</v>
       </c>
-      <c r="BG7" s="15">
+      <c r="BI7" s="15">
         <v>886</v>
       </c>
-      <c r="BH7" s="15">
+      <c r="BJ7" s="15">
         <v>0.44884801556604997</v>
       </c>
-      <c r="BI7" s="15">
+      <c r="BK7" s="15">
         <v>710</v>
       </c>
-      <c r="BJ7" s="15">
+      <c r="BL7" s="15">
         <v>2.9766960039779699E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1000000</v>
       </c>
@@ -23468,124 +23494,126 @@
       <c r="P8" s="2">
         <v>1.05901689572706E-4</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="2">
         <v>18432</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>9.8823607339652405E-5</v>
       </c>
-      <c r="S8" s="37">
+      <c r="U8" s="37">
         <v>13824</v>
       </c>
-      <c r="T8" s="37">
+      <c r="V8" s="37">
         <v>7.9184631386119402E-3</v>
       </c>
-      <c r="U8" s="2">
+      <c r="W8" s="2">
         <v>13824</v>
       </c>
-      <c r="V8" s="2">
+      <c r="X8" s="2">
         <v>7.9177473473258392E-3</v>
-      </c>
-      <c r="W8" s="37">
-        <v>13824</v>
-      </c>
-      <c r="X8" s="37">
-        <v>5.4496365851952897E-3</v>
       </c>
       <c r="Y8" s="37">
         <v>13824</v>
       </c>
       <c r="Z8" s="37">
-        <v>5.4496365851953096E-3</v>
+        <v>5.4496365851952897E-3</v>
       </c>
       <c r="AA8" s="37">
         <v>13824</v>
       </c>
       <c r="AB8" s="37">
+        <v>5.4496365851953096E-3</v>
+      </c>
+      <c r="AC8" s="37">
+        <v>13824</v>
+      </c>
+      <c r="AD8" s="37">
         <v>7.9180065108108901E-3</v>
       </c>
-      <c r="AC8" s="37">
+      <c r="AE8" s="37">
         <v>27648</v>
       </c>
-      <c r="AD8" s="37">
+      <c r="AF8" s="37">
         <v>1.56033490766874E-4</v>
       </c>
-      <c r="AE8" s="35">
+      <c r="AG8" s="35">
         <v>27648</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AH8" s="15">
         <v>2.1700538971469201E-4</v>
-      </c>
-      <c r="AG8" s="35">
-        <v>1640</v>
-      </c>
-      <c r="AH8" s="35">
-        <v>0.106602770148748</v>
       </c>
       <c r="AI8" s="35">
         <v>1640</v>
       </c>
       <c r="AJ8" s="35">
-        <v>8.6158862897504407E-2</v>
+        <v>0.106602770148748</v>
       </c>
       <c r="AK8" s="35">
         <v>1640</v>
       </c>
       <c r="AL8" s="35">
+        <v>8.6158862897504407E-2</v>
+      </c>
+      <c r="AM8" s="35">
+        <v>1640</v>
+      </c>
+      <c r="AN8" s="35">
         <v>8.0227160518560894E-2</v>
       </c>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="35">
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="35">
         <v>1651</v>
       </c>
-      <c r="AP8" s="35">
+      <c r="AR8" s="35">
         <v>9.7379898737960394E-2</v>
-      </c>
-      <c r="AW8" s="15">
-        <v>1473</v>
-      </c>
-      <c r="AX8" s="15">
-        <v>5.9138101567000903E-2</v>
       </c>
       <c r="AY8" s="15">
         <v>1473</v>
       </c>
       <c r="AZ8" s="15">
-        <v>5.0401591493002197E-2</v>
+        <v>5.9138101567000903E-2</v>
       </c>
       <c r="BA8" s="15">
         <v>1473</v>
       </c>
       <c r="BB8" s="15">
-        <v>5.0590484042109397E-2</v>
+        <v>5.0401591493002197E-2</v>
       </c>
       <c r="BC8" s="15">
         <v>1473</v>
       </c>
       <c r="BD8" s="15">
+        <v>5.0590484042109397E-2</v>
+      </c>
+      <c r="BE8" s="15">
+        <v>1473</v>
+      </c>
+      <c r="BF8" s="15">
         <v>8.5621820288305894E-2</v>
       </c>
-      <c r="BE8" s="15">
+      <c r="BG8" s="15">
         <v>3280</v>
       </c>
-      <c r="BF8" s="15">
+      <c r="BH8" s="15">
         <v>9.6827114446368292E-3</v>
       </c>
-      <c r="BG8" s="15">
+      <c r="BI8" s="15">
         <v>3302</v>
       </c>
-      <c r="BH8" s="15">
+      <c r="BJ8" s="15">
         <v>2.8509289946625299E-2</v>
       </c>
-      <c r="BI8" s="15">
+      <c r="BK8" s="15">
         <v>2946</v>
       </c>
-      <c r="BJ8" s="15">
+      <c r="BL8" s="15">
         <v>3.4997889479196401E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10000000</v>
       </c>
@@ -23637,124 +23665,126 @@
       <c r="P9" s="2">
         <v>1.3240458595462E-5</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="2">
         <v>73728</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>1.29399246321692E-5</v>
       </c>
-      <c r="S9" s="37">
+      <c r="U9" s="37">
         <v>55296</v>
       </c>
-      <c r="T9" s="37">
+      <c r="V9" s="37">
         <v>1.97399002500223E-3</v>
       </c>
-      <c r="U9" s="2">
+      <c r="W9" s="2">
         <v>55296</v>
       </c>
-      <c r="V9" s="2">
+      <c r="X9" s="2">
         <v>1.9739450116431998E-3</v>
-      </c>
-      <c r="W9" s="37">
-        <v>55296</v>
-      </c>
-      <c r="X9" s="37">
-        <v>1.3507956185986299E-3</v>
       </c>
       <c r="Y9" s="37">
         <v>55296</v>
       </c>
       <c r="Z9" s="37">
-        <v>1.3507956185986401E-3</v>
+        <v>1.3507956185986299E-3</v>
       </c>
       <c r="AA9" s="37">
         <v>55296</v>
       </c>
       <c r="AB9" s="37">
+        <v>1.3507956185986401E-3</v>
+      </c>
+      <c r="AC9" s="37">
+        <v>55296</v>
+      </c>
+      <c r="AD9" s="37">
         <v>1.9739612829807501E-3</v>
       </c>
-      <c r="AC9" s="37">
+      <c r="AE9" s="37">
         <v>110592</v>
       </c>
-      <c r="AD9" s="37">
+      <c r="AF9" s="37">
         <v>1.9494654937373299E-5</v>
       </c>
-      <c r="AE9" s="35">
+      <c r="AG9" s="35">
         <v>110592</v>
       </c>
-      <c r="AF9" s="15">
+      <c r="AH9" s="15">
         <v>2.7133887972176101E-5</v>
-      </c>
-      <c r="AG9" s="35">
-        <v>6332</v>
-      </c>
-      <c r="AH9" s="35">
-        <v>2.7667507513715699E-2</v>
       </c>
       <c r="AI9" s="35">
         <v>6332</v>
       </c>
       <c r="AJ9" s="35">
-        <v>2.67231754446615E-2</v>
+        <v>2.7667507513715699E-2</v>
       </c>
       <c r="AK9" s="35">
         <v>6332</v>
       </c>
       <c r="AL9" s="35">
+        <v>2.67231754446615E-2</v>
+      </c>
+      <c r="AM9" s="35">
+        <v>6332</v>
+      </c>
+      <c r="AN9" s="35">
         <v>2.09836092475005E-2</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="35">
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="35">
         <v>6374</v>
       </c>
-      <c r="AP9" s="35">
+      <c r="AR9" s="35">
         <v>2.37039150883104E-2</v>
       </c>
-      <c r="AW9" s="15">
+      <c r="AY9" s="15">
         <v>6027</v>
       </c>
-      <c r="AX9" s="15">
+      <c r="AZ9" s="15">
         <v>1.4466956435112E-2</v>
-      </c>
-      <c r="AY9" s="15">
-        <v>6022</v>
-      </c>
-      <c r="AZ9" s="15">
-        <v>1.25660012145848E-2</v>
       </c>
       <c r="BA9" s="15">
         <v>6022</v>
       </c>
       <c r="BB9" s="15">
-        <v>1.26060606587591E-2</v>
+        <v>1.25660012145848E-2</v>
       </c>
       <c r="BC9" s="15">
         <v>6022</v>
       </c>
       <c r="BD9" s="15">
+        <v>1.26060606587591E-2</v>
+      </c>
+      <c r="BE9" s="15">
+        <v>6022</v>
+      </c>
+      <c r="BF9" s="15">
         <v>2.22716216053572E-2</v>
       </c>
-      <c r="BE9" s="15">
+      <c r="BG9" s="15">
         <v>12664</v>
       </c>
-      <c r="BF9" s="15">
+      <c r="BH9" s="15">
         <v>1.36254696121391E-3</v>
       </c>
-      <c r="BG9" s="15">
+      <c r="BI9" s="15">
         <v>12748</v>
       </c>
-      <c r="BH9" s="15">
+      <c r="BJ9" s="15">
         <v>6.7967308202940401E-3</v>
       </c>
-      <c r="BI9" s="15">
+      <c r="BK9" s="15">
         <v>12044</v>
       </c>
-      <c r="BJ9" s="15">
+      <c r="BL9" s="15">
         <v>4.3064061147062699E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <v>147456</v>
       </c>
@@ -23791,123 +23821,125 @@
       <c r="P10" s="2">
         <v>1.6551462983478801E-6</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="2">
         <v>294912</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <v>1.7498007398897799E-6</v>
       </c>
-      <c r="S10" s="37">
+      <c r="U10" s="37">
         <v>221184</v>
       </c>
-      <c r="T10" s="37">
+      <c r="V10" s="37">
         <v>4.9309739014286697E-4</v>
       </c>
-      <c r="U10" s="2">
+      <c r="W10" s="2">
         <v>221184</v>
       </c>
-      <c r="V10" s="2">
+      <c r="X10" s="2">
         <v>4.93094584173995E-4</v>
-      </c>
-      <c r="W10" s="37">
-        <v>221184</v>
-      </c>
-      <c r="X10" s="37">
-        <v>3.3689261692986102E-4</v>
       </c>
       <c r="Y10" s="37">
         <v>221184</v>
       </c>
       <c r="Z10" s="37">
-        <v>3.3689261692988401E-4</v>
+        <v>3.3689261692986102E-4</v>
       </c>
       <c r="AA10" s="37">
         <v>221184</v>
       </c>
       <c r="AB10" s="37">
+        <v>3.3689261692988401E-4</v>
+      </c>
+      <c r="AC10" s="37">
+        <v>221184</v>
+      </c>
+      <c r="AD10" s="37">
         <v>4.9309559037855402E-4</v>
       </c>
-      <c r="AC10" s="37">
+      <c r="AE10" s="37">
         <v>442368</v>
       </c>
-      <c r="AD10" s="37">
+      <c r="AF10" s="37">
         <v>2.43638671524065E-6</v>
       </c>
-      <c r="AE10" s="35">
+      <c r="AG10" s="35">
         <v>442368</v>
       </c>
-      <c r="AF10" s="15">
+      <c r="AH10" s="15">
         <v>3.39188935513867E-6</v>
-      </c>
-      <c r="AG10" s="35">
-        <v>24932</v>
-      </c>
-      <c r="AH10" s="35">
-        <v>6.96823552313274E-3</v>
       </c>
       <c r="AI10" s="35">
         <v>24932</v>
       </c>
       <c r="AJ10" s="35">
-        <v>1.01154268721995E-2</v>
+        <v>6.96823552313274E-3</v>
       </c>
       <c r="AK10" s="35">
         <v>24932</v>
       </c>
       <c r="AL10" s="35">
+        <v>1.01154268721995E-2</v>
+      </c>
+      <c r="AM10" s="35">
+        <v>24932</v>
+      </c>
+      <c r="AN10" s="35">
         <v>5.6493546134790901E-3</v>
       </c>
-      <c r="AM10" s="2"/>
-      <c r="AO10" s="35">
+      <c r="AO10" s="2"/>
+      <c r="AQ10" s="35">
         <v>25043</v>
       </c>
-      <c r="AP10" s="35">
+      <c r="AR10" s="35">
         <v>6.0739524588635596E-3</v>
-      </c>
-      <c r="AW10" s="15">
-        <v>24336</v>
-      </c>
-      <c r="AX10" s="15">
-        <v>3.59708263385717E-3</v>
       </c>
       <c r="AY10" s="15">
         <v>24336</v>
       </c>
       <c r="AZ10" s="15">
-        <v>3.14005489986192E-3</v>
+        <v>3.59708263385717E-3</v>
       </c>
       <c r="BA10" s="15">
         <v>24336</v>
       </c>
       <c r="BB10" s="15">
-        <v>3.1400774841470799E-3</v>
+        <v>3.14005489986192E-3</v>
       </c>
       <c r="BC10" s="15">
         <v>24336</v>
       </c>
       <c r="BD10" s="15">
+        <v>3.1400774841470799E-3</v>
+      </c>
+      <c r="BE10" s="15">
+        <v>24336</v>
+      </c>
+      <c r="BF10" s="15">
         <v>5.8364260648988003E-3</v>
       </c>
-      <c r="BE10" s="15">
+      <c r="BG10" s="15">
         <v>49864</v>
       </c>
-      <c r="BF10" s="15">
+      <c r="BH10" s="15">
         <v>1.7514986035673099E-4</v>
       </c>
-      <c r="BG10" s="15">
+      <c r="BI10" s="15">
         <v>50086</v>
       </c>
-      <c r="BH10" s="15">
+      <c r="BJ10" s="15">
         <v>5.85123205865728E-3</v>
       </c>
-      <c r="BI10" s="15">
+      <c r="BK10" s="15">
         <v>48672</v>
       </c>
-      <c r="BJ10" s="15">
+      <c r="BL10" s="15">
         <v>5.3853840452523698E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <v>589824</v>
       </c>
@@ -23944,29 +23976,25 @@
       <c r="P11" s="2">
         <v>2.12984154981561E-7</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="2">
         <v>1179648</v>
       </c>
-      <c r="R11" s="2">
+      <c r="T11" s="2">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="S11" s="37">
+      <c r="U11" s="37">
         <v>884736</v>
       </c>
-      <c r="T11" s="37">
+      <c r="V11" s="37">
         <v>1.21651418915354E-4</v>
       </c>
-      <c r="U11" s="2">
+      <c r="W11" s="2">
         <v>884736</v>
       </c>
-      <c r="V11" s="37">
+      <c r="X11" s="37">
         <v>1.21652651848477E-4</v>
-      </c>
-      <c r="W11" s="37">
-        <v>884736</v>
-      </c>
-      <c r="X11" s="37">
-        <v>8.5165481621230001E-5</v>
       </c>
       <c r="Y11" s="37">
         <v>884736</v>
@@ -23978,52 +24006,58 @@
         <v>884736</v>
       </c>
       <c r="AB11" s="37">
+        <v>8.5165481621230001E-5</v>
+      </c>
+      <c r="AC11" s="37">
+        <v>884736</v>
+      </c>
+      <c r="AD11" s="37">
         <v>1.21651418915354E-4</v>
-      </c>
-      <c r="AC11" s="37">
-        <v>1769472</v>
-      </c>
-      <c r="AD11" s="37">
-        <v>3.4999999999999998E-7</v>
       </c>
       <c r="AE11" s="37">
         <v>1769472</v>
       </c>
-      <c r="AF11" s="15">
+      <c r="AF11" s="37">
+        <v>3.4999999999999998E-7</v>
+      </c>
+      <c r="AG11" s="37">
+        <v>1769472</v>
+      </c>
+      <c r="AH11" s="15">
         <v>4.7999999999999996E-7</v>
-      </c>
-      <c r="AW11" s="15">
-        <v>97818</v>
-      </c>
-      <c r="AX11" s="15">
-        <v>8.9796200653750402E-4</v>
       </c>
       <c r="AY11" s="15">
         <v>97818</v>
       </c>
       <c r="AZ11" s="15">
-        <v>7.8620738923225496E-4</v>
+        <v>8.9796200653750402E-4</v>
       </c>
       <c r="BA11" s="15">
         <v>97818</v>
       </c>
       <c r="BB11" s="15">
-        <v>7.8514168217894305E-4</v>
+        <v>7.8620738923225496E-4</v>
       </c>
       <c r="BC11" s="15">
         <v>97818</v>
       </c>
       <c r="BD11" s="15">
+        <v>7.8514168217894305E-4</v>
+      </c>
+      <c r="BE11" s="15">
+        <v>97818</v>
+      </c>
+      <c r="BF11" s="15">
         <v>1.54489723646907E-3</v>
       </c>
-      <c r="BI11" s="15">
+      <c r="BK11" s="15">
         <v>195636</v>
       </c>
-      <c r="BJ11" s="15">
+      <c r="BL11" s="15">
         <v>7.7124692229687497E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <v>2359296</v>
       </c>
@@ -24054,23 +24088,17 @@
       <c r="N12" s="37">
         <v>2.6984015198462E-5</v>
       </c>
-      <c r="S12" s="37">
+      <c r="U12" s="37">
         <v>3538944</v>
       </c>
-      <c r="T12" s="37">
+      <c r="V12" s="37">
         <v>3.0499999999999999E-5</v>
       </c>
-      <c r="U12" s="2">
+      <c r="W12" s="2">
         <v>3538944</v>
       </c>
-      <c r="V12" s="52">
+      <c r="X12" s="52">
         <v>3.0499999999999999E-5</v>
-      </c>
-      <c r="W12" s="37">
-        <v>3538944</v>
-      </c>
-      <c r="X12" s="2">
-        <v>2.0000000000000002E-5</v>
       </c>
       <c r="Y12" s="37">
         <v>3538944</v>
@@ -24081,55 +24109,59 @@
       <c r="AA12" s="37">
         <v>3538944</v>
       </c>
-      <c r="AB12" s="52">
+      <c r="AB12" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AC12" s="37">
+        <v>3538944</v>
+      </c>
+      <c r="AD12" s="52">
         <v>3.0499999999999999E-5</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="15"/>
       <c r="AI12" s="35"/>
       <c r="AJ12" s="35"/>
       <c r="AK12" s="35"/>
       <c r="AL12" s="35"/>
-      <c r="AM12" s="2"/>
-      <c r="AW12" s="15">
-        <v>392211</v>
-      </c>
-      <c r="AX12" s="15">
-        <v>2.2432451412024299E-4</v>
-      </c>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="2"/>
       <c r="AY12" s="15">
         <v>392211</v>
       </c>
       <c r="AZ12" s="15">
-        <v>1.97398507109262E-4</v>
+        <v>2.2432451412024299E-4</v>
       </c>
       <c r="BA12" s="15">
         <v>392211</v>
       </c>
       <c r="BB12" s="15">
-        <v>1.9626886317087599E-4</v>
+        <v>1.97398507109262E-4</v>
       </c>
       <c r="BC12" s="15">
         <v>392211</v>
       </c>
       <c r="BD12" s="15">
+        <v>1.9626886317087599E-4</v>
+      </c>
+      <c r="BE12" s="15">
+        <v>392211</v>
+      </c>
+      <c r="BF12" s="15">
         <v>4.07219020603387E-4</v>
       </c>
-      <c r="BI12" s="15">
+      <c r="BK12" s="15">
         <v>784422</v>
       </c>
-      <c r="BJ12" s="15">
+      <c r="BL12" s="15">
         <v>9.593199650516459E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -24139,18 +24171,18 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="15"/>
+      <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
+      <c r="AH13" s="15"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -24160,18 +24192,18 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="15"/>
+      <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
+      <c r="AH14" s="15"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -24181,18 +24213,18 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="15"/>
+      <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="15"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -24202,18 +24234,18 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="15"/>
+      <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
+      <c r="AH16" s="15"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
     </row>
-    <row r="17" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+    <row r="17" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -24223,18 +24255,18 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="15"/>
+      <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
+      <c r="AH17" s="15"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
     </row>
-    <row r="18" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+    <row r="18" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -24244,18 +24276,18 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="15"/>
+      <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
+      <c r="AH18" s="15"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
     </row>
-    <row r="19" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
+    <row r="19" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -24265,18 +24297,18 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="15"/>
+      <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
+      <c r="AH19" s="15"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
     </row>
-    <row r="20" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
+    <row r="20" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -24286,18 +24318,18 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="15"/>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="15"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
     </row>
-    <row r="21" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+    <row r="21" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -24307,18 +24339,18 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="15"/>
+      <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
+      <c r="AH21" s="15"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
     </row>
-    <row r="22" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+    <row r="22" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -24328,18 +24360,18 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="15"/>
+      <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
+      <c r="AH22" s="15"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
     </row>
-    <row r="23" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+    <row r="23" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -24349,18 +24381,18 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
-      <c r="AF23" s="15"/>
+      <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+      <c r="AH23" s="15"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
     </row>
-    <row r="24" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+    <row r="24" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
@@ -24370,11 +24402,11 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
-      <c r="AF24" s="15"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="15"/>
     </row>
-    <row r="25" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+    <row r="25" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
@@ -24384,11 +24416,11 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="15"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="15"/>
     </row>
-    <row r="26" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+    <row r="26" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
@@ -24398,11 +24430,11 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="15"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="15"/>
     </row>
-    <row r="27" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+    <row r="27" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -24412,11 +24444,11 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="15"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="15"/>
     </row>
-    <row r="28" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
+    <row r="28" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -24426,11 +24458,11 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-      <c r="AF28" s="15"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="15"/>
     </row>
-    <row r="29" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
+    <row r="29" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -24440,11 +24472,11 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
-      <c r="AF29" s="15"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="15"/>
     </row>
-    <row r="30" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
+    <row r="30" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
@@ -24454,11 +24486,11 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
-      <c r="AF30" s="15"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="15"/>
     </row>
-    <row r="31" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+    <row r="31" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -24468,11 +24500,11 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
-      <c r="AF31" s="15"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="15"/>
     </row>
-    <row r="32" spans="21:39" x14ac:dyDescent="0.25">
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
+    <row r="32" spans="23:41" x14ac:dyDescent="0.25">
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -24482,11 +24514,11 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
-      <c r="AF32" s="15"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="15"/>
     </row>
-    <row r="33" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
+    <row r="33" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -24496,11 +24528,11 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
-      <c r="AF33" s="15"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="15"/>
     </row>
-    <row r="34" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
+    <row r="34" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
@@ -24510,11 +24542,11 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
-      <c r="AF34" s="15"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="15"/>
     </row>
-    <row r="35" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
+    <row r="35" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
@@ -24524,11 +24556,11 @@
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
-      <c r="AF35" s="15"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="15"/>
     </row>
-    <row r="36" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
+    <row r="36" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
@@ -24538,11 +24570,11 @@
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="15"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="15"/>
     </row>
-    <row r="37" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
+    <row r="37" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
@@ -24552,11 +24584,11 @@
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
-      <c r="AF37" s="15"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="15"/>
     </row>
-    <row r="38" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
+    <row r="38" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
@@ -24566,11 +24598,11 @@
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
-      <c r="AF38" s="15"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="15"/>
     </row>
-    <row r="39" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
+    <row r="39" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
@@ -24580,11 +24612,11 @@
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
-      <c r="AF39" s="15"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="15"/>
     </row>
-    <row r="40" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
+    <row r="40" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
@@ -24594,11 +24626,11 @@
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
-      <c r="AF40" s="15"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="15"/>
     </row>
-    <row r="41" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
+    <row r="41" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
@@ -24608,11 +24640,11 @@
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
-      <c r="AF41" s="15"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="15"/>
     </row>
-    <row r="42" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
+    <row r="42" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
@@ -24622,11 +24654,11 @@
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
-      <c r="AF42" s="15"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="15"/>
     </row>
-    <row r="43" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
+    <row r="43" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
@@ -24636,11 +24668,11 @@
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
-      <c r="AF43" s="15"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="15"/>
     </row>
-    <row r="44" spans="21:32" x14ac:dyDescent="0.25">
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
+    <row r="44" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
@@ -24650,57 +24682,60 @@
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
-      <c r="AF44" s="15"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="48">
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="BG2:BL2"/>
+    <mergeCell ref="U1:AH1"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="AY3:BF3"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI2:BF2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E1:T1"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="AQ3:AX3"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AI3:AP3"/>
+    <mergeCell ref="O3:T3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S2:AB2"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="S3:AB3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E1:R1"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="AO3:AV3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AG3:AN3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="BE2:BJ2"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AW3:BD3"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG2:BD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24724,58 +24759,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="65" t="s">
+      <c r="H1" s="68"/>
+      <c r="I1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="65" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="68"/>
+      <c r="M1" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="65" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="65" t="s">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="65" t="s">
+      <c r="R1" s="68"/>
+      <c r="S1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="65" t="s">
+      <c r="T1" s="68"/>
+      <c r="U1" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="67"/>
-      <c r="W1" s="65" t="s">
+      <c r="V1" s="69"/>
+      <c r="W1" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="65" t="s">
+      <c r="X1" s="68"/>
+      <c r="Y1" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="66"/>
+      <c r="Z1" s="68"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
@@ -26857,54 +26892,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="68" t="s">
+      <c r="H1" s="68"/>
+      <c r="I1" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="65" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="68"/>
+      <c r="M1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="65" t="s">
+      <c r="N1" s="68"/>
+      <c r="O1" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="68" t="s">
+      <c r="P1" s="68"/>
+      <c r="Q1" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="65" t="s">
+      <c r="R1" s="71"/>
+      <c r="S1" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="68" t="s">
+      <c r="T1" s="68"/>
+      <c r="U1" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="65" t="s">
+      <c r="V1" s="71"/>
+      <c r="W1" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="66"/>
+      <c r="X1" s="68"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
@@ -29005,6 +29040,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="Q1:R1"/>
@@ -29012,11 +29052,6 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29043,33 +29078,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -29858,41 +29893,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="L1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="L1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -29934,38 +29969,38 @@
       <c r="P2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54" t="s">
+      <c r="T2" s="56"/>
+      <c r="U2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54" t="s">
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54" t="s">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54" t="s">
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54" t="s">
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="54"/>
+      <c r="AF2" s="56"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -30912,29 +30947,29 @@
       <c r="E2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70" t="s">
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -30955,39 +30990,39 @@
       <c r="E3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70" t="s">
+      <c r="H3" s="76"/>
+      <c r="I3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70" t="s">
+      <c r="J3" s="76"/>
+      <c r="K3" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="71"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70" t="s">
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70" t="s">
+      <c r="R3" s="76"/>
+      <c r="S3" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70" t="s">
+      <c r="T3" s="76"/>
+      <c r="U3" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="71"/>
+      <c r="V3" s="77"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
@@ -31626,6 +31661,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
@@ -31637,11 +31677,6 @@
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31663,29 +31698,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="16"/>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="P1" s="55" t="s">
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="P1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -31715,22 +31750,22 @@
       <c r="I2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="P2" s="55" t="s">
+      <c r="N2" s="64"/>
+      <c r="P2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55" t="s">
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="55"/>
+      <c r="S2" s="64"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -32145,48 +32180,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="76" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="88">
   <si>
     <t>Uniform</t>
   </si>
@@ -293,6 +293,12 @@
   <si>
     <t>PWQ</t>
   </si>
+  <si>
+    <t>MV2</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
 </sst>
 </file>
 
@@ -546,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,31 +714,16 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -742,6 +733,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,6 +771,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,12 +787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -793,6 +805,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3545,11 +3560,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346697920"/>
-        <c:axId val="346698480"/>
+        <c:axId val="2097688"/>
+        <c:axId val="357926888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346697920"/>
+        <c:axId val="2097688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3663,12 +3678,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346698480"/>
+        <c:crossAx val="357926888"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346698480"/>
+        <c:axId val="357926888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3783,7 +3798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346697920"/>
+        <c:crossAx val="2097688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4253,11 +4268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349289456"/>
-        <c:axId val="349290016"/>
+        <c:axId val="355727464"/>
+        <c:axId val="355727856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349289456"/>
+        <c:axId val="355727464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4315,12 +4330,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349290016"/>
+        <c:crossAx val="355727856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349290016"/>
+        <c:axId val="355727856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4378,7 +4393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349289456"/>
+        <c:crossAx val="355727464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4765,11 +4780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349293936"/>
-        <c:axId val="349294496"/>
+        <c:axId val="355728640"/>
+        <c:axId val="355729032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349293936"/>
+        <c:axId val="355728640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4827,12 +4842,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349294496"/>
+        <c:crossAx val="355729032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349294496"/>
+        <c:axId val="355729032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4890,7 +4905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349293936"/>
+        <c:crossAx val="355728640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5855,6 +5870,104 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>PWQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$Q$5:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1179648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$R$5:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1436303196947002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.02402887233186E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2792266126755701E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5983137617903701E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99758054232098E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.49685406218411E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1210188187407399E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5863,11 +5976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347428240"/>
-        <c:axId val="347428800"/>
+        <c:axId val="80079096"/>
+        <c:axId val="353894064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347428240"/>
+        <c:axId val="80079096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5982,12 +6095,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347428800"/>
+        <c:crossAx val="353894064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347428800"/>
+        <c:axId val="353894064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6103,7 +6216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347428240"/>
+        <c:crossAx val="80079096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7009,6 +7122,104 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Sinusoid2D!$AI$5:$AI$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>442368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1769472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$AJ$5:$AJ$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.10705444057166399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.37919448248668E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.73363968188062E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1700538971469201E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7133887972176101E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.39188935513867E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7999999999999996E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>PWQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>Sinusoid2D!$AG$5:$AG$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
@@ -7044,25 +7255,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.10705444057166399</c:v>
+                  <c:v>9.8622844664316298E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.37919448248668E-2</c:v>
+                  <c:v>1.25766297410271E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.73363968188062E-3</c:v>
+                  <c:v>1.5758891974305899E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1700538971469201E-4</c:v>
+                  <c:v>1.9710411818909201E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7133887972176101E-5</c:v>
+                  <c:v>2.4640437901033801E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.39188935513867E-6</c:v>
+                  <c:v>3.0651489423100001E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7999999999999996E-7</c:v>
+                  <c:v>4.416854084081E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7077,11 +7288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343368032"/>
-        <c:axId val="343368592"/>
+        <c:axId val="206421856"/>
+        <c:axId val="357059016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343368032"/>
+        <c:axId val="206421856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7196,12 +7407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343368592"/>
+        <c:crossAx val="357059016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343368592"/>
+        <c:axId val="357059016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7317,7 +7528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343368032"/>
+        <c:crossAx val="206421856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7623,7 +7834,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BA$5:$BA$12</c:f>
+              <c:f>Sinusoid2D!$BC$5:$BC$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7656,7 +7867,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BB$5:$BB$12</c:f>
+              <c:f>Sinusoid2D!$BD$5:$BD$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7721,7 +7932,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AY$5:$AY$12</c:f>
+              <c:f>Sinusoid2D!$BA$5:$BA$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7754,7 +7965,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AZ$5:$AZ$12</c:f>
+              <c:f>Sinusoid2D!$BB$5:$BB$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7819,7 +8030,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BC$5:$BC$12</c:f>
+              <c:f>Sinusoid2D!$BE$5:$BE$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7852,7 +8063,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BD$5:$BD$12</c:f>
+              <c:f>Sinusoid2D!$BF$5:$BF$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7917,7 +8128,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BE$5:$BE$12</c:f>
+              <c:f>Sinusoid2D!$BG$5:$BG$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7950,7 +8161,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BF$5:$BF$12</c:f>
+              <c:f>Sinusoid2D!$BH$5:$BH$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8021,7 +8232,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BK$5:$BK$12</c:f>
+              <c:f>Sinusoid2D!$BO$5:$BO$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8054,7 +8265,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BL$5:$BL$12</c:f>
+              <c:f>Sinusoid2D!$BP$5:$BP$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8095,11 +8306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347442752"/>
-        <c:axId val="347443312"/>
+        <c:axId val="357059408"/>
+        <c:axId val="357060192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347442752"/>
+        <c:axId val="357059408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8215,12 +8426,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347443312"/>
+        <c:crossAx val="357060192"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347443312"/>
+        <c:axId val="357060192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8336,7 +8547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347442752"/>
+        <c:crossAx val="357059408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11246,11 +11457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343672784"/>
-        <c:axId val="343673344"/>
+        <c:axId val="357060976"/>
+        <c:axId val="357061368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343672784"/>
+        <c:axId val="357060976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11309,12 +11520,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343673344"/>
+        <c:crossAx val="357061368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343673344"/>
+        <c:axId val="357061368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11374,7 +11585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343672784"/>
+        <c:crossAx val="357060976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12635,11 +12846,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49994384"/>
-        <c:axId val="49994944"/>
+        <c:axId val="357062152"/>
+        <c:axId val="357062544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49994384"/>
+        <c:axId val="357062152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12699,12 +12910,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49994944"/>
+        <c:crossAx val="357062544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49994944"/>
+        <c:axId val="357062544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12762,7 +12973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49994384"/>
+        <c:crossAx val="357062152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13414,11 +13625,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342253776"/>
-        <c:axId val="342254336"/>
+        <c:axId val="356960568"/>
+        <c:axId val="356960960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342253776"/>
+        <c:axId val="356960568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13532,12 +13743,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342254336"/>
+        <c:crossAx val="356960960"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342254336"/>
+        <c:axId val="356960960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13650,7 +13861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342253776"/>
+        <c:crossAx val="356960568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14202,11 +14413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342547280"/>
-        <c:axId val="342547840"/>
+        <c:axId val="356961744"/>
+        <c:axId val="356962136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342547280"/>
+        <c:axId val="356961744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14264,12 +14475,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342547840"/>
+        <c:crossAx val="356962136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342547840"/>
+        <c:axId val="356962136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14327,7 +14538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342547280"/>
+        <c:crossAx val="356961744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14932,11 +15143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342553440"/>
-        <c:axId val="342554000"/>
+        <c:axId val="356962920"/>
+        <c:axId val="356963312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342553440"/>
+        <c:axId val="356962920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14994,12 +15205,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342554000"/>
+        <c:crossAx val="356963312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342554000"/>
+        <c:axId val="356963312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15057,7 +15268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342553440"/>
+        <c:crossAx val="356962920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21352,13 +21563,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>204107</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
@@ -21918,48 +22129,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="81" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="78" t="s">
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79" t="s">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -22345,40 +22556,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="80"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79" t="s">
+      <c r="H2" s="81"/>
+      <c r="I2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="80"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -22524,10 +22735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL44"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT23" sqref="AT23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22535,14 +22746,16 @@
     <col min="1" max="14" width="10.5703125" style="32" customWidth="1"/>
     <col min="15" max="16" width="10.7109375" style="32" customWidth="1"/>
     <col min="17" max="18" width="10.7109375" style="53" customWidth="1"/>
-    <col min="19" max="33" width="10.7109375" style="32" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" customWidth="1"/>
-    <col min="35" max="42" width="10.5703125" style="32" customWidth="1"/>
-    <col min="43" max="48" width="10.5703125" style="33" customWidth="1"/>
-    <col min="49" max="65" width="10.7109375" customWidth="1"/>
+    <col min="19" max="32" width="10.7109375" style="32" customWidth="1"/>
+    <col min="33" max="34" width="10.7109375" style="55" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" style="32" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" customWidth="1"/>
+    <col min="37" max="44" width="10.5703125" style="32" customWidth="1"/>
+    <col min="45" max="50" width="10.5703125" style="33" customWidth="1"/>
+    <col min="51" max="69" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
@@ -22555,45 +22768,45 @@
       <c r="D1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="65" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" t="s">
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="34"/>
@@ -22605,8 +22818,10 @@
       <c r="AT1" s="34"/>
       <c r="AU1" s="34"/>
       <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -22622,80 +22837,84 @@
         <f>A2^(-2)*100</f>
         <v>100</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55" t="s">
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="60" t="s">
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="65" t="s">
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="64" t="s">
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="64"/>
-      <c r="BK2" s="64"/>
-      <c r="BL2" s="64"/>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="59"/>
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -22711,88 +22930,88 @@
         <f t="shared" ref="D3:D9" si="2">A3^(-2)*100</f>
         <v>1</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="57" t="s">
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59" t="s">
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55" t="s">
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55" t="s">
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="55"/>
-      <c r="BD3" s="55"/>
-      <c r="BE3" s="55"/>
-      <c r="BF3" s="55"/>
-      <c r="BG3" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH3" s="64"/>
-      <c r="BI3" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ3" s="64"/>
-      <c r="BK3" s="64" t="s">
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="57"/>
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="BL3" s="64"/>
+      <c r="BJ3" s="86"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
+      <c r="BM3" s="86"/>
+      <c r="BN3" s="86"/>
+      <c r="BO3" s="86"/>
+      <c r="BP3" s="86"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -22808,128 +23027,136 @@
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="58"/>
+      <c r="G4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56" t="s">
+      <c r="L4" s="58"/>
+      <c r="M4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56" t="s">
+      <c r="N4" s="58"/>
+      <c r="O4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="61" t="s">
+      <c r="P4" s="58"/>
+      <c r="Q4" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="R4" s="61"/>
-      <c r="S4" s="56" t="s">
+      <c r="R4" s="63"/>
+      <c r="S4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56" t="s">
+      <c r="T4" s="58"/>
+      <c r="U4" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56" t="s">
+      <c r="V4" s="58"/>
+      <c r="W4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56" t="s">
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56" t="s">
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56" t="s">
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56" t="s">
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56" t="s">
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="63" t="s">
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63" t="s">
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63" t="s">
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63" t="s">
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63" t="s">
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63" t="s">
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63" t="s">
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63" t="s">
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63" t="s">
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63" t="s">
+      <c r="BB4" s="62"/>
+      <c r="BC4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63" t="s">
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="63" t="s">
+      <c r="BF4" s="62"/>
+      <c r="BG4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="BF4" s="63"/>
-      <c r="BG4" s="63" t="s">
+      <c r="BH4" s="62"/>
+      <c r="BI4" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ4" s="62"/>
+      <c r="BK4" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL4" s="62"/>
+      <c r="BM4" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN4" s="62"/>
+      <c r="BO4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="BH4" s="63"/>
-      <c r="BI4" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ4" s="63"/>
-      <c r="BK4" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL4" s="63"/>
+      <c r="BP4" s="62"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -22981,8 +23208,12 @@
       <c r="P5" s="2">
         <v>5.4537031990705698E-2</v>
       </c>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
+      <c r="Q5" s="56">
+        <v>288</v>
+      </c>
+      <c r="R5" s="54">
+        <v>8.1436303196947002E-2</v>
+      </c>
       <c r="S5" s="2">
         <v>288</v>
       </c>
@@ -23025,82 +23256,82 @@
       <c r="AF5" s="37">
         <v>8.0866635298437906E-2</v>
       </c>
-      <c r="AG5" s="35">
+      <c r="AG5" s="56">
         <v>432</v>
       </c>
-      <c r="AH5" s="15">
+      <c r="AH5" s="56">
+        <v>9.8622844664316298E-2</v>
+      </c>
+      <c r="AI5" s="35">
+        <v>432</v>
+      </c>
+      <c r="AJ5" s="15">
         <v>0.10705444057166399</v>
-      </c>
-      <c r="AI5" s="35">
-        <v>36</v>
-      </c>
-      <c r="AJ5" s="35">
-        <v>2.5130799617533399</v>
       </c>
       <c r="AK5" s="35">
         <v>36</v>
       </c>
       <c r="AL5" s="35">
-        <v>2.6155469164281899</v>
+        <v>2.5130799617533399</v>
       </c>
       <c r="AM5" s="35">
         <v>36</v>
       </c>
       <c r="AN5" s="35">
+        <v>2.6155469164281899</v>
+      </c>
+      <c r="AO5" s="35">
+        <v>36</v>
+      </c>
+      <c r="AP5" s="35">
         <v>2.6130415756681602</v>
       </c>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="35">
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="35">
         <v>44</v>
       </c>
-      <c r="AR5" s="35">
+      <c r="AT5" s="35">
         <v>2.2919674902033398</v>
-      </c>
-      <c r="AY5" s="15">
-        <v>16</v>
-      </c>
-      <c r="AZ5" s="15">
-        <v>2.47236152163569</v>
       </c>
       <c r="BA5" s="15">
         <v>16</v>
       </c>
       <c r="BB5" s="15">
-        <v>2.4334607882826398</v>
+        <v>2.47236152163569</v>
       </c>
       <c r="BC5" s="15">
         <v>16</v>
       </c>
       <c r="BD5" s="15">
-        <v>2.3640280360191399</v>
+        <v>2.4334607882826398</v>
       </c>
       <c r="BE5" s="15">
         <v>16</v>
       </c>
       <c r="BF5" s="15">
+        <v>2.3640280360191399</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>16</v>
+      </c>
+      <c r="BH5" s="15">
         <v>2.6079433584101102</v>
       </c>
-      <c r="BG5" s="15">
-        <v>72</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>1.16243996047968</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>88</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>1.37622706378587</v>
-      </c>
-      <c r="BK5" s="15">
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="15">
         <v>32</v>
       </c>
-      <c r="BL5" s="15">
+      <c r="BP5" s="15">
         <v>1.34358284545726</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10000</v>
       </c>
@@ -23152,8 +23383,12 @@
       <c r="P6" s="2">
         <v>6.7577961822683601E-3</v>
       </c>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
+      <c r="Q6" s="56">
+        <v>1152</v>
+      </c>
+      <c r="R6" s="56">
+        <v>1.02402887233186E-2</v>
+      </c>
       <c r="S6" s="2">
         <v>1152</v>
       </c>
@@ -23196,82 +23431,82 @@
       <c r="AF6" s="37">
         <v>1.00649741279299E-2</v>
       </c>
-      <c r="AG6" s="35">
+      <c r="AG6" s="56">
         <v>1728</v>
       </c>
-      <c r="AH6" s="15">
+      <c r="AH6" s="56">
+        <v>1.25766297410271E-2</v>
+      </c>
+      <c r="AI6" s="35">
+        <v>1728</v>
+      </c>
+      <c r="AJ6" s="15">
         <v>1.37919448248668E-2</v>
-      </c>
-      <c r="AI6" s="35">
-        <v>128</v>
-      </c>
-      <c r="AJ6" s="35">
-        <v>1.0815608124354501</v>
       </c>
       <c r="AK6" s="35">
         <v>128</v>
       </c>
       <c r="AL6" s="35">
-        <v>0.99111419409955603</v>
+        <v>1.0815608124354501</v>
       </c>
       <c r="AM6" s="35">
         <v>128</v>
       </c>
       <c r="AN6" s="35">
+        <v>0.99111419409955603</v>
+      </c>
+      <c r="AO6" s="35">
+        <v>128</v>
+      </c>
+      <c r="AP6" s="35">
         <v>0.86291817069472998</v>
       </c>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="35">
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="33"/>
+      <c r="AS6" s="35">
         <v>130</v>
       </c>
-      <c r="AR6" s="35">
+      <c r="AT6" s="35">
         <v>0.82862716712469597</v>
-      </c>
-      <c r="AY6" s="15">
-        <v>82</v>
-      </c>
-      <c r="AZ6" s="15">
-        <v>1.0114258133963001</v>
       </c>
       <c r="BA6" s="15">
         <v>82</v>
       </c>
       <c r="BB6" s="15">
-        <v>0.89138751397590399</v>
+        <v>1.0114258133963001</v>
       </c>
       <c r="BC6" s="15">
         <v>82</v>
       </c>
       <c r="BD6" s="15">
-        <v>0.87148048969125502</v>
+        <v>0.89138751397590399</v>
       </c>
       <c r="BE6" s="15">
         <v>82</v>
       </c>
       <c r="BF6" s="15">
+        <v>0.87148048969125502</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>82</v>
+      </c>
+      <c r="BH6" s="15">
         <v>0.96136149949162497</v>
       </c>
-      <c r="BG6" s="15">
-        <v>256</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0.30520387705386998</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>260</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0.39040872035430002</v>
-      </c>
-      <c r="BK6" s="15">
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="15">
         <v>164</v>
       </c>
-      <c r="BL6" s="15">
+      <c r="BP6" s="15">
         <v>0.238719576610222</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>100000</v>
       </c>
@@ -23323,8 +23558,12 @@
       <c r="P7" s="2">
         <v>8.4657484226971101E-4</v>
       </c>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="Q7" s="56">
+        <v>4608</v>
+      </c>
+      <c r="R7" s="56">
+        <v>1.2792266126755701E-3</v>
+      </c>
       <c r="S7" s="2">
         <v>4608</v>
       </c>
@@ -23367,82 +23606,82 @@
       <c r="AF7" s="37">
         <v>1.2502871373601199E-3</v>
       </c>
-      <c r="AG7" s="35">
+      <c r="AG7" s="56">
         <v>6912</v>
       </c>
-      <c r="AH7" s="15">
+      <c r="AH7" s="56">
+        <v>1.5758891974305899E-3</v>
+      </c>
+      <c r="AI7" s="35">
+        <v>6912</v>
+      </c>
+      <c r="AJ7" s="15">
         <v>1.73363968188062E-3</v>
-      </c>
-      <c r="AI7" s="35">
-        <v>440</v>
-      </c>
-      <c r="AJ7" s="35">
-        <v>0.37296682960154498</v>
       </c>
       <c r="AK7" s="35">
         <v>440</v>
       </c>
       <c r="AL7" s="35">
-        <v>0.30643041536566901</v>
+        <v>0.37296682960154498</v>
       </c>
       <c r="AM7" s="35">
         <v>440</v>
       </c>
       <c r="AN7" s="35">
+        <v>0.30643041536566901</v>
+      </c>
+      <c r="AO7" s="35">
+        <v>440</v>
+      </c>
+      <c r="AP7" s="35">
         <v>0.286582104461027</v>
       </c>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="35">
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="33"/>
+      <c r="AS7" s="35">
         <v>443</v>
       </c>
-      <c r="AR7" s="35">
+      <c r="AT7" s="35">
         <v>0.37182925128088901</v>
-      </c>
-      <c r="AY7" s="15">
-        <v>355</v>
-      </c>
-      <c r="AZ7" s="15">
-        <v>0.23818588673883601</v>
       </c>
       <c r="BA7" s="15">
         <v>355</v>
       </c>
       <c r="BB7" s="15">
-        <v>0.202711330134522</v>
+        <v>0.23818588673883601</v>
       </c>
       <c r="BC7" s="15">
         <v>355</v>
       </c>
       <c r="BD7" s="15">
-        <v>0.202390656344445</v>
+        <v>0.202711330134522</v>
       </c>
       <c r="BE7" s="15">
         <v>355</v>
       </c>
       <c r="BF7" s="15">
+        <v>0.202390656344445</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>355</v>
+      </c>
+      <c r="BH7" s="15">
         <v>0.31311499570941798</v>
       </c>
-      <c r="BG7" s="15">
-        <v>880</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>7.8533107387641798E-2</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>886</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0.44884801556604997</v>
-      </c>
-      <c r="BK7" s="15">
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15">
         <v>710</v>
       </c>
-      <c r="BL7" s="15">
+      <c r="BP7" s="15">
         <v>2.9766960039779699E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1000000</v>
       </c>
@@ -23494,8 +23733,12 @@
       <c r="P8" s="2">
         <v>1.05901689572706E-4</v>
       </c>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
+      <c r="Q8" s="56">
+        <v>18432</v>
+      </c>
+      <c r="R8" s="56">
+        <v>1.5983137617903701E-4</v>
+      </c>
       <c r="S8" s="2">
         <v>18432</v>
       </c>
@@ -23538,82 +23781,82 @@
       <c r="AF8" s="37">
         <v>1.56033490766874E-4</v>
       </c>
-      <c r="AG8" s="35">
+      <c r="AG8" s="56">
         <v>27648</v>
       </c>
-      <c r="AH8" s="15">
+      <c r="AH8" s="56">
+        <v>1.9710411818909201E-4</v>
+      </c>
+      <c r="AI8" s="35">
+        <v>27648</v>
+      </c>
+      <c r="AJ8" s="15">
         <v>2.1700538971469201E-4</v>
-      </c>
-      <c r="AI8" s="35">
-        <v>1640</v>
-      </c>
-      <c r="AJ8" s="35">
-        <v>0.106602770148748</v>
       </c>
       <c r="AK8" s="35">
         <v>1640</v>
       </c>
       <c r="AL8" s="35">
-        <v>8.6158862897504407E-2</v>
+        <v>0.106602770148748</v>
       </c>
       <c r="AM8" s="35">
         <v>1640</v>
       </c>
       <c r="AN8" s="35">
+        <v>8.6158862897504407E-2</v>
+      </c>
+      <c r="AO8" s="35">
+        <v>1640</v>
+      </c>
+      <c r="AP8" s="35">
         <v>8.0227160518560894E-2</v>
       </c>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="35">
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="35">
         <v>1651</v>
       </c>
-      <c r="AR8" s="35">
+      <c r="AT8" s="35">
         <v>9.7379898737960394E-2</v>
-      </c>
-      <c r="AY8" s="15">
-        <v>1473</v>
-      </c>
-      <c r="AZ8" s="15">
-        <v>5.9138101567000903E-2</v>
       </c>
       <c r="BA8" s="15">
         <v>1473</v>
       </c>
       <c r="BB8" s="15">
-        <v>5.0401591493002197E-2</v>
+        <v>5.9138101567000903E-2</v>
       </c>
       <c r="BC8" s="15">
         <v>1473</v>
       </c>
       <c r="BD8" s="15">
-        <v>5.0590484042109397E-2</v>
+        <v>5.0401591493002197E-2</v>
       </c>
       <c r="BE8" s="15">
         <v>1473</v>
       </c>
       <c r="BF8" s="15">
+        <v>5.0590484042109397E-2</v>
+      </c>
+      <c r="BG8" s="15">
+        <v>1473</v>
+      </c>
+      <c r="BH8" s="15">
         <v>8.5621820288305894E-2</v>
       </c>
-      <c r="BG8" s="15">
-        <v>3280</v>
-      </c>
-      <c r="BH8" s="15">
-        <v>9.6827114446368292E-3</v>
-      </c>
-      <c r="BI8" s="15">
-        <v>3302</v>
-      </c>
-      <c r="BJ8" s="15">
-        <v>2.8509289946625299E-2</v>
-      </c>
-      <c r="BK8" s="15">
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="15">
         <v>2946</v>
       </c>
-      <c r="BL8" s="15">
+      <c r="BP8" s="15">
         <v>3.4997889479196401E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10000000</v>
       </c>
@@ -23665,8 +23908,12 @@
       <c r="P9" s="2">
         <v>1.3240458595462E-5</v>
       </c>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
+      <c r="Q9" s="56">
+        <v>73728</v>
+      </c>
+      <c r="R9" s="56">
+        <v>1.99758054232098E-5</v>
+      </c>
       <c r="S9" s="2">
         <v>73728</v>
       </c>
@@ -23709,82 +23956,82 @@
       <c r="AF9" s="37">
         <v>1.9494654937373299E-5</v>
       </c>
-      <c r="AG9" s="35">
+      <c r="AG9" s="56">
         <v>110592</v>
       </c>
-      <c r="AH9" s="15">
+      <c r="AH9" s="56">
+        <v>2.4640437901033801E-5</v>
+      </c>
+      <c r="AI9" s="35">
+        <v>110592</v>
+      </c>
+      <c r="AJ9" s="15">
         <v>2.7133887972176101E-5</v>
-      </c>
-      <c r="AI9" s="35">
-        <v>6332</v>
-      </c>
-      <c r="AJ9" s="35">
-        <v>2.7667507513715699E-2</v>
       </c>
       <c r="AK9" s="35">
         <v>6332</v>
       </c>
       <c r="AL9" s="35">
-        <v>2.67231754446615E-2</v>
+        <v>2.7667507513715699E-2</v>
       </c>
       <c r="AM9" s="35">
         <v>6332</v>
       </c>
       <c r="AN9" s="35">
+        <v>2.67231754446615E-2</v>
+      </c>
+      <c r="AO9" s="35">
+        <v>6332</v>
+      </c>
+      <c r="AP9" s="35">
         <v>2.09836092475005E-2</v>
       </c>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="35">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="35">
         <v>6374</v>
       </c>
-      <c r="AR9" s="35">
+      <c r="AT9" s="35">
         <v>2.37039150883104E-2</v>
       </c>
-      <c r="AY9" s="15">
+      <c r="BA9" s="15">
         <v>6027</v>
       </c>
-      <c r="AZ9" s="15">
+      <c r="BB9" s="15">
         <v>1.4466956435112E-2</v>
-      </c>
-      <c r="BA9" s="15">
-        <v>6022</v>
-      </c>
-      <c r="BB9" s="15">
-        <v>1.25660012145848E-2</v>
       </c>
       <c r="BC9" s="15">
         <v>6022</v>
       </c>
       <c r="BD9" s="15">
-        <v>1.26060606587591E-2</v>
+        <v>1.25660012145848E-2</v>
       </c>
       <c r="BE9" s="15">
         <v>6022</v>
       </c>
       <c r="BF9" s="15">
+        <v>1.26060606587591E-2</v>
+      </c>
+      <c r="BG9" s="15">
+        <v>6022</v>
+      </c>
+      <c r="BH9" s="15">
         <v>2.22716216053572E-2</v>
       </c>
-      <c r="BG9" s="15">
-        <v>12664</v>
-      </c>
-      <c r="BH9" s="15">
-        <v>1.36254696121391E-3</v>
-      </c>
-      <c r="BI9" s="15">
-        <v>12748</v>
-      </c>
-      <c r="BJ9" s="15">
-        <v>6.7967308202940401E-3</v>
-      </c>
-      <c r="BK9" s="15">
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15"/>
+      <c r="BO9" s="15">
         <v>12044</v>
       </c>
-      <c r="BL9" s="15">
+      <c r="BP9" s="15">
         <v>4.3064061147062699E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <v>147456</v>
       </c>
@@ -23821,8 +24068,12 @@
       <c r="P10" s="2">
         <v>1.6551462983478801E-6</v>
       </c>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
+      <c r="Q10" s="56">
+        <v>294912</v>
+      </c>
+      <c r="R10" s="56">
+        <v>2.49685406218411E-6</v>
+      </c>
       <c r="S10" s="2">
         <v>294912</v>
       </c>
@@ -23865,81 +24116,81 @@
       <c r="AF10" s="37">
         <v>2.43638671524065E-6</v>
       </c>
-      <c r="AG10" s="35">
+      <c r="AG10" s="56">
         <v>442368</v>
       </c>
-      <c r="AH10" s="15">
+      <c r="AH10" s="56">
+        <v>3.0651489423100001E-6</v>
+      </c>
+      <c r="AI10" s="35">
+        <v>442368</v>
+      </c>
+      <c r="AJ10" s="15">
         <v>3.39188935513867E-6</v>
-      </c>
-      <c r="AI10" s="35">
-        <v>24932</v>
-      </c>
-      <c r="AJ10" s="35">
-        <v>6.96823552313274E-3</v>
       </c>
       <c r="AK10" s="35">
         <v>24932</v>
       </c>
       <c r="AL10" s="35">
-        <v>1.01154268721995E-2</v>
+        <v>6.96823552313274E-3</v>
       </c>
       <c r="AM10" s="35">
         <v>24932</v>
       </c>
       <c r="AN10" s="35">
+        <v>1.01154268721995E-2</v>
+      </c>
+      <c r="AO10" s="35">
+        <v>24932</v>
+      </c>
+      <c r="AP10" s="35">
         <v>5.6493546134790901E-3</v>
       </c>
-      <c r="AO10" s="2"/>
-      <c r="AQ10" s="35">
+      <c r="AQ10" s="2"/>
+      <c r="AS10" s="35">
         <v>25043</v>
       </c>
-      <c r="AR10" s="35">
+      <c r="AT10" s="35">
         <v>6.0739524588635596E-3</v>
-      </c>
-      <c r="AY10" s="15">
-        <v>24336</v>
-      </c>
-      <c r="AZ10" s="15">
-        <v>3.59708263385717E-3</v>
       </c>
       <c r="BA10" s="15">
         <v>24336</v>
       </c>
       <c r="BB10" s="15">
-        <v>3.14005489986192E-3</v>
+        <v>3.59708263385717E-3</v>
       </c>
       <c r="BC10" s="15">
         <v>24336</v>
       </c>
       <c r="BD10" s="15">
-        <v>3.1400774841470799E-3</v>
+        <v>3.14005489986192E-3</v>
       </c>
       <c r="BE10" s="15">
         <v>24336</v>
       </c>
       <c r="BF10" s="15">
+        <v>3.1400774841470799E-3</v>
+      </c>
+      <c r="BG10" s="15">
+        <v>24336</v>
+      </c>
+      <c r="BH10" s="15">
         <v>5.8364260648988003E-3</v>
       </c>
-      <c r="BG10" s="15">
-        <v>49864</v>
-      </c>
-      <c r="BH10" s="15">
-        <v>1.7514986035673099E-4</v>
-      </c>
-      <c r="BI10" s="15">
-        <v>50086</v>
-      </c>
-      <c r="BJ10" s="15">
-        <v>5.85123205865728E-3</v>
-      </c>
-      <c r="BK10" s="15">
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15">
         <v>48672</v>
       </c>
-      <c r="BL10" s="15">
+      <c r="BP10" s="15">
         <v>5.3853840452523698E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <v>589824</v>
       </c>
@@ -23976,8 +24227,12 @@
       <c r="P11" s="2">
         <v>2.12984154981561E-7</v>
       </c>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="Q11" s="56">
+        <v>1179648</v>
+      </c>
+      <c r="R11" s="56">
+        <v>3.1210188187407399E-7</v>
+      </c>
       <c r="S11" s="2">
         <v>1179648</v>
       </c>
@@ -24020,44 +24275,50 @@
       <c r="AF11" s="37">
         <v>3.4999999999999998E-7</v>
       </c>
-      <c r="AG11" s="37">
+      <c r="AG11" s="56">
         <v>1769472</v>
       </c>
-      <c r="AH11" s="15">
+      <c r="AH11" s="56">
+        <v>4.416854084081E-7</v>
+      </c>
+      <c r="AI11" s="37">
+        <v>1769472</v>
+      </c>
+      <c r="AJ11" s="15">
         <v>4.7999999999999996E-7</v>
-      </c>
-      <c r="AY11" s="15">
-        <v>97818</v>
-      </c>
-      <c r="AZ11" s="15">
-        <v>8.9796200653750402E-4</v>
       </c>
       <c r="BA11" s="15">
         <v>97818</v>
       </c>
       <c r="BB11" s="15">
-        <v>7.8620738923225496E-4</v>
+        <v>8.9796200653750402E-4</v>
       </c>
       <c r="BC11" s="15">
         <v>97818</v>
       </c>
       <c r="BD11" s="15">
-        <v>7.8514168217894305E-4</v>
+        <v>7.8620738923225496E-4</v>
       </c>
       <c r="BE11" s="15">
         <v>97818</v>
       </c>
       <c r="BF11" s="15">
+        <v>7.8514168217894305E-4</v>
+      </c>
+      <c r="BG11" s="15">
+        <v>97818</v>
+      </c>
+      <c r="BH11" s="15">
         <v>1.54489723646907E-3</v>
       </c>
-      <c r="BK11" s="15">
+      <c r="BO11" s="15">
         <v>195636</v>
       </c>
-      <c r="BL11" s="15">
+      <c r="BP11" s="15">
         <v>7.7124692229687497E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <v>2359296</v>
       </c>
@@ -24088,6 +24349,8 @@
       <c r="N12" s="37">
         <v>2.6984015198462E-5</v>
       </c>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
       <c r="U12" s="37">
         <v>3538944</v>
       </c>
@@ -24120,47 +24383,49 @@
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="15"/>
       <c r="AK12" s="35"/>
       <c r="AL12" s="35"/>
       <c r="AM12" s="35"/>
       <c r="AN12" s="35"/>
-      <c r="AO12" s="2"/>
-      <c r="AY12" s="15">
-        <v>392211</v>
-      </c>
-      <c r="AZ12" s="15">
-        <v>2.2432451412024299E-4</v>
-      </c>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="2"/>
       <c r="BA12" s="15">
         <v>392211</v>
       </c>
       <c r="BB12" s="15">
-        <v>1.97398507109262E-4</v>
+        <v>2.2432451412024299E-4</v>
       </c>
       <c r="BC12" s="15">
         <v>392211</v>
       </c>
       <c r="BD12" s="15">
-        <v>1.9626886317087599E-4</v>
+        <v>1.97398507109262E-4</v>
       </c>
       <c r="BE12" s="15">
         <v>392211</v>
       </c>
       <c r="BF12" s="15">
+        <v>1.9626886317087599E-4</v>
+      </c>
+      <c r="BG12" s="15">
+        <v>392211</v>
+      </c>
+      <c r="BH12" s="15">
         <v>4.07219020603387E-4</v>
       </c>
-      <c r="BK12" s="15">
+      <c r="BO12" s="15">
         <v>784422</v>
       </c>
-      <c r="BL12" s="15">
+      <c r="BP12" s="15">
         <v>9.593199650516459E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -24172,17 +24437,19 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="15"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
+      <c r="AJ13" s="15"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -24193,17 +24460,19 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="15"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
+      <c r="AJ14" s="15"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -24214,17 +24483,19 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="15"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
+      <c r="AJ15" s="15"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -24235,17 +24506,19 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="15"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+      <c r="AJ16" s="15"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
     </row>
-    <row r="17" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -24256,17 +24529,19 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="15"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
+      <c r="AJ17" s="15"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
     </row>
-    <row r="18" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -24277,17 +24552,19 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="15"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
+      <c r="AJ18" s="15"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
     </row>
-    <row r="19" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -24298,17 +24575,19 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="15"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
+      <c r="AJ19" s="15"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
     </row>
-    <row r="20" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -24319,17 +24598,19 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="15"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
+      <c r="AJ20" s="15"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
     </row>
-    <row r="21" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -24340,17 +24621,19 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="15"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
+      <c r="AJ21" s="15"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
     </row>
-    <row r="22" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -24361,17 +24644,19 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="15"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
       <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
+      <c r="AJ22" s="15"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
     </row>
-    <row r="23" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -24382,17 +24667,19 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="15"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
       <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
+      <c r="AJ23" s="15"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
     </row>
-    <row r="24" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
@@ -24403,10 +24690,12 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="15"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
@@ -24417,10 +24706,12 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="15"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
@@ -24431,10 +24722,12 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="15"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -24445,10 +24738,12 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="15"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -24459,10 +24754,12 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="15"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -24473,10 +24770,12 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="15"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
@@ -24487,10 +24786,12 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="15"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -24501,10 +24802,12 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="15"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="23:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="23:43" x14ac:dyDescent="0.25">
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -24515,10 +24818,12 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="15"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -24529,10 +24834,12 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="15"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
@@ -24543,10 +24850,12 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="15"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
@@ -24557,10 +24866,12 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="15"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
@@ -24571,10 +24882,12 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="15"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
@@ -24585,10 +24898,12 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="15"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
@@ -24599,10 +24914,12 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="15"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
@@ -24613,10 +24930,12 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="15"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="15"/>
     </row>
-    <row r="40" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
@@ -24627,10 +24946,12 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="15"/>
+      <c r="AG40" s="56"/>
+      <c r="AH40" s="56"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="15"/>
     </row>
-    <row r="41" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
@@ -24641,10 +24962,12 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="15"/>
+      <c r="AG41" s="56"/>
+      <c r="AH41" s="56"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="15"/>
     </row>
-    <row r="42" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
@@ -24655,10 +24978,12 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="15"/>
+      <c r="AG42" s="56"/>
+      <c r="AH42" s="56"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="15"/>
     </row>
-    <row r="43" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
@@ -24669,10 +24994,12 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="15"/>
+      <c r="AG43" s="56"/>
+      <c r="AH43" s="56"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="15"/>
     </row>
-    <row r="44" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
@@ -24683,59 +25010,61 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="15"/>
+      <c r="AG44" s="56"/>
+      <c r="AH44" s="56"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="BG2:BL2"/>
-    <mergeCell ref="U1:AH1"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="AY3:BF3"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
     <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI2:BF2"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E1:T1"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="AQ3:AX3"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AI3:AP3"/>
-    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="BI3:BP3"/>
+    <mergeCell ref="BM4:BN4"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="U2:AD2"/>
     <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AE3:AJ3"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="U3:AD3"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E1:T1"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AS3:AZ3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AK3:AR3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="U1:AJ1"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK2:BH2"/>
+    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24759,58 +25088,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="67" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="67" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="67" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="67" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="67" t="s">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="68"/>
-      <c r="S1" s="67" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="68"/>
-      <c r="U1" s="67" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="67" t="s">
+      <c r="V1" s="71"/>
+      <c r="W1" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="67" t="s">
+      <c r="X1" s="70"/>
+      <c r="Y1" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="68"/>
+      <c r="Z1" s="70"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
@@ -26892,54 +27221,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="70" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="67" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="67" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="67" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="70" t="s">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="71"/>
-      <c r="S1" s="67" t="s">
+      <c r="R1" s="73"/>
+      <c r="S1" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="68"/>
-      <c r="U1" s="70" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="71"/>
-      <c r="W1" s="67" t="s">
+      <c r="V1" s="73"/>
+      <c r="W1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="68"/>
+      <c r="X1" s="70"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
@@ -29040,11 +29369,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="Q1:R1"/>
@@ -29052,6 +29376,11 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29078,33 +29407,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56" t="s">
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -29893,41 +30222,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="L1" s="56" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="L1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56" t="s">
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -29969,38 +30298,38 @@
       <c r="P2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56" t="s">
+      <c r="R2" s="58"/>
+      <c r="S2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56" t="s">
+      <c r="T2" s="58"/>
+      <c r="U2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56" t="s">
+      <c r="V2" s="58"/>
+      <c r="W2" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56" t="s">
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56" t="s">
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56" t="s">
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56" t="s">
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="56"/>
+      <c r="AF2" s="58"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -30905,28 +31234,28 @@
       <c r="D1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="72" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="74"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="78"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
@@ -30944,32 +31273,32 @@
         <f>B2^3*5</f>
         <v>7.8125E-2</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="75" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76" t="s">
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="77"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -30987,42 +31316,42 @@
         <f t="shared" ref="D3:D8" si="1">B3^3*5</f>
         <v>9.765625E-3</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="75" t="s">
+      <c r="L3" s="75"/>
+      <c r="M3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76" t="s">
+      <c r="N3" s="74"/>
+      <c r="O3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76" t="s">
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76" t="s">
+      <c r="R3" s="74"/>
+      <c r="S3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76" t="s">
+      <c r="T3" s="74"/>
+      <c r="U3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="77"/>
+      <c r="V3" s="75"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
@@ -31661,11 +31990,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
@@ -31677,6 +32001,11 @@
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31698,29 +32027,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="16"/>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="P1" s="64" t="s">
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="P1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -31750,22 +32079,22 @@
       <c r="I2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="P2" s="64" t="s">
+      <c r="N2" s="59"/>
+      <c r="P2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="64"/>
+      <c r="S2" s="59"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -32180,48 +32509,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="81" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="78" t="s">
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79" t="s">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -720,10 +720,34 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -733,27 +757,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -771,12 +774,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,6 +784,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -805,9 +808,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3560,11 +3560,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097688"/>
-        <c:axId val="357926888"/>
+        <c:axId val="318408904"/>
+        <c:axId val="318410080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097688"/>
+        <c:axId val="318408904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3678,12 +3678,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357926888"/>
+        <c:crossAx val="318410080"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357926888"/>
+        <c:axId val="318410080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3798,7 +3798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097688"/>
+        <c:crossAx val="318408904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4268,11 +4268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="355727464"/>
-        <c:axId val="355727856"/>
+        <c:axId val="321738280"/>
+        <c:axId val="321738672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="355727464"/>
+        <c:axId val="321738280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4330,12 +4330,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355727856"/>
+        <c:crossAx val="321738672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="355727856"/>
+        <c:axId val="321738672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4393,7 +4393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355727464"/>
+        <c:crossAx val="321738280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4780,11 +4780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="355728640"/>
-        <c:axId val="355729032"/>
+        <c:axId val="321739456"/>
+        <c:axId val="321739848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="355728640"/>
+        <c:axId val="321739456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4842,12 +4842,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355729032"/>
+        <c:crossAx val="321739848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="355729032"/>
+        <c:axId val="321739848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4905,7 +4905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355728640"/>
+        <c:crossAx val="321739456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5976,11 +5976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="80079096"/>
-        <c:axId val="353894064"/>
+        <c:axId val="317548840"/>
+        <c:axId val="317549232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80079096"/>
+        <c:axId val="317548840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6028,7 +6028,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6095,12 +6094,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353894064"/>
+        <c:crossAx val="317549232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353894064"/>
+        <c:axId val="317549232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6149,7 +6148,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6216,7 +6214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80079096"/>
+        <c:crossAx val="317548840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6230,7 +6228,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7288,11 +7285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206421856"/>
-        <c:axId val="357059016"/>
+        <c:axId val="317550016"/>
+        <c:axId val="317550408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206421856"/>
+        <c:axId val="317550016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7340,7 +7337,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7407,12 +7403,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357059016"/>
+        <c:crossAx val="317550408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357059016"/>
+        <c:axId val="317550408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7461,7 +7457,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7528,7 +7523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206421856"/>
+        <c:crossAx val="317550016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7542,7 +7537,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8298,6 +8292,104 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>PWQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$BI$5:$BI$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$BJ$5:$BJ$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5837786879003199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22597835829559301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9674137933471598E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6439940273889498E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6195386838713301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7605212592898399E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.24924282437219E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -8306,11 +8398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357059408"/>
-        <c:axId val="357060192"/>
+        <c:axId val="317550800"/>
+        <c:axId val="317551584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357059408"/>
+        <c:axId val="317550800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8426,12 +8518,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357060192"/>
+        <c:crossAx val="317551584"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357060192"/>
+        <c:axId val="317551584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8547,7 +8639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357059408"/>
+        <c:crossAx val="317550800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11457,11 +11549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357060976"/>
-        <c:axId val="357061368"/>
+        <c:axId val="317552368"/>
+        <c:axId val="321342664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357060976"/>
+        <c:axId val="317552368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11520,12 +11612,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357061368"/>
+        <c:crossAx val="321342664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357061368"/>
+        <c:axId val="321342664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11585,7 +11677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357060976"/>
+        <c:crossAx val="317552368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12846,11 +12938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357062152"/>
-        <c:axId val="357062544"/>
+        <c:axId val="321343840"/>
+        <c:axId val="321344232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357062152"/>
+        <c:axId val="321343840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12910,12 +13002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357062544"/>
+        <c:crossAx val="321344232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357062544"/>
+        <c:axId val="321344232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12973,7 +13065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357062152"/>
+        <c:crossAx val="321343840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13625,11 +13717,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356960568"/>
-        <c:axId val="356960960"/>
+        <c:axId val="321345016"/>
+        <c:axId val="321345408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356960568"/>
+        <c:axId val="321345016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13743,12 +13835,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356960960"/>
+        <c:crossAx val="321345408"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356960960"/>
+        <c:axId val="321345408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13861,7 +13953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356960568"/>
+        <c:crossAx val="321345016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14413,11 +14505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356961744"/>
-        <c:axId val="356962136"/>
+        <c:axId val="321343448"/>
+        <c:axId val="321346192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356961744"/>
+        <c:axId val="321343448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14475,12 +14567,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356962136"/>
+        <c:crossAx val="321346192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356962136"/>
+        <c:axId val="321346192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14538,7 +14630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356961744"/>
+        <c:crossAx val="321343448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15143,11 +15235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356962920"/>
-        <c:axId val="356963312"/>
+        <c:axId val="321737104"/>
+        <c:axId val="321737496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356962920"/>
+        <c:axId val="321737104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15205,12 +15297,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356963312"/>
+        <c:crossAx val="321737496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356963312"/>
+        <c:axId val="321737496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15268,7 +15360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356962920"/>
+        <c:crossAx val="321737104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22129,48 +22221,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="83" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="86"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="80" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -22556,40 +22648,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="82"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81" t="s">
+      <c r="H2" s="82"/>
+      <c r="I2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -22738,7 +22830,7 @@
   <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT23" sqref="AT23"/>
+      <selection activeCell="AX18" sqref="AX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22768,42 +22860,42 @@
       <c r="D1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="60" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
       <c r="AK1" t="s">
         <v>34</v>
       </c>
@@ -22837,82 +22929,82 @@
         <f>A2^(-2)*100</f>
         <v>100</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57" t="s">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="67" t="s">
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="60" t="s">
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="59" t="s">
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="59"/>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="59"/>
+      <c r="BJ2" s="67"/>
+      <c r="BK2" s="67"/>
+      <c r="BL2" s="67"/>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="67"/>
+      <c r="BP2" s="67"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -22930,86 +23022,86 @@
         <f t="shared" ref="D3:D9" si="2">A3^(-2)*100</f>
         <v>1</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57" t="s">
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="65" t="s">
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
       <c r="AJ3" s="64"/>
       <c r="AK3" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57" t="s">
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57" t="s">
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="86" t="s">
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="60"/>
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="86"/>
-      <c r="BK3" s="86"/>
-      <c r="BL3" s="86"/>
-      <c r="BM3" s="86"/>
-      <c r="BN3" s="86"/>
-      <c r="BO3" s="86"/>
-      <c r="BP3" s="86"/>
+      <c r="BJ3" s="58"/>
+      <c r="BK3" s="58"/>
+      <c r="BL3" s="58"/>
+      <c r="BM3" s="58"/>
+      <c r="BN3" s="58"/>
+      <c r="BO3" s="58"/>
+      <c r="BP3" s="58"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -23027,134 +23119,134 @@
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58" t="s">
+      <c r="H4" s="61"/>
+      <c r="I4" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58" t="s">
+      <c r="J4" s="61"/>
+      <c r="K4" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58" t="s">
+      <c r="N4" s="61"/>
+      <c r="O4" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="63" t="s">
+      <c r="P4" s="61"/>
+      <c r="Q4" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="R4" s="63"/>
-      <c r="S4" s="58" t="s">
+      <c r="R4" s="57"/>
+      <c r="S4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58" t="s">
+      <c r="T4" s="61"/>
+      <c r="U4" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58" t="s">
+      <c r="V4" s="61"/>
+      <c r="W4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58" t="s">
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58" t="s">
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58" t="s">
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58" t="s">
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="63" t="s">
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="58" t="s">
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="62" t="s">
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62" t="s">
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62" t="s">
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="62" t="s">
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="62" t="s">
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62" t="s">
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="62" t="s">
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="62" t="s">
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62" t="s">
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62" t="s">
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62" t="s">
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62" t="s">
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62" t="s">
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="62" t="s">
+      <c r="BJ4" s="59"/>
+      <c r="BK4" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="BL4" s="62"/>
-      <c r="BM4" s="62" t="s">
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="BN4" s="62"/>
-      <c r="BO4" s="62" t="s">
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="BP4" s="62"/>
+      <c r="BP4" s="59"/>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -23318,8 +23410,12 @@
       <c r="BH5" s="15">
         <v>2.6079433584101102</v>
       </c>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="15"/>
+      <c r="BI5" s="15">
+        <v>32</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>1.5837786879003199</v>
+      </c>
       <c r="BK5" s="15"/>
       <c r="BL5" s="15"/>
       <c r="BM5" s="15"/>
@@ -23493,8 +23589,12 @@
       <c r="BH6" s="15">
         <v>0.96136149949162497</v>
       </c>
-      <c r="BI6" s="15"/>
-      <c r="BJ6" s="15"/>
+      <c r="BI6" s="15">
+        <v>164</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0.22597835829559301</v>
+      </c>
       <c r="BK6" s="15"/>
       <c r="BL6" s="15"/>
       <c r="BM6" s="15"/>
@@ -23668,8 +23768,12 @@
       <c r="BH7" s="15">
         <v>0.31311499570941798</v>
       </c>
-      <c r="BI7" s="15"/>
-      <c r="BJ7" s="15"/>
+      <c r="BI7" s="15">
+        <v>710</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>2.9674137933471598E-2</v>
+      </c>
       <c r="BK7" s="15"/>
       <c r="BL7" s="15"/>
       <c r="BM7" s="15"/>
@@ -23843,8 +23947,12 @@
       <c r="BH8" s="15">
         <v>8.5621820288305894E-2</v>
       </c>
-      <c r="BI8" s="15"/>
-      <c r="BJ8" s="15"/>
+      <c r="BI8" s="15">
+        <v>2946</v>
+      </c>
+      <c r="BJ8" s="15">
+        <v>3.6439940273889498E-3</v>
+      </c>
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
       <c r="BM8" s="15"/>
@@ -24018,8 +24126,12 @@
       <c r="BH9" s="15">
         <v>2.22716216053572E-2</v>
       </c>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="15"/>
+      <c r="BI9" s="15">
+        <v>12044</v>
+      </c>
+      <c r="BJ9" s="15">
+        <v>4.6195386838713301E-4</v>
+      </c>
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
       <c r="BM9" s="15"/>
@@ -24177,8 +24289,12 @@
       <c r="BH10" s="15">
         <v>5.8364260648988003E-3</v>
       </c>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="15"/>
+      <c r="BI10" s="15">
+        <v>48672</v>
+      </c>
+      <c r="BJ10" s="15">
+        <v>5.7605212592898399E-5</v>
+      </c>
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
       <c r="BM10" s="15"/>
@@ -24310,6 +24426,12 @@
       </c>
       <c r="BH11" s="15">
         <v>1.54489723646907E-3</v>
+      </c>
+      <c r="BI11" s="15">
+        <v>195636</v>
+      </c>
+      <c r="BJ11" s="15">
+        <v>7.24924282437219E-6</v>
       </c>
       <c r="BO11" s="15">
         <v>195636</v>
@@ -25017,11 +25139,32 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="BI3:BP3"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U1:AJ1"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK2:BH2"/>
+    <mergeCell ref="E1:T1"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AS3:AZ3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AK3:AR3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="BI2:BP2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="U2:AD2"/>
     <mergeCell ref="AE4:AF4"/>
@@ -25038,32 +25181,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E1:T1"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AS3:AZ3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AK3:AR3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="U1:AJ1"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BA3:BH3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK2:BH2"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="BI3:BP3"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25088,58 +25210,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="69" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="69" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="69" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="69" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="69" t="s">
+      <c r="L1" s="71"/>
+      <c r="M1" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="69" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="69" t="s">
+      <c r="P1" s="72"/>
+      <c r="Q1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="69" t="s">
+      <c r="R1" s="71"/>
+      <c r="S1" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="69" t="s">
+      <c r="T1" s="71"/>
+      <c r="U1" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="71"/>
-      <c r="W1" s="69" t="s">
+      <c r="V1" s="72"/>
+      <c r="W1" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="69" t="s">
+      <c r="X1" s="71"/>
+      <c r="Y1" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="70"/>
+      <c r="Z1" s="71"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
@@ -27221,54 +27343,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="69" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="69" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="72" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="69" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="69" t="s">
+      <c r="L1" s="71"/>
+      <c r="M1" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="69" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="72" t="s">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="73"/>
-      <c r="S1" s="69" t="s">
+      <c r="R1" s="74"/>
+      <c r="S1" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="72" t="s">
+      <c r="T1" s="71"/>
+      <c r="U1" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="73"/>
-      <c r="W1" s="69" t="s">
+      <c r="V1" s="74"/>
+      <c r="W1" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="70"/>
+      <c r="X1" s="71"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
@@ -29369,6 +29491,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="Q1:R1"/>
@@ -29376,11 +29503,6 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29407,33 +29529,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -30222,41 +30344,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="L1" s="58" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="L1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -30298,38 +30420,38 @@
       <c r="P2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58" t="s">
+      <c r="R2" s="61"/>
+      <c r="S2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58" t="s">
+      <c r="T2" s="61"/>
+      <c r="U2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58" t="s">
+      <c r="V2" s="61"/>
+      <c r="W2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58" t="s">
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58" t="s">
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58" t="s">
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58" t="s">
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="58"/>
+      <c r="AF2" s="61"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -31234,28 +31356,28 @@
       <c r="D1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="76" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="78"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="77"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
@@ -31273,32 +31395,32 @@
         <f>B2^3*5</f>
         <v>7.8125E-2</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="79" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74" t="s">
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="75"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="80"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -31316,42 +31438,42 @@
         <f t="shared" ref="D3:D8" si="1">B3^3*5</f>
         <v>9.765625E-3</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="79" t="s">
+      <c r="L3" s="80"/>
+      <c r="M3" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74" t="s">
+      <c r="N3" s="79"/>
+      <c r="O3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74" t="s">
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74" t="s">
+      <c r="R3" s="79"/>
+      <c r="S3" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74" t="s">
+      <c r="T3" s="79"/>
+      <c r="U3" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="75"/>
+      <c r="V3" s="80"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
@@ -31990,6 +32112,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
@@ -32001,11 +32128,6 @@
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32027,29 +32149,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="16"/>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="P1" s="59" t="s">
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="P1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -32079,22 +32201,22 @@
       <c r="I2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="P2" s="59" t="s">
+      <c r="N2" s="67"/>
+      <c r="P2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="59"/>
+      <c r="S2" s="67"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -32509,48 +32631,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="83" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="86"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="80" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Transport_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="88">
   <si>
     <t>Uniform</t>
   </si>
@@ -552,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,11 +720,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,6 +733,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,10 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -757,6 +757,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3560,11 +3569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318408904"/>
-        <c:axId val="318410080"/>
+        <c:axId val="187826352"/>
+        <c:axId val="187826912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318408904"/>
+        <c:axId val="187826352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3678,12 +3687,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318410080"/>
+        <c:crossAx val="187826912"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318410080"/>
+        <c:axId val="187826912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3798,7 +3807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318408904"/>
+        <c:crossAx val="187826352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4268,11 +4277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321738280"/>
-        <c:axId val="321738672"/>
+        <c:axId val="189676016"/>
+        <c:axId val="189676576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321738280"/>
+        <c:axId val="189676016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4330,12 +4339,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321738672"/>
+        <c:crossAx val="189676576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321738672"/>
+        <c:axId val="189676576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4393,7 +4402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321738280"/>
+        <c:crossAx val="189676016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4780,11 +4789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321739456"/>
-        <c:axId val="321739848"/>
+        <c:axId val="189680496"/>
+        <c:axId val="189681056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321739456"/>
+        <c:axId val="189680496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4842,12 +4851,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321739848"/>
+        <c:crossAx val="189681056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321739848"/>
+        <c:axId val="189681056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4905,7 +4914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321739456"/>
+        <c:crossAx val="189680496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5179,108 +5188,10 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Q1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$E$5:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36864</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>147456</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>589824</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2359296</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$F$5:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.41176151106115999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.102937736824371</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.56126381159659E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3892103990866303E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5962496758420599E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9899231435109803E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.01984654865412E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6984015103651E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Wachspress</c:v>
+            <c:v>W1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5368,6 +5279,104 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.3154098405099999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>W2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$Q$5:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1179648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$R$5:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5413437091735698E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4628102458842403E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9465789519629301E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8933031578091904E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2354333210761199E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5439099651406699E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.12196840894E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5473,10 +5482,108 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="9"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>MV</c:v>
+            <c:v>PWQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$U$5:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1179648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$V$5:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1436303196947002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.02402887233186E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2792266126755701E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5983137617903701E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99758054232098E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.49685406218411E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1210188187407399E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>MV1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5571,8 +5678,100 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>MV2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$S$5:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1179648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$T$5:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.9131379711072199E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0466870515198303E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7026718018621695E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.08580581001798E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3632121062954399E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.73844287110701E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2409840853999999E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="8"/>
           <c:tx>
             <c:v>ME1</c:v>
           </c:tx>
@@ -5675,106 +5874,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>S2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$O$5:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1152</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18432</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73728</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>294912</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1179648</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$P$5:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.4537031990705698E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7577961822683601E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4657484226971101E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.05901689572706E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3240458595462E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6551462983478801E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.12984154981561E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:v>ME2</c:v>
           </c:tx>
@@ -5810,7 +5911,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$S$5:$S$11</c:f>
+              <c:f>Sinusoid2D!$W$5:$W$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5840,7 +5941,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$T$5:$T$11</c:f>
+              <c:f>Sinusoid2D!$X$5:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5863,105 +5964,7 @@
                   <c:v>1.7498007398897799E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2499999999999999E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>PWQ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$Q$5:$Q$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1152</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18432</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73728</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>294912</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1179648</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$R$5:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8.1436303196947002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.02402887233186E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2792266126755701E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5983137617903701E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.99758054232098E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.49685406218411E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1210188187407399E-7</c:v>
+                  <c:v>2.2598498408400001E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5976,11 +5979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317548840"/>
-        <c:axId val="317549232"/>
+        <c:axId val="188396080"/>
+        <c:axId val="188396640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317548840"/>
+        <c:axId val="188396080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6028,6 +6031,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6094,12 +6098,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317549232"/>
+        <c:crossAx val="188396640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317549232"/>
+        <c:axId val="188396640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6148,6 +6152,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6214,7 +6219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317548840"/>
+        <c:crossAx val="188396080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6228,6 +6233,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6488,10 +6494,108 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>P1</c:v>
+            <c:v>W1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$AE$5:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>884736</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3538944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$AF$5:$AF$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.38864098649611201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4128971635450601E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.23722401475859E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4496365851953096E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3507956185986401E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3689261692988401E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5165481621230001E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>W2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6519,164 +6623,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$U$5:$U$12</c:f>
+              <c:f>Sinusoid2D!$AK$5:$AK$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>216</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>864</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3456</c:v>
+                  <c:v>6912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13824</c:v>
+                  <c:v>27648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55296</c:v>
+                  <c:v>110592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>221184</c:v>
+                  <c:v>442368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>884736</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3538944</c:v>
+                  <c:v>1769472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$V$5:$V$12</c:f>
+              <c:f>Sinusoid2D!$AL$5:$AL$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.50907386570992796</c:v>
+                  <c:v>8.9030158616755797E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.129304226581446</c:v>
+                  <c:v>1.12220061474534E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1934943084009897E-2</c:v>
+                  <c:v>1.4010162848890201E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9184631386119402E-3</c:v>
+                  <c:v>1.7507407816342601E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.97399002500223E-3</c:v>
+                  <c:v>2.18812435102544E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9309739014286697E-4</c:v>
+                  <c:v>2.8068406854510002E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.21651418915354E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0499999999999999E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Wachspress</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$AA$5:$AA$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>864</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3456</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13824</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>221184</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>884736</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3538944</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$AB$5:$AB$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.38864098649611201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4128971635450601E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.23722401475859E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4496365851953096E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3507956185986401E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.3689261692988401E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5165481621230001E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0000000000000002E-5</c:v>
+                  <c:v>3.9265409842099999E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6715,7 +6715,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$W$5:$W$12</c:f>
+              <c:f>Sinusoid2D!$AA$5:$AA$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6748,7 +6748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$X$5:$X$12</c:f>
+              <c:f>Sinusoid2D!$AB$5:$AB$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6775,6 +6775,104 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.0499999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>PWQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$AO$5:$AO$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>442368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1769472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$AP$5:$AP$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.8622844664316298E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25766297410271E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5758891974305899E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9710411818909201E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4640437901033801E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0651489423100001E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.416854084081E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6783,9 +6881,9 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
-            <c:v>MV</c:v>
+            <c:v>MV1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6813,7 +6911,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$Y$5:$Y$12</c:f>
+              <c:f>Sinusoid2D!$AC$5:$AC$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6846,7 +6944,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$Z$5:$Z$12</c:f>
+              <c:f>Sinusoid2D!$AD$5:$AD$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6873,6 +6971,104 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>MV2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$AM$5:$AM$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>442368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1769472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$AN$5:$AN$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.9030158616755894E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.12220061474534E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4010162848890201E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75074078163425E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1881243510250399E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8068406854510002E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9265409842099999E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6881,7 +7077,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="8"/>
           <c:tx>
             <c:v>ME1</c:v>
           </c:tx>
@@ -6917,7 +7113,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AC$5:$AC$12</c:f>
+              <c:f>Sinusoid2D!$AG$5:$AG$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6950,7 +7146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AD$5:$AD$12</c:f>
+              <c:f>Sinusoid2D!$AH$5:$AH$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6977,104 +7173,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.0499999999999999E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>P2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$AE$5:$AE$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1728</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6912</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27648</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>110592</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>442368</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1769472</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$AF$5:$AF$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.0866635298437906E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.00649741279299E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2502871373601199E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.56033490766874E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9494654937373299E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.43638671524065E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4999999999999998E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7083,7 +7181,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:v>ME2</c:v>
           </c:tx>
@@ -7119,7 +7217,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AI$5:$AI$11</c:f>
+              <c:f>Sinusoid2D!$AQ$5:$AQ$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7149,7 +7247,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$AJ$5:$AJ$11</c:f>
+              <c:f>Sinusoid2D!$AR$5:$AR$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7173,104 +7271,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.7999999999999996E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>PWQ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$AG$5:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1728</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6912</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27648</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>110592</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>442368</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1769472</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$AH$5:$AH$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.8622844664316298E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25766297410271E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5758891974305899E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9710411818909201E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4640437901033801E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0651489423100001E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.416854084081E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7285,11 +7285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317550016"/>
-        <c:axId val="317550408"/>
+        <c:axId val="188404480"/>
+        <c:axId val="188405040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317550016"/>
+        <c:axId val="188404480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7337,6 +7337,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7403,12 +7404,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317550408"/>
+        <c:crossAx val="188405040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317550408"/>
+        <c:axId val="188405040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7457,6 +7458,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7523,7 +7525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317550016"/>
+        <c:crossAx val="188404480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7537,6 +7539,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7800,7 +7803,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Wachspress</c:v>
+            <c:v>W1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7828,7 +7831,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BC$5:$BC$12</c:f>
+              <c:f>Sinusoid2D!$BK$5:$BK$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7861,7 +7864,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BD$5:$BD$12</c:f>
+              <c:f>Sinusoid2D!$BL$5:$BL$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7888,6 +7891,110 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.97398507109262E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>W2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$BU$5:$BU$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>784422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$BV$5:$BV$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5259361925005199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.161141469970454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5437379138670101E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7937600147737601E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2308692475338701E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7501604878891902E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5579257542771499E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6168709841200001E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7896,7 +8003,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>PWL</c:v>
           </c:tx>
@@ -7926,7 +8033,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BA$5:$BA$12</c:f>
+              <c:f>Sinusoid2D!$BI$5:$BI$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7959,7 +8066,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BB$5:$BB$12</c:f>
+              <c:f>Sinusoid2D!$BJ$5:$BJ$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7986,6 +8093,110 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.2432451412024299E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>PWQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$BQ$5:$BQ$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>784422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$BR$5:$BR$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5837786879003199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22597835829559301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9674137933471598E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6439940273889498E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6195386838713301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7605212592898399E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.24924282437219E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0927287824969303E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7994,9 +8205,9 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
-            <c:v>MV</c:v>
+            <c:v>MV1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8024,7 +8235,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BE$5:$BE$12</c:f>
+              <c:f>Sinusoid2D!$BM$5:$BM$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8057,7 +8268,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BF$5:$BF$12</c:f>
+              <c:f>Sinusoid2D!$BN$5:$BN$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8084,6 +8295,110 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.9626886317087599E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>MV2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$BS$5:$BS$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>784422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sinusoid2D!$BT$5:$BT$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.51423138801385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.164989469327361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8235836946127099E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1877178681508199E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8196137560313801E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7240584404239698E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1210314905378696E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2351084090000001E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8092,7 +8407,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="8"/>
           <c:tx>
             <c:v>ME1</c:v>
           </c:tx>
@@ -8122,7 +8437,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BG$5:$BG$12</c:f>
+              <c:f>Sinusoid2D!$BO$5:$BO$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8155,7 +8470,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BH$5:$BH$12</c:f>
+              <c:f>Sinusoid2D!$BP$5:$BP$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8190,7 +8505,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="9"/>
           <c:tx>
             <c:v>ME2</c:v>
           </c:tx>
@@ -8226,7 +8541,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BO$5:$BO$12</c:f>
+              <c:f>Sinusoid2D!$BW$5:$BW$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8259,7 +8574,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sinusoid2D!$BP$5:$BP$12</c:f>
+              <c:f>Sinusoid2D!$BX$5:$BX$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8286,104 +8601,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.593199650516459E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>PWQ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$BI$5:$BI$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2946</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12044</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48672</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>195636</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sinusoid2D!$BJ$5:$BJ$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.5837786879003199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22597835829559301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9674137933471598E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6439940273889498E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6195386838713301E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7605212592898399E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.24924282437219E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8398,11 +8615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317550800"/>
-        <c:axId val="317551584"/>
+        <c:axId val="189161408"/>
+        <c:axId val="189161968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317550800"/>
+        <c:axId val="189161408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8518,12 +8735,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317551584"/>
+        <c:crossAx val="189161968"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317551584"/>
+        <c:axId val="189161968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8639,7 +8856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317550800"/>
+        <c:crossAx val="189161408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11549,11 +11766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317552368"/>
-        <c:axId val="321342664"/>
+        <c:axId val="189172048"/>
+        <c:axId val="189172608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317552368"/>
+        <c:axId val="189172048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11612,12 +11829,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321342664"/>
+        <c:crossAx val="189172608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321342664"/>
+        <c:axId val="189172608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11677,7 +11894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317552368"/>
+        <c:crossAx val="189172048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12938,11 +13155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321343840"/>
-        <c:axId val="321344232"/>
+        <c:axId val="188658608"/>
+        <c:axId val="188659168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321343840"/>
+        <c:axId val="188658608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13002,12 +13219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321344232"/>
+        <c:crossAx val="188659168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321344232"/>
+        <c:axId val="188659168"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13065,7 +13282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321343840"/>
+        <c:crossAx val="188658608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13717,11 +13934,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321345016"/>
-        <c:axId val="321345408"/>
+        <c:axId val="188664768"/>
+        <c:axId val="188665328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321345016"/>
+        <c:axId val="188664768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13835,12 +14052,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321345408"/>
+        <c:crossAx val="188665328"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321345408"/>
+        <c:axId val="188665328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13953,7 +14170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321345016"/>
+        <c:crossAx val="188664768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14505,11 +14722,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321343448"/>
-        <c:axId val="321346192"/>
+        <c:axId val="188670368"/>
+        <c:axId val="189665376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321343448"/>
+        <c:axId val="188670368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14567,12 +14784,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321346192"/>
+        <c:crossAx val="189665376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321346192"/>
+        <c:axId val="189665376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14630,7 +14847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321343448"/>
+        <c:crossAx val="188670368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15235,11 +15452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321737104"/>
-        <c:axId val="321737496"/>
+        <c:axId val="189670976"/>
+        <c:axId val="189671536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321737104"/>
+        <c:axId val="189670976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15297,12 +15514,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321737496"/>
+        <c:crossAx val="189671536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321737496"/>
+        <c:axId val="189671536"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15360,7 +15577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321737104"/>
+        <c:crossAx val="189670976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21625,13 +21842,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>108858</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>40822</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
@@ -21655,13 +21872,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>204107</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
@@ -22221,48 +22438,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="84" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="86"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="81" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82" t="s">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -22648,40 +22865,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="83"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82" t="s">
+      <c r="H2" s="85"/>
+      <c r="I2" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="83"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -22827,27 +23044,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BX44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX18" sqref="AX18"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BW28" sqref="BW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="10.5703125" style="32" customWidth="1"/>
     <col min="15" max="16" width="10.7109375" style="32" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" style="53" customWidth="1"/>
-    <col min="19" max="32" width="10.7109375" style="32" customWidth="1"/>
-    <col min="33" max="34" width="10.7109375" style="55" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" style="32" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" customWidth="1"/>
-    <col min="37" max="44" width="10.5703125" style="32" customWidth="1"/>
-    <col min="45" max="50" width="10.5703125" style="33" customWidth="1"/>
-    <col min="51" max="69" width="10.7109375" customWidth="1"/>
+    <col min="17" max="20" width="10.7109375" style="58" customWidth="1"/>
+    <col min="21" max="22" width="10.7109375" style="53" customWidth="1"/>
+    <col min="23" max="36" width="10.7109375" style="32" customWidth="1"/>
+    <col min="37" max="40" width="10.7109375" style="58" customWidth="1"/>
+    <col min="41" max="42" width="10.7109375" style="55" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" style="32" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" customWidth="1"/>
+    <col min="45" max="52" width="10.5703125" style="32" customWidth="1"/>
+    <col min="53" max="58" width="10.5703125" style="33" customWidth="1"/>
+    <col min="59" max="77" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
@@ -22878,13 +23097,13 @@
       <c r="R1" s="60"/>
       <c r="S1" s="60"/>
       <c r="T1" s="60"/>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
       <c r="Z1" s="69"/>
       <c r="AA1" s="69"/>
       <c r="AB1" s="69"/>
@@ -22896,24 +23115,32 @@
       <c r="AH1" s="69"/>
       <c r="AI1" s="69"/>
       <c r="AJ1" s="69"/>
-      <c r="AK1" t="s">
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
       <c r="AT1" s="34"/>
       <c r="AU1" s="34"/>
       <c r="AV1" s="34"/>
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -22949,37 +23176,37 @@
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
       <c r="T2" s="60"/>
-      <c r="U2" s="60" t="s">
-        <v>37</v>
-      </c>
+      <c r="U2" s="60"/>
       <c r="V2" s="60"/>
       <c r="W2" s="60"/>
       <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="Y2" s="60" t="s">
+        <v>37</v>
+      </c>
       <c r="Z2" s="60"/>
       <c r="AA2" s="60"/>
       <c r="AB2" s="60"/>
       <c r="AC2" s="60"/>
       <c r="AD2" s="60"/>
-      <c r="AE2" s="65" t="s">
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="68" t="s">
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
       <c r="AT2" s="69"/>
       <c r="AU2" s="69"/>
       <c r="AV2" s="69"/>
@@ -22995,18 +23222,26 @@
       <c r="BF2" s="69"/>
       <c r="BG2" s="69"/>
       <c r="BH2" s="69"/>
-      <c r="BI2" s="67" t="s">
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="BJ2" s="67"/>
-      <c r="BK2" s="67"/>
-      <c r="BL2" s="67"/>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="67"/>
+      <c r="BR2" s="67"/>
+      <c r="BS2" s="67"/>
+      <c r="BT2" s="67"/>
+      <c r="BU2" s="67"/>
+      <c r="BV2" s="67"/>
+      <c r="BW2" s="67"/>
+      <c r="BX2" s="67"/>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -23042,38 +23277,36 @@
       <c r="R3" s="60"/>
       <c r="S3" s="60"/>
       <c r="T3" s="60"/>
-      <c r="U3" s="60" t="s">
-        <v>0</v>
-      </c>
+      <c r="U3" s="60"/>
       <c r="V3" s="60"/>
       <c r="W3" s="60"/>
       <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
+      <c r="Y3" s="60" t="s">
+        <v>0</v>
+      </c>
       <c r="Z3" s="60"/>
       <c r="AA3" s="60"/>
       <c r="AB3" s="60"/>
       <c r="AC3" s="60"/>
       <c r="AD3" s="60"/>
-      <c r="AE3" s="62" t="s">
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
       <c r="AJ3" s="64"/>
-      <c r="AK3" s="64" t="s">
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65" t="s">
         <v>52</v>
-      </c>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60" t="s">
-        <v>58</v>
       </c>
       <c r="AT3" s="60"/>
       <c r="AU3" s="60"/>
@@ -23083,7 +23316,7 @@
       <c r="AY3" s="60"/>
       <c r="AZ3" s="60"/>
       <c r="BA3" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BB3" s="60"/>
       <c r="BC3" s="60"/>
@@ -23092,18 +23325,28 @@
       <c r="BF3" s="60"/>
       <c r="BG3" s="60"/>
       <c r="BH3" s="60"/>
-      <c r="BI3" s="58" t="s">
+      <c r="BI3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="58"/>
-      <c r="BL3" s="58"/>
-      <c r="BM3" s="58"/>
-      <c r="BN3" s="58"/>
-      <c r="BO3" s="58"/>
-      <c r="BP3" s="58"/>
+      <c r="BJ3" s="60"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="60"/>
+      <c r="BO3" s="60"/>
+      <c r="BP3" s="60"/>
+      <c r="BQ3" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="70"/>
+      <c r="BV3" s="70"/>
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="70"/>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -23143,112 +23386,128 @@
         <v>54</v>
       </c>
       <c r="P4" s="61"/>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="R4" s="57"/>
-      <c r="S4" s="61" t="s">
+      <c r="V4" s="62"/>
+      <c r="W4" s="61" t="s">
         <v>33</v>
-      </c>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61" t="s">
-        <v>32</v>
       </c>
       <c r="X4" s="61"/>
       <c r="Y4" s="61" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Z4" s="61"/>
       <c r="AA4" s="61" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AB4" s="61"/>
       <c r="AC4" s="61" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="AD4" s="61"/>
       <c r="AE4" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="57" t="s">
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="61" t="s">
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="59" t="s">
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59" t="s">
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59" t="s">
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59" t="s">
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59" t="s">
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59" t="s">
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59" t="s">
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59" t="s">
+      <c r="BF4" s="66"/>
+      <c r="BG4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59" t="s">
+      <c r="BH4" s="66"/>
+      <c r="BI4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59" t="s">
+      <c r="BJ4" s="66"/>
+      <c r="BK4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59" t="s">
+      <c r="BL4" s="66"/>
+      <c r="BM4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="59" t="s">
+      <c r="BN4" s="66"/>
+      <c r="BO4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59" t="s">
+      <c r="BP4" s="66"/>
+      <c r="BQ4" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59" t="s">
+      <c r="BR4" s="66"/>
+      <c r="BS4" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="59" t="s">
+      <c r="BT4" s="66"/>
+      <c r="BU4" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="59" t="s">
+      <c r="BV4" s="66"/>
+      <c r="BW4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="BP4" s="59"/>
+      <c r="BX4" s="66"/>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -23300,134 +23559,166 @@
       <c r="P5" s="2">
         <v>5.4537031990705698E-2</v>
       </c>
-      <c r="Q5" s="56">
+      <c r="Q5" s="59">
         <v>288</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="59">
+        <v>5.5413437091735698E-2</v>
+      </c>
+      <c r="S5" s="57">
+        <v>288</v>
+      </c>
+      <c r="T5" s="57">
+        <v>5.9131379711072199E-2</v>
+      </c>
+      <c r="U5" s="56">
+        <v>288</v>
+      </c>
+      <c r="V5" s="54">
         <v>8.1436303196947002E-2</v>
       </c>
-      <c r="S5" s="2">
+      <c r="W5" s="2">
         <v>288</v>
       </c>
-      <c r="T5" s="2">
+      <c r="X5" s="2">
         <v>4.4111617122638197E-2</v>
-      </c>
-      <c r="U5" s="37">
-        <v>216</v>
-      </c>
-      <c r="V5" s="37">
-        <v>0.50907386570992796</v>
-      </c>
-      <c r="W5" s="2">
-        <v>216</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0.50674542409639001</v>
       </c>
       <c r="Y5" s="37">
         <v>216</v>
       </c>
       <c r="Z5" s="37">
-        <v>0.38864098649611201</v>
-      </c>
-      <c r="AA5" s="37">
+        <v>0.50907386570992796</v>
+      </c>
+      <c r="AA5" s="2">
         <v>216</v>
       </c>
-      <c r="AB5" s="37">
-        <v>0.38864098649611201</v>
+      <c r="AB5" s="2">
+        <v>0.50674542409639001</v>
       </c>
       <c r="AC5" s="37">
         <v>216</v>
       </c>
       <c r="AD5" s="37">
+        <v>0.38864098649611201</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>216</v>
+      </c>
+      <c r="AF5" s="37">
+        <v>0.38864098649611201</v>
+      </c>
+      <c r="AG5" s="37">
+        <v>216</v>
+      </c>
+      <c r="AH5" s="37">
         <v>0.50756655184433597</v>
       </c>
-      <c r="AE5" s="37">
+      <c r="AI5" s="37">
         <v>432</v>
       </c>
-      <c r="AF5" s="37">
+      <c r="AJ5" s="37">
         <v>8.0866635298437906E-2</v>
       </c>
-      <c r="AG5" s="56">
+      <c r="AK5" s="59">
         <v>432</v>
       </c>
-      <c r="AH5" s="56">
+      <c r="AL5" s="59">
+        <v>8.9030158616755797E-2</v>
+      </c>
+      <c r="AM5" s="59">
+        <v>432</v>
+      </c>
+      <c r="AN5" s="57">
+        <v>8.9030158616755894E-2</v>
+      </c>
+      <c r="AO5" s="56">
+        <v>432</v>
+      </c>
+      <c r="AP5" s="56">
         <v>9.8622844664316298E-2</v>
       </c>
-      <c r="AI5" s="35">
+      <c r="AQ5" s="35">
         <v>432</v>
       </c>
-      <c r="AJ5" s="15">
+      <c r="AR5" s="15">
         <v>0.10705444057166399</v>
       </c>
-      <c r="AK5" s="35">
+      <c r="AS5" s="35">
         <v>36</v>
       </c>
-      <c r="AL5" s="35">
+      <c r="AT5" s="35">
         <v>2.5130799617533399</v>
       </c>
-      <c r="AM5" s="35">
+      <c r="AU5" s="35">
         <v>36</v>
       </c>
-      <c r="AN5" s="35">
+      <c r="AV5" s="35">
         <v>2.6155469164281899</v>
       </c>
-      <c r="AO5" s="35">
+      <c r="AW5" s="35">
         <v>36</v>
       </c>
-      <c r="AP5" s="35">
+      <c r="AX5" s="35">
         <v>2.6130415756681602</v>
       </c>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="35">
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="35">
         <v>44</v>
       </c>
-      <c r="AT5" s="35">
+      <c r="BB5" s="35">
         <v>2.2919674902033398</v>
       </c>
-      <c r="BA5" s="15">
+      <c r="BI5" s="15">
         <v>16</v>
       </c>
-      <c r="BB5" s="15">
+      <c r="BJ5" s="15">
         <v>2.47236152163569</v>
       </c>
-      <c r="BC5" s="15">
+      <c r="BK5" s="15">
         <v>16</v>
       </c>
-      <c r="BD5" s="15">
+      <c r="BL5" s="15">
         <v>2.4334607882826398</v>
       </c>
-      <c r="BE5" s="15">
+      <c r="BM5" s="15">
         <v>16</v>
       </c>
-      <c r="BF5" s="15">
+      <c r="BN5" s="15">
         <v>2.3640280360191399</v>
       </c>
-      <c r="BG5" s="15">
+      <c r="BO5" s="15">
         <v>16</v>
       </c>
-      <c r="BH5" s="15">
+      <c r="BP5" s="15">
         <v>2.6079433584101102</v>
       </c>
-      <c r="BI5" s="15">
+      <c r="BQ5" s="15">
         <v>32</v>
       </c>
-      <c r="BJ5" s="15">
+      <c r="BR5" s="15">
         <v>1.5837786879003199</v>
       </c>
-      <c r="BK5" s="15"/>
-      <c r="BL5" s="15"/>
-      <c r="BM5" s="15"/>
-      <c r="BN5" s="15"/>
-      <c r="BO5" s="15">
+      <c r="BS5" s="15">
         <v>32</v>
       </c>
-      <c r="BP5" s="15">
+      <c r="BT5" s="15">
+        <v>1.51423138801385</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>32</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>1.5259361925005199</v>
+      </c>
+      <c r="BW5" s="15">
+        <v>32</v>
+      </c>
+      <c r="BX5" s="15">
         <v>1.34358284545726</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10000</v>
       </c>
@@ -23479,134 +23770,166 @@
       <c r="P6" s="2">
         <v>6.7577961822683601E-3</v>
       </c>
-      <c r="Q6" s="56">
+      <c r="Q6" s="59">
         <v>1152</v>
       </c>
-      <c r="R6" s="56">
+      <c r="R6" s="59">
+        <v>6.4628102458842403E-3</v>
+      </c>
+      <c r="S6" s="57">
+        <v>1152</v>
+      </c>
+      <c r="T6" s="57">
+        <v>7.0466870515198303E-3</v>
+      </c>
+      <c r="U6" s="56">
+        <v>1152</v>
+      </c>
+      <c r="V6" s="56">
         <v>1.02402887233186E-2</v>
       </c>
-      <c r="S6" s="2">
+      <c r="W6" s="2">
         <v>1152</v>
       </c>
-      <c r="T6" s="2">
+      <c r="X6" s="2">
         <v>5.8853325448006803E-3</v>
-      </c>
-      <c r="U6" s="37">
-        <v>864</v>
-      </c>
-      <c r="V6" s="37">
-        <v>0.129304226581446</v>
-      </c>
-      <c r="W6" s="2">
-        <v>864</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0.12913707795961399</v>
       </c>
       <c r="Y6" s="37">
         <v>864</v>
       </c>
       <c r="Z6" s="37">
-        <v>9.4128971635450406E-2</v>
-      </c>
-      <c r="AA6" s="37">
+        <v>0.129304226581446</v>
+      </c>
+      <c r="AA6" s="2">
         <v>864</v>
       </c>
-      <c r="AB6" s="37">
-        <v>9.4128971635450601E-2</v>
+      <c r="AB6" s="2">
+        <v>0.12913707795961399</v>
       </c>
       <c r="AC6" s="37">
         <v>864</v>
       </c>
       <c r="AD6" s="37">
+        <v>9.4128971635450406E-2</v>
+      </c>
+      <c r="AE6" s="37">
+        <v>864</v>
+      </c>
+      <c r="AF6" s="37">
+        <v>9.4128971635450601E-2</v>
+      </c>
+      <c r="AG6" s="37">
+        <v>864</v>
+      </c>
+      <c r="AH6" s="37">
         <v>0.12919723629930399</v>
       </c>
-      <c r="AE6" s="37">
+      <c r="AI6" s="37">
         <v>1728</v>
       </c>
-      <c r="AF6" s="37">
+      <c r="AJ6" s="37">
         <v>1.00649741279299E-2</v>
       </c>
-      <c r="AG6" s="56">
+      <c r="AK6" s="59">
         <v>1728</v>
       </c>
-      <c r="AH6" s="56">
+      <c r="AL6" s="59">
+        <v>1.12220061474534E-2</v>
+      </c>
+      <c r="AM6" s="59">
+        <v>1728</v>
+      </c>
+      <c r="AN6" s="57">
+        <v>1.12220061474534E-2</v>
+      </c>
+      <c r="AO6" s="56">
+        <v>1728</v>
+      </c>
+      <c r="AP6" s="56">
         <v>1.25766297410271E-2</v>
       </c>
-      <c r="AI6" s="35">
+      <c r="AQ6" s="35">
         <v>1728</v>
       </c>
-      <c r="AJ6" s="15">
+      <c r="AR6" s="15">
         <v>1.37919448248668E-2</v>
       </c>
-      <c r="AK6" s="35">
+      <c r="AS6" s="35">
         <v>128</v>
       </c>
-      <c r="AL6" s="35">
+      <c r="AT6" s="35">
         <v>1.0815608124354501</v>
       </c>
-      <c r="AM6" s="35">
+      <c r="AU6" s="35">
         <v>128</v>
       </c>
-      <c r="AN6" s="35">
+      <c r="AV6" s="35">
         <v>0.99111419409955603</v>
       </c>
-      <c r="AO6" s="35">
+      <c r="AW6" s="35">
         <v>128</v>
       </c>
-      <c r="AP6" s="35">
+      <c r="AX6" s="35">
         <v>0.86291817069472998</v>
       </c>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="35">
+      <c r="AY6" s="35"/>
+      <c r="AZ6" s="33"/>
+      <c r="BA6" s="35">
         <v>130</v>
       </c>
-      <c r="AT6" s="35">
+      <c r="BB6" s="35">
         <v>0.82862716712469597</v>
       </c>
-      <c r="BA6" s="15">
+      <c r="BI6" s="15">
         <v>82</v>
       </c>
-      <c r="BB6" s="15">
+      <c r="BJ6" s="15">
         <v>1.0114258133963001</v>
       </c>
-      <c r="BC6" s="15">
+      <c r="BK6" s="15">
         <v>82</v>
       </c>
-      <c r="BD6" s="15">
+      <c r="BL6" s="15">
         <v>0.89138751397590399</v>
       </c>
-      <c r="BE6" s="15">
+      <c r="BM6" s="15">
         <v>82</v>
       </c>
-      <c r="BF6" s="15">
+      <c r="BN6" s="15">
         <v>0.87148048969125502</v>
       </c>
-      <c r="BG6" s="15">
+      <c r="BO6" s="15">
         <v>82</v>
       </c>
-      <c r="BH6" s="15">
+      <c r="BP6" s="15">
         <v>0.96136149949162497</v>
       </c>
-      <c r="BI6" s="15">
+      <c r="BQ6" s="15">
         <v>164</v>
       </c>
-      <c r="BJ6" s="15">
+      <c r="BR6" s="15">
         <v>0.22597835829559301</v>
       </c>
-      <c r="BK6" s="15"/>
-      <c r="BL6" s="15"/>
-      <c r="BM6" s="15"/>
-      <c r="BN6" s="15"/>
-      <c r="BO6" s="15">
+      <c r="BS6" s="15">
         <v>164</v>
       </c>
-      <c r="BP6" s="15">
+      <c r="BT6" s="15">
+        <v>0.164989469327361</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>164</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0.161141469970454</v>
+      </c>
+      <c r="BW6" s="15">
+        <v>164</v>
+      </c>
+      <c r="BX6" s="15">
         <v>0.238719576610222</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>100000</v>
       </c>
@@ -23658,134 +23981,166 @@
       <c r="P7" s="2">
         <v>8.4657484226971101E-4</v>
       </c>
-      <c r="Q7" s="56">
+      <c r="Q7" s="59">
         <v>4608</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="59">
+        <v>7.9465789519629301E-4</v>
+      </c>
+      <c r="S7" s="57">
+        <v>4608</v>
+      </c>
+      <c r="T7" s="57">
+        <v>8.7026718018621695E-4</v>
+      </c>
+      <c r="U7" s="56">
+        <v>4608</v>
+      </c>
+      <c r="V7" s="56">
         <v>1.2792266126755701E-3</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>4608</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>7.6874606576168001E-4</v>
-      </c>
-      <c r="U7" s="37">
-        <v>3456</v>
-      </c>
-      <c r="V7" s="37">
-        <v>3.1934943084009897E-2</v>
-      </c>
-      <c r="W7" s="2">
-        <v>3456</v>
-      </c>
-      <c r="X7" s="2">
-        <v>3.1923767042673197E-2</v>
       </c>
       <c r="Y7" s="37">
         <v>3456</v>
       </c>
       <c r="Z7" s="37">
-        <v>2.2372240147585799E-2</v>
-      </c>
-      <c r="AA7" s="37">
+        <v>3.1934943084009897E-2</v>
+      </c>
+      <c r="AA7" s="2">
         <v>3456</v>
       </c>
-      <c r="AB7" s="37">
-        <v>2.23722401475859E-2</v>
+      <c r="AB7" s="2">
+        <v>3.1923767042673197E-2</v>
       </c>
       <c r="AC7" s="37">
         <v>3456</v>
       </c>
       <c r="AD7" s="37">
+        <v>2.2372240147585799E-2</v>
+      </c>
+      <c r="AE7" s="37">
+        <v>3456</v>
+      </c>
+      <c r="AF7" s="37">
+        <v>2.23722401475859E-2</v>
+      </c>
+      <c r="AG7" s="37">
+        <v>3456</v>
+      </c>
+      <c r="AH7" s="37">
         <v>3.1927810009634398E-2</v>
       </c>
-      <c r="AE7" s="37">
+      <c r="AI7" s="37">
         <v>6912</v>
       </c>
-      <c r="AF7" s="37">
+      <c r="AJ7" s="37">
         <v>1.2502871373601199E-3</v>
       </c>
-      <c r="AG7" s="56">
+      <c r="AK7" s="59">
         <v>6912</v>
       </c>
-      <c r="AH7" s="56">
+      <c r="AL7" s="59">
+        <v>1.4010162848890201E-3</v>
+      </c>
+      <c r="AM7" s="59">
+        <v>6912</v>
+      </c>
+      <c r="AN7" s="57">
+        <v>1.4010162848890201E-3</v>
+      </c>
+      <c r="AO7" s="56">
+        <v>6912</v>
+      </c>
+      <c r="AP7" s="56">
         <v>1.5758891974305899E-3</v>
       </c>
-      <c r="AI7" s="35">
+      <c r="AQ7" s="35">
         <v>6912</v>
       </c>
-      <c r="AJ7" s="15">
+      <c r="AR7" s="15">
         <v>1.73363968188062E-3</v>
       </c>
-      <c r="AK7" s="35">
+      <c r="AS7" s="35">
         <v>440</v>
       </c>
-      <c r="AL7" s="35">
+      <c r="AT7" s="35">
         <v>0.37296682960154498</v>
       </c>
-      <c r="AM7" s="35">
+      <c r="AU7" s="35">
         <v>440</v>
       </c>
-      <c r="AN7" s="35">
+      <c r="AV7" s="35">
         <v>0.30643041536566901</v>
       </c>
-      <c r="AO7" s="35">
+      <c r="AW7" s="35">
         <v>440</v>
       </c>
-      <c r="AP7" s="35">
+      <c r="AX7" s="35">
         <v>0.286582104461027</v>
       </c>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="35">
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="35">
         <v>443</v>
       </c>
-      <c r="AT7" s="35">
+      <c r="BB7" s="35">
         <v>0.37182925128088901</v>
       </c>
-      <c r="BA7" s="15">
+      <c r="BI7" s="15">
         <v>355</v>
       </c>
-      <c r="BB7" s="15">
+      <c r="BJ7" s="15">
         <v>0.23818588673883601</v>
       </c>
-      <c r="BC7" s="15">
+      <c r="BK7" s="15">
         <v>355</v>
       </c>
-      <c r="BD7" s="15">
+      <c r="BL7" s="15">
         <v>0.202711330134522</v>
       </c>
-      <c r="BE7" s="15">
+      <c r="BM7" s="15">
         <v>355</v>
       </c>
-      <c r="BF7" s="15">
+      <c r="BN7" s="15">
         <v>0.202390656344445</v>
       </c>
-      <c r="BG7" s="15">
+      <c r="BO7" s="15">
         <v>355</v>
       </c>
-      <c r="BH7" s="15">
+      <c r="BP7" s="15">
         <v>0.31311499570941798</v>
       </c>
-      <c r="BI7" s="15">
+      <c r="BQ7" s="15">
         <v>710</v>
       </c>
-      <c r="BJ7" s="15">
+      <c r="BR7" s="15">
         <v>2.9674137933471598E-2</v>
       </c>
-      <c r="BK7" s="15"/>
-      <c r="BL7" s="15"/>
-      <c r="BM7" s="15"/>
-      <c r="BN7" s="15"/>
-      <c r="BO7" s="15">
+      <c r="BS7" s="15">
         <v>710</v>
       </c>
-      <c r="BP7" s="15">
+      <c r="BT7" s="15">
+        <v>1.8235836946127099E-2</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>710</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>1.5437379138670101E-2</v>
+      </c>
+      <c r="BW7" s="15">
+        <v>710</v>
+      </c>
+      <c r="BX7" s="15">
         <v>2.9766960039779699E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1000000</v>
       </c>
@@ -23837,134 +24192,166 @@
       <c r="P8" s="2">
         <v>1.05901689572706E-4</v>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="59">
         <v>18432</v>
       </c>
-      <c r="R8" s="56">
+      <c r="R8" s="59">
+        <v>9.8933031578091904E-5</v>
+      </c>
+      <c r="S8" s="57">
+        <v>18432</v>
+      </c>
+      <c r="T8" s="57">
+        <v>1.08580581001798E-4</v>
+      </c>
+      <c r="U8" s="56">
+        <v>18432</v>
+      </c>
+      <c r="V8" s="56">
         <v>1.5983137617903701E-4</v>
       </c>
-      <c r="S8" s="2">
+      <c r="W8" s="2">
         <v>18432</v>
       </c>
-      <c r="T8" s="2">
+      <c r="X8" s="2">
         <v>9.8823607339652405E-5</v>
-      </c>
-      <c r="U8" s="37">
-        <v>13824</v>
-      </c>
-      <c r="V8" s="37">
-        <v>7.9184631386119402E-3</v>
-      </c>
-      <c r="W8" s="2">
-        <v>13824</v>
-      </c>
-      <c r="X8" s="2">
-        <v>7.9177473473258392E-3</v>
       </c>
       <c r="Y8" s="37">
         <v>13824</v>
       </c>
       <c r="Z8" s="37">
-        <v>5.4496365851952897E-3</v>
-      </c>
-      <c r="AA8" s="37">
+        <v>7.9184631386119402E-3</v>
+      </c>
+      <c r="AA8" s="2">
         <v>13824</v>
       </c>
-      <c r="AB8" s="37">
-        <v>5.4496365851953096E-3</v>
+      <c r="AB8" s="2">
+        <v>7.9177473473258392E-3</v>
       </c>
       <c r="AC8" s="37">
         <v>13824</v>
       </c>
       <c r="AD8" s="37">
+        <v>5.4496365851952897E-3</v>
+      </c>
+      <c r="AE8" s="37">
+        <v>13824</v>
+      </c>
+      <c r="AF8" s="37">
+        <v>5.4496365851953096E-3</v>
+      </c>
+      <c r="AG8" s="37">
+        <v>13824</v>
+      </c>
+      <c r="AH8" s="37">
         <v>7.9180065108108901E-3</v>
       </c>
-      <c r="AE8" s="37">
+      <c r="AI8" s="37">
         <v>27648</v>
       </c>
-      <c r="AF8" s="37">
+      <c r="AJ8" s="37">
         <v>1.56033490766874E-4</v>
       </c>
-      <c r="AG8" s="56">
+      <c r="AK8" s="59">
         <v>27648</v>
       </c>
-      <c r="AH8" s="56">
+      <c r="AL8" s="59">
+        <v>1.7507407816342601E-4</v>
+      </c>
+      <c r="AM8" s="59">
+        <v>27648</v>
+      </c>
+      <c r="AN8" s="57">
+        <v>1.75074078163425E-4</v>
+      </c>
+      <c r="AO8" s="56">
+        <v>27648</v>
+      </c>
+      <c r="AP8" s="56">
         <v>1.9710411818909201E-4</v>
       </c>
-      <c r="AI8" s="35">
+      <c r="AQ8" s="35">
         <v>27648</v>
       </c>
-      <c r="AJ8" s="15">
+      <c r="AR8" s="15">
         <v>2.1700538971469201E-4</v>
       </c>
-      <c r="AK8" s="35">
+      <c r="AS8" s="35">
         <v>1640</v>
       </c>
-      <c r="AL8" s="35">
+      <c r="AT8" s="35">
         <v>0.106602770148748</v>
       </c>
-      <c r="AM8" s="35">
+      <c r="AU8" s="35">
         <v>1640</v>
       </c>
-      <c r="AN8" s="35">
+      <c r="AV8" s="35">
         <v>8.6158862897504407E-2</v>
       </c>
-      <c r="AO8" s="35">
+      <c r="AW8" s="35">
         <v>1640</v>
       </c>
-      <c r="AP8" s="35">
+      <c r="AX8" s="35">
         <v>8.0227160518560894E-2</v>
       </c>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="35">
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="33"/>
+      <c r="BA8" s="35">
         <v>1651</v>
       </c>
-      <c r="AT8" s="35">
+      <c r="BB8" s="35">
         <v>9.7379898737960394E-2</v>
       </c>
-      <c r="BA8" s="15">
+      <c r="BI8" s="15">
         <v>1473</v>
       </c>
-      <c r="BB8" s="15">
+      <c r="BJ8" s="15">
         <v>5.9138101567000903E-2</v>
       </c>
-      <c r="BC8" s="15">
+      <c r="BK8" s="15">
         <v>1473</v>
       </c>
-      <c r="BD8" s="15">
+      <c r="BL8" s="15">
         <v>5.0401591493002197E-2</v>
       </c>
-      <c r="BE8" s="15">
+      <c r="BM8" s="15">
         <v>1473</v>
       </c>
-      <c r="BF8" s="15">
+      <c r="BN8" s="15">
         <v>5.0590484042109397E-2</v>
       </c>
-      <c r="BG8" s="15">
+      <c r="BO8" s="15">
         <v>1473</v>
       </c>
-      <c r="BH8" s="15">
+      <c r="BP8" s="15">
         <v>8.5621820288305894E-2</v>
       </c>
-      <c r="BI8" s="15">
+      <c r="BQ8" s="15">
         <v>2946</v>
       </c>
-      <c r="BJ8" s="15">
+      <c r="BR8" s="15">
         <v>3.6439940273889498E-3</v>
       </c>
-      <c r="BK8" s="15"/>
-      <c r="BL8" s="15"/>
-      <c r="BM8" s="15"/>
-      <c r="BN8" s="15"/>
-      <c r="BO8" s="15">
+      <c r="BS8" s="15">
         <v>2946</v>
       </c>
-      <c r="BP8" s="15">
+      <c r="BT8" s="15">
+        <v>2.1877178681508199E-3</v>
+      </c>
+      <c r="BU8" s="15">
+        <v>2946</v>
+      </c>
+      <c r="BV8" s="15">
+        <v>1.7937600147737601E-3</v>
+      </c>
+      <c r="BW8" s="15">
+        <v>2946</v>
+      </c>
+      <c r="BX8" s="15">
         <v>3.4997889479196401E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10000000</v>
       </c>
@@ -24016,134 +24403,166 @@
       <c r="P9" s="2">
         <v>1.3240458595462E-5</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="59">
         <v>73728</v>
       </c>
-      <c r="R9" s="56">
+      <c r="R9" s="59">
+        <v>1.2354333210761199E-5</v>
+      </c>
+      <c r="S9" s="57">
+        <v>73728</v>
+      </c>
+      <c r="T9" s="57">
+        <v>1.3632121062954399E-5</v>
+      </c>
+      <c r="U9" s="56">
+        <v>73728</v>
+      </c>
+      <c r="V9" s="56">
         <v>1.99758054232098E-5</v>
       </c>
-      <c r="S9" s="2">
+      <c r="W9" s="2">
         <v>73728</v>
       </c>
-      <c r="T9" s="2">
+      <c r="X9" s="2">
         <v>1.29399246321692E-5</v>
-      </c>
-      <c r="U9" s="37">
-        <v>55296</v>
-      </c>
-      <c r="V9" s="37">
-        <v>1.97399002500223E-3</v>
-      </c>
-      <c r="W9" s="2">
-        <v>55296</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1.9739450116431998E-3</v>
       </c>
       <c r="Y9" s="37">
         <v>55296</v>
       </c>
       <c r="Z9" s="37">
-        <v>1.3507956185986299E-3</v>
-      </c>
-      <c r="AA9" s="37">
+        <v>1.97399002500223E-3</v>
+      </c>
+      <c r="AA9" s="2">
         <v>55296</v>
       </c>
-      <c r="AB9" s="37">
-        <v>1.3507956185986401E-3</v>
+      <c r="AB9" s="2">
+        <v>1.9739450116431998E-3</v>
       </c>
       <c r="AC9" s="37">
         <v>55296</v>
       </c>
       <c r="AD9" s="37">
+        <v>1.3507956185986299E-3</v>
+      </c>
+      <c r="AE9" s="37">
+        <v>55296</v>
+      </c>
+      <c r="AF9" s="37">
+        <v>1.3507956185986401E-3</v>
+      </c>
+      <c r="AG9" s="37">
+        <v>55296</v>
+      </c>
+      <c r="AH9" s="37">
         <v>1.9739612829807501E-3</v>
       </c>
-      <c r="AE9" s="37">
+      <c r="AI9" s="37">
         <v>110592</v>
       </c>
-      <c r="AF9" s="37">
+      <c r="AJ9" s="37">
         <v>1.9494654937373299E-5</v>
       </c>
-      <c r="AG9" s="56">
+      <c r="AK9" s="59">
         <v>110592</v>
       </c>
-      <c r="AH9" s="56">
+      <c r="AL9" s="59">
+        <v>2.18812435102544E-5</v>
+      </c>
+      <c r="AM9" s="59">
+        <v>110592</v>
+      </c>
+      <c r="AN9" s="57">
+        <v>2.1881243510250399E-5</v>
+      </c>
+      <c r="AO9" s="56">
+        <v>110592</v>
+      </c>
+      <c r="AP9" s="56">
         <v>2.4640437901033801E-5</v>
       </c>
-      <c r="AI9" s="35">
+      <c r="AQ9" s="35">
         <v>110592</v>
       </c>
-      <c r="AJ9" s="15">
+      <c r="AR9" s="15">
         <v>2.7133887972176101E-5</v>
       </c>
-      <c r="AK9" s="35">
+      <c r="AS9" s="35">
         <v>6332</v>
       </c>
-      <c r="AL9" s="35">
+      <c r="AT9" s="35">
         <v>2.7667507513715699E-2</v>
       </c>
-      <c r="AM9" s="35">
+      <c r="AU9" s="35">
         <v>6332</v>
       </c>
-      <c r="AN9" s="35">
+      <c r="AV9" s="35">
         <v>2.67231754446615E-2</v>
       </c>
-      <c r="AO9" s="35">
+      <c r="AW9" s="35">
         <v>6332</v>
       </c>
-      <c r="AP9" s="35">
+      <c r="AX9" s="35">
         <v>2.09836092475005E-2</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="35">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="35">
         <v>6374</v>
       </c>
-      <c r="AT9" s="35">
+      <c r="BB9" s="35">
         <v>2.37039150883104E-2</v>
       </c>
-      <c r="BA9" s="15">
+      <c r="BI9" s="15">
         <v>6027</v>
       </c>
-      <c r="BB9" s="15">
+      <c r="BJ9" s="15">
         <v>1.4466956435112E-2</v>
       </c>
-      <c r="BC9" s="15">
+      <c r="BK9" s="15">
         <v>6022</v>
       </c>
-      <c r="BD9" s="15">
+      <c r="BL9" s="15">
         <v>1.25660012145848E-2</v>
       </c>
-      <c r="BE9" s="15">
+      <c r="BM9" s="15">
         <v>6022</v>
       </c>
-      <c r="BF9" s="15">
+      <c r="BN9" s="15">
         <v>1.26060606587591E-2</v>
       </c>
-      <c r="BG9" s="15">
+      <c r="BO9" s="15">
         <v>6022</v>
       </c>
-      <c r="BH9" s="15">
+      <c r="BP9" s="15">
         <v>2.22716216053572E-2</v>
       </c>
-      <c r="BI9" s="15">
+      <c r="BQ9" s="15">
         <v>12044</v>
       </c>
-      <c r="BJ9" s="15">
+      <c r="BR9" s="15">
         <v>4.6195386838713301E-4</v>
       </c>
-      <c r="BK9" s="15"/>
-      <c r="BL9" s="15"/>
-      <c r="BM9" s="15"/>
-      <c r="BN9" s="15"/>
-      <c r="BO9" s="15">
+      <c r="BS9" s="15">
         <v>12044</v>
       </c>
-      <c r="BP9" s="15">
+      <c r="BT9" s="15">
+        <v>2.8196137560313801E-4</v>
+      </c>
+      <c r="BU9" s="15">
+        <v>12044</v>
+      </c>
+      <c r="BV9" s="15">
+        <v>2.2308692475338701E-4</v>
+      </c>
+      <c r="BW9" s="15">
+        <v>12044</v>
+      </c>
+      <c r="BX9" s="15">
         <v>4.3064061147062699E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <v>147456</v>
       </c>
@@ -24180,133 +24599,165 @@
       <c r="P10" s="2">
         <v>1.6551462983478801E-6</v>
       </c>
-      <c r="Q10" s="56">
+      <c r="Q10" s="59">
         <v>294912</v>
       </c>
-      <c r="R10" s="56">
+      <c r="R10" s="59">
+        <v>1.5439099651406699E-6</v>
+      </c>
+      <c r="S10" s="57">
+        <v>294912</v>
+      </c>
+      <c r="T10" s="57">
+        <v>1.73844287110701E-6</v>
+      </c>
+      <c r="U10" s="56">
+        <v>294912</v>
+      </c>
+      <c r="V10" s="56">
         <v>2.49685406218411E-6</v>
       </c>
-      <c r="S10" s="2">
+      <c r="W10" s="2">
         <v>294912</v>
       </c>
-      <c r="T10" s="2">
+      <c r="X10" s="2">
         <v>1.7498007398897799E-6</v>
-      </c>
-      <c r="U10" s="37">
-        <v>221184</v>
-      </c>
-      <c r="V10" s="37">
-        <v>4.9309739014286697E-4</v>
-      </c>
-      <c r="W10" s="2">
-        <v>221184</v>
-      </c>
-      <c r="X10" s="2">
-        <v>4.93094584173995E-4</v>
       </c>
       <c r="Y10" s="37">
         <v>221184</v>
       </c>
       <c r="Z10" s="37">
-        <v>3.3689261692986102E-4</v>
-      </c>
-      <c r="AA10" s="37">
+        <v>4.9309739014286697E-4</v>
+      </c>
+      <c r="AA10" s="2">
         <v>221184</v>
       </c>
-      <c r="AB10" s="37">
-        <v>3.3689261692988401E-4</v>
+      <c r="AB10" s="2">
+        <v>4.93094584173995E-4</v>
       </c>
       <c r="AC10" s="37">
         <v>221184</v>
       </c>
       <c r="AD10" s="37">
+        <v>3.3689261692986102E-4</v>
+      </c>
+      <c r="AE10" s="37">
+        <v>221184</v>
+      </c>
+      <c r="AF10" s="37">
+        <v>3.3689261692988401E-4</v>
+      </c>
+      <c r="AG10" s="37">
+        <v>221184</v>
+      </c>
+      <c r="AH10" s="37">
         <v>4.9309559037855402E-4</v>
       </c>
-      <c r="AE10" s="37">
+      <c r="AI10" s="37">
         <v>442368</v>
       </c>
-      <c r="AF10" s="37">
+      <c r="AJ10" s="37">
         <v>2.43638671524065E-6</v>
       </c>
-      <c r="AG10" s="56">
+      <c r="AK10" s="59">
         <v>442368</v>
       </c>
-      <c r="AH10" s="56">
+      <c r="AL10" s="59">
+        <v>2.8068406854510002E-6</v>
+      </c>
+      <c r="AM10" s="59">
+        <v>442368</v>
+      </c>
+      <c r="AN10" s="57">
+        <v>2.8068406854510002E-6</v>
+      </c>
+      <c r="AO10" s="56">
+        <v>442368</v>
+      </c>
+      <c r="AP10" s="56">
         <v>3.0651489423100001E-6</v>
       </c>
-      <c r="AI10" s="35">
+      <c r="AQ10" s="35">
         <v>442368</v>
       </c>
-      <c r="AJ10" s="15">
+      <c r="AR10" s="15">
         <v>3.39188935513867E-6</v>
       </c>
-      <c r="AK10" s="35">
+      <c r="AS10" s="35">
         <v>24932</v>
       </c>
-      <c r="AL10" s="35">
+      <c r="AT10" s="35">
         <v>6.96823552313274E-3</v>
       </c>
-      <c r="AM10" s="35">
+      <c r="AU10" s="35">
         <v>24932</v>
       </c>
-      <c r="AN10" s="35">
+      <c r="AV10" s="35">
         <v>1.01154268721995E-2</v>
       </c>
-      <c r="AO10" s="35">
+      <c r="AW10" s="35">
         <v>24932</v>
       </c>
-      <c r="AP10" s="35">
+      <c r="AX10" s="35">
         <v>5.6493546134790901E-3</v>
       </c>
-      <c r="AQ10" s="2"/>
-      <c r="AS10" s="35">
+      <c r="AY10" s="2"/>
+      <c r="BA10" s="35">
         <v>25043</v>
       </c>
-      <c r="AT10" s="35">
+      <c r="BB10" s="35">
         <v>6.0739524588635596E-3</v>
       </c>
-      <c r="BA10" s="15">
+      <c r="BI10" s="15">
         <v>24336</v>
       </c>
-      <c r="BB10" s="15">
+      <c r="BJ10" s="15">
         <v>3.59708263385717E-3</v>
       </c>
-      <c r="BC10" s="15">
+      <c r="BK10" s="15">
         <v>24336</v>
       </c>
-      <c r="BD10" s="15">
+      <c r="BL10" s="15">
         <v>3.14005489986192E-3</v>
       </c>
-      <c r="BE10" s="15">
+      <c r="BM10" s="15">
         <v>24336</v>
       </c>
-      <c r="BF10" s="15">
+      <c r="BN10" s="15">
         <v>3.1400774841470799E-3</v>
       </c>
-      <c r="BG10" s="15">
+      <c r="BO10" s="15">
         <v>24336</v>
       </c>
-      <c r="BH10" s="15">
+      <c r="BP10" s="15">
         <v>5.8364260648988003E-3</v>
       </c>
-      <c r="BI10" s="15">
+      <c r="BQ10" s="15">
         <v>48672</v>
       </c>
-      <c r="BJ10" s="15">
+      <c r="BR10" s="15">
         <v>5.7605212592898399E-5</v>
       </c>
-      <c r="BK10" s="15"/>
-      <c r="BL10" s="15"/>
-      <c r="BM10" s="15"/>
-      <c r="BN10" s="15"/>
-      <c r="BO10" s="15">
+      <c r="BS10" s="15">
         <v>48672</v>
       </c>
-      <c r="BP10" s="15">
+      <c r="BT10" s="15">
+        <v>3.7240584404239698E-5</v>
+      </c>
+      <c r="BU10" s="15">
+        <v>48672</v>
+      </c>
+      <c r="BV10" s="15">
+        <v>2.7501604878891902E-5</v>
+      </c>
+      <c r="BW10" s="15">
+        <v>48672</v>
+      </c>
+      <c r="BX10" s="15">
         <v>5.3853840452523698E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <v>589824</v>
       </c>
@@ -24343,104 +24794,140 @@
       <c r="P11" s="2">
         <v>2.12984154981561E-7</v>
       </c>
-      <c r="Q11" s="56">
+      <c r="Q11" s="59">
         <v>1179648</v>
       </c>
-      <c r="R11" s="56">
+      <c r="R11" s="59">
+        <v>2.12196840894E-7</v>
+      </c>
+      <c r="S11" s="57">
+        <v>1179648</v>
+      </c>
+      <c r="T11" s="57">
+        <v>2.2409840853999999E-7</v>
+      </c>
+      <c r="U11" s="56">
+        <v>1179648</v>
+      </c>
+      <c r="V11" s="56">
         <v>3.1210188187407399E-7</v>
       </c>
-      <c r="S11" s="2">
+      <c r="W11" s="2">
         <v>1179648</v>
       </c>
-      <c r="T11" s="2">
-        <v>2.2499999999999999E-7</v>
-      </c>
-      <c r="U11" s="37">
-        <v>884736</v>
-      </c>
-      <c r="V11" s="37">
-        <v>1.21651418915354E-4</v>
-      </c>
-      <c r="W11" s="2">
-        <v>884736</v>
-      </c>
-      <c r="X11" s="37">
-        <v>1.21652651848477E-4</v>
+      <c r="X11" s="2">
+        <v>2.2598498408400001E-7</v>
       </c>
       <c r="Y11" s="37">
         <v>884736</v>
       </c>
       <c r="Z11" s="37">
-        <v>8.5165481621230001E-5</v>
-      </c>
-      <c r="AA11" s="37">
+        <v>1.21651418915354E-4</v>
+      </c>
+      <c r="AA11" s="2">
         <v>884736</v>
       </c>
       <c r="AB11" s="37">
-        <v>8.5165481621230001E-5</v>
+        <v>1.21652651848477E-4</v>
       </c>
       <c r="AC11" s="37">
         <v>884736</v>
       </c>
       <c r="AD11" s="37">
+        <v>8.5165481621230001E-5</v>
+      </c>
+      <c r="AE11" s="37">
+        <v>884736</v>
+      </c>
+      <c r="AF11" s="37">
+        <v>8.5165481621230001E-5</v>
+      </c>
+      <c r="AG11" s="37">
+        <v>884736</v>
+      </c>
+      <c r="AH11" s="37">
         <v>1.21651418915354E-4</v>
-      </c>
-      <c r="AE11" s="37">
-        <v>1769472</v>
-      </c>
-      <c r="AF11" s="37">
-        <v>3.4999999999999998E-7</v>
-      </c>
-      <c r="AG11" s="56">
-        <v>1769472</v>
-      </c>
-      <c r="AH11" s="56">
-        <v>4.416854084081E-7</v>
       </c>
       <c r="AI11" s="37">
         <v>1769472</v>
       </c>
-      <c r="AJ11" s="15">
+      <c r="AJ11" s="37">
+        <v>3.4999999999999998E-7</v>
+      </c>
+      <c r="AK11" s="59">
+        <v>1769472</v>
+      </c>
+      <c r="AL11" s="59">
+        <v>3.9265409842099999E-7</v>
+      </c>
+      <c r="AM11" s="59">
+        <v>1769472</v>
+      </c>
+      <c r="AN11" s="57">
+        <v>3.9265409842099999E-7</v>
+      </c>
+      <c r="AO11" s="56">
+        <v>1769472</v>
+      </c>
+      <c r="AP11" s="56">
+        <v>4.416854084081E-7</v>
+      </c>
+      <c r="AQ11" s="37">
+        <v>1769472</v>
+      </c>
+      <c r="AR11" s="15">
         <v>4.7999999999999996E-7</v>
       </c>
-      <c r="BA11" s="15">
+      <c r="BI11" s="15">
         <v>97818</v>
       </c>
-      <c r="BB11" s="15">
+      <c r="BJ11" s="15">
         <v>8.9796200653750402E-4</v>
       </c>
-      <c r="BC11" s="15">
+      <c r="BK11" s="15">
         <v>97818</v>
       </c>
-      <c r="BD11" s="15">
+      <c r="BL11" s="15">
         <v>7.8620738923225496E-4</v>
       </c>
-      <c r="BE11" s="15">
+      <c r="BM11" s="15">
         <v>97818</v>
       </c>
-      <c r="BF11" s="15">
+      <c r="BN11" s="15">
         <v>7.8514168217894305E-4</v>
       </c>
-      <c r="BG11" s="15">
+      <c r="BO11" s="15">
         <v>97818</v>
       </c>
-      <c r="BH11" s="15">
+      <c r="BP11" s="15">
         <v>1.54489723646907E-3</v>
       </c>
-      <c r="BI11" s="15">
+      <c r="BQ11" s="15">
         <v>195636</v>
       </c>
-      <c r="BJ11" s="15">
+      <c r="BR11" s="15">
         <v>7.24924282437219E-6</v>
       </c>
-      <c r="BO11" s="15">
+      <c r="BS11" s="15">
         <v>195636</v>
       </c>
-      <c r="BP11" s="15">
+      <c r="BT11" s="15">
+        <v>5.1210314905378696E-6</v>
+      </c>
+      <c r="BU11" s="15">
+        <v>195636</v>
+      </c>
+      <c r="BV11" s="15">
+        <v>3.5579257542771499E-6</v>
+      </c>
+      <c r="BW11" s="15">
+        <v>195636</v>
+      </c>
+      <c r="BX11" s="15">
         <v>7.7124692229687497E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <v>2359296</v>
       </c>
@@ -24471,722 +24958,876 @@
       <c r="N12" s="37">
         <v>2.6984015198462E-5</v>
       </c>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="U12" s="37">
-        <v>3538944</v>
-      </c>
-      <c r="V12" s="37">
-        <v>3.0499999999999999E-5</v>
-      </c>
-      <c r="W12" s="2">
-        <v>3538944</v>
-      </c>
-      <c r="X12" s="52">
-        <v>3.0499999999999999E-5</v>
-      </c>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
       <c r="Y12" s="37">
         <v>3538944</v>
       </c>
-      <c r="Z12" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AA12" s="37">
+      <c r="Z12" s="37">
+        <v>3.0499999999999999E-5</v>
+      </c>
+      <c r="AA12" s="2">
         <v>3538944</v>
       </c>
-      <c r="AB12" s="2">
-        <v>2.0000000000000002E-5</v>
+      <c r="AB12" s="52">
+        <v>3.0499999999999999E-5</v>
       </c>
       <c r="AC12" s="37">
         <v>3538944</v>
       </c>
-      <c r="AD12" s="52">
+      <c r="AD12" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AE12" s="37">
+        <v>3538944</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AG12" s="37">
+        <v>3538944</v>
+      </c>
+      <c r="AH12" s="52">
         <v>3.0499999999999999E-5</v>
       </c>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
       <c r="AQ12" s="2"/>
-      <c r="BA12" s="15">
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="2"/>
+      <c r="BI12" s="15">
         <v>392211</v>
       </c>
-      <c r="BB12" s="15">
+      <c r="BJ12" s="15">
         <v>2.2432451412024299E-4</v>
       </c>
-      <c r="BC12" s="15">
+      <c r="BK12" s="15">
         <v>392211</v>
       </c>
-      <c r="BD12" s="15">
+      <c r="BL12" s="15">
         <v>1.97398507109262E-4</v>
       </c>
-      <c r="BE12" s="15">
+      <c r="BM12" s="15">
         <v>392211</v>
       </c>
-      <c r="BF12" s="15">
+      <c r="BN12" s="15">
         <v>1.9626886317087599E-4</v>
       </c>
-      <c r="BG12" s="15">
+      <c r="BO12" s="15">
         <v>392211</v>
       </c>
-      <c r="BH12" s="15">
+      <c r="BP12" s="15">
         <v>4.07219020603387E-4</v>
       </c>
-      <c r="BO12" s="15">
+      <c r="BQ12" s="15">
         <v>784422</v>
       </c>
-      <c r="BP12" s="15">
+      <c r="BR12" s="15">
+        <v>9.0927287824969303E-7</v>
+      </c>
+      <c r="BS12" s="15">
+        <v>784422</v>
+      </c>
+      <c r="BT12" s="15">
+        <v>6.2351084090000001E-7</v>
+      </c>
+      <c r="BU12" s="15">
+        <v>784422</v>
+      </c>
+      <c r="BV12" s="15">
+        <v>4.6168709841200001E-7</v>
+      </c>
+      <c r="BW12" s="15">
+        <v>784422</v>
+      </c>
+      <c r="BX12" s="15">
         <v>9.593199650516459E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
       <c r="AQ13" s="2"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
       <c r="AQ14" s="2"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
       <c r="AQ15" s="2"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
       <c r="AQ16" s="2"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
     </row>
-    <row r="17" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
+    <row r="17" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
       <c r="AQ17" s="2"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
     </row>
-    <row r="18" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+    <row r="18" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
       <c r="AQ18" s="2"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
     </row>
-    <row r="19" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
+    <row r="19" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
       <c r="AQ19" s="2"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
     </row>
-    <row r="20" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+    <row r="20" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
       <c r="AQ20" s="2"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
     </row>
-    <row r="21" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+    <row r="21" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="57"/>
+      <c r="AN21" s="57"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="56"/>
       <c r="AQ21" s="2"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
     </row>
-    <row r="22" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+    <row r="22" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="57"/>
+      <c r="AM22" s="57"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
       <c r="AQ22" s="2"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
     </row>
-    <row r="23" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+    <row r="23" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="57"/>
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="57"/>
+      <c r="AN23" s="57"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
       <c r="AQ23" s="2"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
     </row>
-    <row r="24" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+    <row r="24" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="56"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="15"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="57"/>
+      <c r="AO24" s="56"/>
+      <c r="AP24" s="56"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="15"/>
     </row>
-    <row r="25" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
+    <row r="25" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="15"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="15"/>
     </row>
-    <row r="26" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+    <row r="26" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="15"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="15"/>
     </row>
-    <row r="27" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+    <row r="27" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
-      <c r="AJ27" s="15"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="15"/>
     </row>
-    <row r="28" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
+    <row r="28" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
-      <c r="AJ28" s="15"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="15"/>
     </row>
-    <row r="29" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
+    <row r="29" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
-      <c r="AJ29" s="15"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="15"/>
     </row>
-    <row r="30" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
+    <row r="30" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
-      <c r="AJ30" s="15"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="15"/>
     </row>
-    <row r="31" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
+    <row r="31" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
-      <c r="AJ31" s="15"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="15"/>
     </row>
-    <row r="32" spans="23:43" x14ac:dyDescent="0.25">
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+    <row r="32" spans="27:51" x14ac:dyDescent="0.25">
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
-      <c r="AJ32" s="15"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="15"/>
     </row>
-    <row r="33" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
+    <row r="33" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="15"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="15"/>
     </row>
-    <row r="34" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+    <row r="34" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="15"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="15"/>
     </row>
-    <row r="35" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+    <row r="35" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
-      <c r="AJ35" s="15"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="15"/>
     </row>
-    <row r="36" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+    <row r="36" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
-      <c r="AJ36" s="15"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="57"/>
+      <c r="AN36" s="57"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="56"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="15"/>
     </row>
-    <row r="37" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+    <row r="37" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
-      <c r="AJ37" s="15"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="57"/>
+      <c r="AL37" s="57"/>
+      <c r="AM37" s="57"/>
+      <c r="AN37" s="57"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="56"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="15"/>
     </row>
-    <row r="38" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
+    <row r="38" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
-      <c r="AJ38" s="15"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="57"/>
+      <c r="AL38" s="57"/>
+      <c r="AM38" s="57"/>
+      <c r="AN38" s="57"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="56"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="15"/>
     </row>
-    <row r="39" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
+    <row r="39" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
-      <c r="AJ39" s="15"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="57"/>
+      <c r="AL39" s="57"/>
+      <c r="AM39" s="57"/>
+      <c r="AN39" s="57"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="56"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="15"/>
     </row>
-    <row r="40" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
+    <row r="40" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="56"/>
-      <c r="AH40" s="56"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
-      <c r="AJ40" s="15"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="57"/>
+      <c r="AL40" s="57"/>
+      <c r="AM40" s="57"/>
+      <c r="AN40" s="57"/>
+      <c r="AO40" s="56"/>
+      <c r="AP40" s="56"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="15"/>
     </row>
-    <row r="41" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
+    <row r="41" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="56"/>
-      <c r="AH41" s="56"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
-      <c r="AJ41" s="15"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="57"/>
+      <c r="AL41" s="57"/>
+      <c r="AM41" s="57"/>
+      <c r="AN41" s="57"/>
+      <c r="AO41" s="56"/>
+      <c r="AP41" s="56"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="15"/>
     </row>
-    <row r="42" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
+    <row r="42" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="56"/>
-      <c r="AH42" s="56"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
-      <c r="AJ42" s="15"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="57"/>
+      <c r="AL42" s="57"/>
+      <c r="AM42" s="57"/>
+      <c r="AN42" s="57"/>
+      <c r="AO42" s="56"/>
+      <c r="AP42" s="56"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="15"/>
     </row>
-    <row r="43" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
+    <row r="43" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="56"/>
-      <c r="AH43" s="56"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
-      <c r="AJ43" s="15"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="57"/>
+      <c r="AL43" s="57"/>
+      <c r="AM43" s="57"/>
+      <c r="AN43" s="57"/>
+      <c r="AO43" s="56"/>
+      <c r="AP43" s="56"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="15"/>
     </row>
-    <row r="44" spans="23:36" x14ac:dyDescent="0.25">
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
+    <row r="44" spans="27:44" x14ac:dyDescent="0.25">
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="56"/>
-      <c r="AH44" s="56"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
-      <c r="AJ44" s="15"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="57"/>
+      <c r="AL44" s="57"/>
+      <c r="AM44" s="57"/>
+      <c r="AN44" s="57"/>
+      <c r="AO44" s="56"/>
+      <c r="AP44" s="56"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="U1:AJ1"/>
+  <mergeCells count="52">
+    <mergeCell ref="Y1:AR1"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BI3:BP3"/>
+    <mergeCell ref="BI4:BJ4"/>
     <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
     <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS2:BP2"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="BQ3:BX3"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AI2:AR2"/>
+    <mergeCell ref="E1:X1"/>
+    <mergeCell ref="BQ4:BR4"/>
     <mergeCell ref="BA3:BH3"/>
     <mergeCell ref="BA4:BB4"/>
     <mergeCell ref="BC4:BD4"/>
     <mergeCell ref="BE4:BF4"/>
     <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK2:BH2"/>
-    <mergeCell ref="E1:T1"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AS3:AZ3"/>
+    <mergeCell ref="AW4:AX4"/>
     <mergeCell ref="AS4:AT4"/>
     <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
     <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AK3:AR3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="AS3:AZ3"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="O2:X2"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AE3:AJ3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="BQ2:BX2"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI3:AR3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="Y3:AH3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="Y2:AH2"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="BI3:BP3"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25210,58 +25851,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="70" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="70" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="70" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="70" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="75"/>
+      <c r="O1" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="70" t="s">
+      <c r="P1" s="75"/>
+      <c r="Q1" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="71"/>
-      <c r="S1" s="70" t="s">
+      <c r="R1" s="74"/>
+      <c r="S1" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="71"/>
-      <c r="U1" s="70" t="s">
+      <c r="T1" s="74"/>
+      <c r="U1" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="72"/>
-      <c r="W1" s="70" t="s">
+      <c r="V1" s="75"/>
+      <c r="W1" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="70" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="71"/>
+      <c r="Z1" s="74"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
@@ -27343,54 +27984,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="70" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="73" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="70" t="s">
+      <c r="J1" s="77"/>
+      <c r="K1" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="70" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="73" t="s">
+      <c r="P1" s="74"/>
+      <c r="Q1" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="74"/>
-      <c r="S1" s="70" t="s">
+      <c r="R1" s="77"/>
+      <c r="S1" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="71"/>
-      <c r="U1" s="73" t="s">
+      <c r="T1" s="74"/>
+      <c r="U1" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="70" t="s">
+      <c r="V1" s="77"/>
+      <c r="W1" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="71"/>
+      <c r="X1" s="74"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
@@ -31356,28 +31997,28 @@
       <c r="D1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="75" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="77"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
@@ -31395,32 +32036,32 @@
         <f>B2^3*5</f>
         <v>7.8125E-2</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="78" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79" t="s">
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="80"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="83"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -31438,42 +32079,42 @@
         <f t="shared" ref="D3:D8" si="1">B3^3*5</f>
         <v>9.765625E-3</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79" t="s">
+      <c r="H3" s="82"/>
+      <c r="I3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79" t="s">
+      <c r="J3" s="82"/>
+      <c r="K3" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="78" t="s">
+      <c r="L3" s="83"/>
+      <c r="M3" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79" t="s">
+      <c r="N3" s="82"/>
+      <c r="O3" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79" t="s">
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79" t="s">
+      <c r="R3" s="82"/>
+      <c r="S3" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79" t="s">
+      <c r="T3" s="82"/>
+      <c r="U3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="80"/>
+      <c r="V3" s="83"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
@@ -32631,48 +33272,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="84" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="86"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="81" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82" t="s">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">

--- a/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Transport_MMS/simple_scaling_MMS.xlsx
@@ -729,6 +729,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,27 +747,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -766,6 +754,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,6 +783,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,12 +799,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3569,11 +3569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187826352"/>
-        <c:axId val="187826912"/>
+        <c:axId val="197967520"/>
+        <c:axId val="197968080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187826352"/>
+        <c:axId val="197967520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3687,12 +3687,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187826912"/>
+        <c:crossAx val="197968080"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187826912"/>
+        <c:axId val="197968080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3807,7 +3807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187826352"/>
+        <c:crossAx val="197967520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4277,11 +4277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189676016"/>
-        <c:axId val="189676576"/>
+        <c:axId val="199862960"/>
+        <c:axId val="199863520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189676016"/>
+        <c:axId val="199862960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4339,12 +4339,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189676576"/>
+        <c:crossAx val="199863520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189676576"/>
+        <c:axId val="199863520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4402,7 +4402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189676016"/>
+        <c:crossAx val="199862960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4789,11 +4789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189680496"/>
-        <c:axId val="189681056"/>
+        <c:axId val="199867440"/>
+        <c:axId val="199868000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189680496"/>
+        <c:axId val="199867440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4851,12 +4851,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189681056"/>
+        <c:crossAx val="199868000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189681056"/>
+        <c:axId val="199868000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4914,7 +4914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189680496"/>
+        <c:crossAx val="199867440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5979,11 +5979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188396080"/>
-        <c:axId val="188396640"/>
+        <c:axId val="197975920"/>
+        <c:axId val="197976480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188396080"/>
+        <c:axId val="197975920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6098,12 +6098,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188396640"/>
+        <c:crossAx val="197976480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188396640"/>
+        <c:axId val="197976480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6219,7 +6219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188396080"/>
+        <c:crossAx val="197975920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7285,11 +7285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188404480"/>
-        <c:axId val="188405040"/>
+        <c:axId val="199162384"/>
+        <c:axId val="199162944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188404480"/>
+        <c:axId val="199162384"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7404,12 +7404,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188405040"/>
+        <c:crossAx val="199162944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188405040"/>
+        <c:axId val="199162944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7525,7 +7525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188404480"/>
+        <c:crossAx val="199162384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8615,11 +8615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189161408"/>
-        <c:axId val="189161968"/>
+        <c:axId val="199170784"/>
+        <c:axId val="199171344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189161408"/>
+        <c:axId val="199170784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8735,12 +8735,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189161968"/>
+        <c:crossAx val="199171344"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189161968"/>
+        <c:axId val="199171344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8856,7 +8856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189161408"/>
+        <c:crossAx val="199170784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11766,11 +11766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189172048"/>
-        <c:axId val="189172608"/>
+        <c:axId val="199411040"/>
+        <c:axId val="199411600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189172048"/>
+        <c:axId val="199411040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11829,12 +11829,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189172608"/>
+        <c:crossAx val="199411600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189172608"/>
+        <c:axId val="199411600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11894,7 +11894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189172048"/>
+        <c:crossAx val="199411040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13155,11 +13155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188658608"/>
-        <c:axId val="188659168"/>
+        <c:axId val="199419440"/>
+        <c:axId val="198959280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188658608"/>
+        <c:axId val="199419440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13219,12 +13219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188659168"/>
+        <c:crossAx val="198959280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188659168"/>
+        <c:axId val="198959280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13282,7 +13282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188658608"/>
+        <c:crossAx val="199419440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13934,11 +13934,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188664768"/>
-        <c:axId val="188665328"/>
+        <c:axId val="198964880"/>
+        <c:axId val="198965440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188664768"/>
+        <c:axId val="198964880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14052,12 +14052,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188665328"/>
+        <c:crossAx val="198965440"/>
         <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188665328"/>
+        <c:axId val="198965440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14170,7 +14170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188664768"/>
+        <c:crossAx val="198964880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14722,11 +14722,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188670368"/>
-        <c:axId val="189665376"/>
+        <c:axId val="198970480"/>
+        <c:axId val="198971040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188670368"/>
+        <c:axId val="198970480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14784,12 +14784,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189665376"/>
+        <c:crossAx val="198971040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189665376"/>
+        <c:axId val="198971040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14847,7 +14847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188670368"/>
+        <c:crossAx val="198970480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15452,11 +15452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189670976"/>
-        <c:axId val="189671536"/>
+        <c:axId val="199857920"/>
+        <c:axId val="199858480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189670976"/>
+        <c:axId val="199857920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15514,12 +15514,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189671536"/>
+        <c:crossAx val="199858480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189671536"/>
+        <c:axId val="199858480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15577,7 +15577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189670976"/>
+        <c:crossAx val="199857920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22438,16 +22438,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="87" t="s">
         <v>17</v>
       </c>
@@ -22865,12 +22865,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="87" t="s">
@@ -23046,8 +23046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BW28" sqref="BW28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23079,50 +23079,50 @@
       <c r="D1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="68" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
       <c r="AS1" t="s">
         <v>34</v>
       </c>
@@ -23156,90 +23156,90 @@
         <f>A2^(-2)*100</f>
         <v>100</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60" t="s">
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="71" t="s">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="68" t="s">
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="69"/>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="69"/>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="69"/>
-      <c r="BP2" s="69"/>
-      <c r="BQ2" s="67" t="s">
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="61"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="BR2" s="67"/>
-      <c r="BS2" s="67"/>
-      <c r="BT2" s="67"/>
-      <c r="BU2" s="67"/>
-      <c r="BV2" s="67"/>
-      <c r="BW2" s="67"/>
-      <c r="BX2" s="67"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -23257,94 +23257,94 @@
         <f t="shared" ref="D3:D9" si="2">A3^(-2)*100</f>
         <v>1</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60" t="s">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="63" t="s">
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65" t="s">
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60" t="s">
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60" t="s">
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="70" t="s">
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="BR3" s="70"/>
-      <c r="BS3" s="70"/>
-      <c r="BT3" s="70"/>
-      <c r="BU3" s="70"/>
-      <c r="BV3" s="70"/>
-      <c r="BW3" s="70"/>
-      <c r="BX3" s="70"/>
+      <c r="BR3" s="66"/>
+      <c r="BS3" s="66"/>
+      <c r="BT3" s="66"/>
+      <c r="BU3" s="66"/>
+      <c r="BV3" s="66"/>
+      <c r="BW3" s="66"/>
+      <c r="BX3" s="66"/>
     </row>
     <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -23362,150 +23362,150 @@
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61" t="s">
+      <c r="F4" s="64"/>
+      <c r="G4" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61" t="s">
+      <c r="N4" s="64"/>
+      <c r="O4" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62" t="s">
+      <c r="P4" s="64"/>
+      <c r="Q4" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62" t="s">
+      <c r="R4" s="65"/>
+      <c r="S4" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62" t="s">
+      <c r="T4" s="65"/>
+      <c r="U4" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="62"/>
-      <c r="W4" s="61" t="s">
+      <c r="V4" s="65"/>
+      <c r="W4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61" t="s">
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61" t="s">
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61" t="s">
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61" t="s">
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61" t="s">
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61" t="s">
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="62" t="s">
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62" t="s">
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62" t="s">
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="66" t="s">
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66" t="s">
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66" t="s">
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66" t="s">
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66" t="s">
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66" t="s">
+      <c r="BB4" s="62"/>
+      <c r="BC4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66" t="s">
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="66" t="s">
+      <c r="BF4" s="62"/>
+      <c r="BG4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66" t="s">
+      <c r="BH4" s="62"/>
+      <c r="BI4" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66" t="s">
+      <c r="BJ4" s="62"/>
+      <c r="BK4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BL4" s="66"/>
-      <c r="BM4" s="66" t="s">
+      <c r="BL4" s="62"/>
+      <c r="BM4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="66" t="s">
+      <c r="BN4" s="62"/>
+      <c r="BO4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66" t="s">
+      <c r="BP4" s="62"/>
+      <c r="BQ4" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="BR4" s="66"/>
-      <c r="BS4" s="66" t="s">
+      <c r="BR4" s="62"/>
+      <c r="BS4" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="BT4" s="66"/>
-      <c r="BU4" s="66" t="s">
+      <c r="BT4" s="62"/>
+      <c r="BU4" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="BV4" s="66"/>
-      <c r="BW4" s="66" t="s">
+      <c r="BV4" s="62"/>
+      <c r="BW4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="BX4" s="66"/>
+      <c r="BX4" s="62"/>
     </row>
     <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -25776,6 +25776,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="Y2:AH2"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI3:AR3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="Y3:AH3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="E1:X1"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AS3:AZ3"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="BQ2:BX2"/>
     <mergeCell ref="Y1:AR1"/>
     <mergeCell ref="BS4:BT4"/>
     <mergeCell ref="BW4:BX4"/>
@@ -25792,42 +25828,6 @@
     <mergeCell ref="AM4:AN4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AI2:AR2"/>
-    <mergeCell ref="E1:X1"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BA3:BH3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AS3:AZ3"/>
-    <mergeCell ref="O3:X3"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="BQ2:BX2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI3:AR3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="Y3:AH3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="Y2:AH2"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30132,11 +30132,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="Q1:R1"/>
@@ -30144,6 +30139,11 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30170,33 +30170,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61" t="s">
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -30985,41 +30985,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="L1" s="61" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="L1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -31061,38 +31061,38 @@
       <c r="P2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61" t="s">
+      <c r="R2" s="64"/>
+      <c r="S2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61" t="s">
+      <c r="T2" s="64"/>
+      <c r="U2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61" t="s">
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61" t="s">
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="61"/>
+      <c r="AF2" s="64"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -31997,28 +31997,28 @@
       <c r="D1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="78" t="s">
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="80"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="82"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
@@ -32036,32 +32036,32 @@
         <f>B2^3*5</f>
         <v>7.8125E-2</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="81" t="s">
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82" t="s">
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="83"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -32079,42 +32079,42 @@
         <f t="shared" ref="D3:D8" si="1">B3^3*5</f>
         <v>9.765625E-3</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82" t="s">
+      <c r="H3" s="78"/>
+      <c r="I3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="83"/>
-      <c r="M3" s="81" t="s">
+      <c r="L3" s="79"/>
+      <c r="M3" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82" t="s">
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82" t="s">
+      <c r="R3" s="78"/>
+      <c r="S3" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82" t="s">
+      <c r="T3" s="78"/>
+      <c r="U3" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="83"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
@@ -32753,11 +32753,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
@@ -32769,6 +32764,11 @@
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32790,29 +32790,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="16"/>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="P1" s="67" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="P1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -32842,22 +32842,22 @@
       <c r="I2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67" t="s">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="P2" s="67" t="s">
+      <c r="N2" s="70"/>
+      <c r="P2" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67" t="s">
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="67"/>
+      <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -33272,16 +33272,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="87" t="s">
         <v>17</v>
       </c>
